--- a/SimulationStudyData/Model2/SimCase9_Yobs_SimRun2.xlsx
+++ b/SimulationStudyData/Model2/SimCase9_Yobs_SimRun2.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.19074468304127</v>
+        <v>-5.48900930724762</v>
       </c>
       <c r="B2" t="n">
-        <v>11.6266246756802</v>
+        <v>-5.67874363273499</v>
       </c>
       <c r="C2" t="n">
-        <v>10.139651478282</v>
+        <v>-5.40641750159515</v>
       </c>
       <c r="D2" t="n">
-        <v>12.607069155954</v>
+        <v>-4.42709306808973</v>
       </c>
       <c r="E2" t="n">
-        <v>12.7379452372992</v>
+        <v>-3.78070232216419</v>
       </c>
       <c r="F2" t="n">
-        <v>13.8191238737201</v>
+        <v>-2.50184898389021</v>
       </c>
       <c r="G2" t="n">
-        <v>12.297187614695</v>
+        <v>-0.901457840738513</v>
       </c>
       <c r="H2" t="n">
-        <v>12.5296686799694</v>
+        <v>1.26950933124113</v>
       </c>
       <c r="I2" t="n">
-        <v>11.5705766685046</v>
+        <v>3.7269176380544</v>
       </c>
       <c r="J2" t="n">
-        <v>11.0354066984144</v>
+        <v>6.80037775285238</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.97405745079102</v>
+        <v>-4.64897295871446</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.38912686709516</v>
+        <v>-5.17444136606924</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.60658772752724</v>
+        <v>-5.52440198231456</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.62303041135763</v>
+        <v>-4.27365756190667</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.93343296607144</v>
+        <v>-3.60116395618964</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.70416146491308</v>
+        <v>-2.42865200315034</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.911923161337522</v>
+        <v>-0.281605180936662</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0346430009641</v>
+        <v>1.00425055907912</v>
       </c>
       <c r="I3" t="n">
-        <v>3.43557942875548</v>
+        <v>3.52469950672057</v>
       </c>
       <c r="J3" t="n">
-        <v>7.06622758585811</v>
+        <v>6.80188087190267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10.9604872441941</v>
+        <v>-5.07077700193385</v>
       </c>
       <c r="B4" t="n">
-        <v>11.204370190588</v>
+        <v>-5.44729137026458</v>
       </c>
       <c r="C4" t="n">
-        <v>11.5196044080175</v>
+        <v>-5.37923969212896</v>
       </c>
       <c r="D4" t="n">
-        <v>12.6568006285223</v>
+        <v>-4.18417433432076</v>
       </c>
       <c r="E4" t="n">
-        <v>11.6604876528638</v>
+        <v>-3.85458940980474</v>
       </c>
       <c r="F4" t="n">
-        <v>12.9666078391155</v>
+        <v>-2.79862374668546</v>
       </c>
       <c r="G4" t="n">
-        <v>11.8780391027549</v>
+        <v>-0.836090917518168</v>
       </c>
       <c r="H4" t="n">
-        <v>12.0990913612103</v>
+        <v>1.28355211277933</v>
       </c>
       <c r="I4" t="n">
-        <v>11.0512015126161</v>
+        <v>4.19563948642632</v>
       </c>
       <c r="J4" t="n">
-        <v>10.7542451219721</v>
+        <v>6.50949015325749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.57783643029271</v>
+        <v>8.81574596382282</v>
       </c>
       <c r="B5" t="n">
-        <v>10.9198412519104</v>
+        <v>10.9836992150917</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4673557679171</v>
+        <v>12.0341829257322</v>
       </c>
       <c r="D5" t="n">
-        <v>11.3867252001784</v>
+        <v>11.8708359923254</v>
       </c>
       <c r="E5" t="n">
-        <v>12.7002112409925</v>
+        <v>12.4461471414811</v>
       </c>
       <c r="F5" t="n">
-        <v>11.8055379780857</v>
+        <v>12.5194151481255</v>
       </c>
       <c r="G5" t="n">
-        <v>12.8585111652341</v>
+        <v>13.3040157839468</v>
       </c>
       <c r="H5" t="n">
-        <v>11.1804404148854</v>
+        <v>11.737185293949</v>
       </c>
       <c r="I5" t="n">
-        <v>11.9373821877078</v>
+        <v>11.0701856621191</v>
       </c>
       <c r="J5" t="n">
-        <v>9.79579040039383</v>
+        <v>10.7215527855819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.54243121693614</v>
+        <v>9.62050685214176</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9331574522183</v>
+        <v>11.4291570344629</v>
       </c>
       <c r="C6" t="n">
-        <v>11.696293111903</v>
+        <v>11.4791129544684</v>
       </c>
       <c r="D6" t="n">
-        <v>10.6240657178537</v>
+        <v>11.6176781042385</v>
       </c>
       <c r="E6" t="n">
-        <v>11.4051611347709</v>
+        <v>12.0212071871381</v>
       </c>
       <c r="F6" t="n">
-        <v>12.2608947455938</v>
+        <v>12.7815647009301</v>
       </c>
       <c r="G6" t="n">
-        <v>11.485586188233</v>
+        <v>11.8162763968649</v>
       </c>
       <c r="H6" t="n">
-        <v>10.6109699854552</v>
+        <v>11.8627126344102</v>
       </c>
       <c r="I6" t="n">
-        <v>12.1649126645174</v>
+        <v>11.0160477780257</v>
       </c>
       <c r="J6" t="n">
-        <v>10.7278933634182</v>
+        <v>11.4476388240865</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.89287520651142</v>
+        <v>10.6388220403768</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.01474789410921</v>
+        <v>11.0101154886864</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.99904836617106</v>
+        <v>11.1104098166989</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.17942740556694</v>
+        <v>11.6651781501704</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.6171184398993</v>
+        <v>13.6552202203751</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.59924371976019</v>
+        <v>12.6784718821416</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.686374456071676</v>
+        <v>12.2908232609749</v>
       </c>
       <c r="H7" t="n">
-        <v>1.22906642956928</v>
+        <v>12.274250119536</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9344480801536</v>
+        <v>12.219728001731</v>
       </c>
       <c r="J7" t="n">
-        <v>6.62752285205407</v>
+        <v>12.4654530120292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.3654700853025</v>
+        <v>9.3151731838484</v>
       </c>
       <c r="B8" t="n">
-        <v>10.8945910284658</v>
+        <v>10.8949179393587</v>
       </c>
       <c r="C8" t="n">
-        <v>12.9574422269993</v>
+        <v>12.1810098811595</v>
       </c>
       <c r="D8" t="n">
-        <v>13.1481589225601</v>
+        <v>11.7136461392829</v>
       </c>
       <c r="E8" t="n">
-        <v>12.9284634838554</v>
+        <v>11.6638737872884</v>
       </c>
       <c r="F8" t="n">
-        <v>10.9657899100234</v>
+        <v>12.9204774735532</v>
       </c>
       <c r="G8" t="n">
-        <v>12.2832082320652</v>
+        <v>13.3480915039936</v>
       </c>
       <c r="H8" t="n">
-        <v>11.8315610758157</v>
+        <v>11.7398655167104</v>
       </c>
       <c r="I8" t="n">
-        <v>11.2856259257752</v>
+        <v>11.8437069375965</v>
       </c>
       <c r="J8" t="n">
-        <v>10.8501798836603</v>
+        <v>11.019802653816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.5351140992134</v>
+        <v>9.73649038900559</v>
       </c>
       <c r="B9" t="n">
-        <v>9.23981492879165</v>
+        <v>12.0365071077607</v>
       </c>
       <c r="C9" t="n">
-        <v>11.728866486712</v>
+        <v>12.1117160036448</v>
       </c>
       <c r="D9" t="n">
-        <v>12.2140940777019</v>
+        <v>11.5680003199073</v>
       </c>
       <c r="E9" t="n">
-        <v>12.2023456804709</v>
+        <v>10.3647451351341</v>
       </c>
       <c r="F9" t="n">
-        <v>12.2435460206734</v>
+        <v>11.52029583137</v>
       </c>
       <c r="G9" t="n">
-        <v>12.1403977138597</v>
+        <v>12.191829605558</v>
       </c>
       <c r="H9" t="n">
-        <v>12.0412228277096</v>
+        <v>12.3433489845676</v>
       </c>
       <c r="I9" t="n">
-        <v>11.5324481142477</v>
+        <v>12.7377660770787</v>
       </c>
       <c r="J9" t="n">
-        <v>10.9802417180378</v>
+        <v>10.0763677178399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.55847012744056</v>
+        <v>11.1732312433781</v>
       </c>
       <c r="B10" t="n">
-        <v>11.6327042714486</v>
+        <v>11.0760573915895</v>
       </c>
       <c r="C10" t="n">
-        <v>8.92053646994287</v>
+        <v>10.4891445113062</v>
       </c>
       <c r="D10" t="n">
-        <v>12.1770268415159</v>
+        <v>11.7755981277156</v>
       </c>
       <c r="E10" t="n">
-        <v>12.5883078346571</v>
+        <v>13.6020633547972</v>
       </c>
       <c r="F10" t="n">
-        <v>12.3514635470986</v>
+        <v>13.014852752414</v>
       </c>
       <c r="G10" t="n">
-        <v>12.8815427815423</v>
+        <v>12.6038780986385</v>
       </c>
       <c r="H10" t="n">
-        <v>13.2647224740208</v>
+        <v>12.4389455611342</v>
       </c>
       <c r="I10" t="n">
-        <v>12.1375857948953</v>
+        <v>12.603863963178</v>
       </c>
       <c r="J10" t="n">
-        <v>10.6882254844491</v>
+        <v>11.082959165752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.7837225896059</v>
+        <v>-4.99019642234488</v>
       </c>
       <c r="B11" t="n">
-        <v>9.72397459647647</v>
+        <v>-5.25737638883691</v>
       </c>
       <c r="C11" t="n">
-        <v>11.9027276600754</v>
+        <v>-5.34050814727932</v>
       </c>
       <c r="D11" t="n">
-        <v>12.2122947718709</v>
+        <v>-4.79342523658382</v>
       </c>
       <c r="E11" t="n">
-        <v>11.6032324569305</v>
+        <v>-3.68506493278669</v>
       </c>
       <c r="F11" t="n">
-        <v>13.9594077931579</v>
+        <v>-2.32983231287486</v>
       </c>
       <c r="G11" t="n">
-        <v>12.8866384947313</v>
+        <v>-0.956122074875368</v>
       </c>
       <c r="H11" t="n">
-        <v>12.4093263992727</v>
+        <v>1.08784884315091</v>
       </c>
       <c r="I11" t="n">
-        <v>10.4031119521831</v>
+        <v>3.79724343325923</v>
       </c>
       <c r="J11" t="n">
-        <v>10.4540521159286</v>
+        <v>6.67554892731911</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.32421282173155</v>
+        <v>10.1059414649044</v>
       </c>
       <c r="B12" t="n">
-        <v>11.041762654676</v>
+        <v>11.0553106181593</v>
       </c>
       <c r="C12" t="n">
-        <v>10.6595090242822</v>
+        <v>12.0630964809671</v>
       </c>
       <c r="D12" t="n">
-        <v>12.2217919738191</v>
+        <v>12.6677814948267</v>
       </c>
       <c r="E12" t="n">
-        <v>11.4945822130298</v>
+        <v>12.775359713314</v>
       </c>
       <c r="F12" t="n">
-        <v>13.6459874489906</v>
+        <v>13.1967183049293</v>
       </c>
       <c r="G12" t="n">
-        <v>13.2556085070967</v>
+        <v>12.9209300838168</v>
       </c>
       <c r="H12" t="n">
-        <v>12.6582725728929</v>
+        <v>11.9402527968913</v>
       </c>
       <c r="I12" t="n">
-        <v>11.5869090476237</v>
+        <v>12.1617151328319</v>
       </c>
       <c r="J12" t="n">
-        <v>11.3409766647159</v>
+        <v>10.3741929800009</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-4.80935333327093</v>
+        <v>9.98859313236406</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.08705310699812</v>
+        <v>10.5125059035295</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.78487464405875</v>
+        <v>11.3205870619352</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.17199017540067</v>
+        <v>12.3262668669424</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.86498020848095</v>
+        <v>12.2924109703243</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.52816170672829</v>
+        <v>12.286212095797</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.001014485209</v>
+        <v>13.294597367236</v>
       </c>
       <c r="H13" t="n">
-        <v>1.33510059988392</v>
+        <v>12.3510759793973</v>
       </c>
       <c r="I13" t="n">
-        <v>4.09048299313074</v>
+        <v>11.7186830360538</v>
       </c>
       <c r="J13" t="n">
-        <v>6.4975954280892</v>
+        <v>10.3155025238386</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.88670363751783</v>
+        <v>9.40074098707251</v>
       </c>
       <c r="B14" t="n">
-        <v>10.6435371749445</v>
+        <v>10.2301257139922</v>
       </c>
       <c r="C14" t="n">
-        <v>12.5426962677934</v>
+        <v>12.7127580450945</v>
       </c>
       <c r="D14" t="n">
-        <v>13.0201220314986</v>
+        <v>12.1078626358873</v>
       </c>
       <c r="E14" t="n">
-        <v>11.9367699514603</v>
+        <v>12.885368300009</v>
       </c>
       <c r="F14" t="n">
-        <v>12.4116198320311</v>
+        <v>11.8068314135058</v>
       </c>
       <c r="G14" t="n">
-        <v>12.4117385970842</v>
+        <v>12.3567232843343</v>
       </c>
       <c r="H14" t="n">
-        <v>12.7989675267559</v>
+        <v>12.8061127496523</v>
       </c>
       <c r="I14" t="n">
-        <v>11.3981382082665</v>
+        <v>11.0804251177461</v>
       </c>
       <c r="J14" t="n">
-        <v>10.7089801739936</v>
+        <v>10.3595512982302</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11.1349825669907</v>
+        <v>-4.9333271734772</v>
       </c>
       <c r="B15" t="n">
-        <v>9.98341030037298</v>
+        <v>-5.23109321555011</v>
       </c>
       <c r="C15" t="n">
-        <v>12.3183621422651</v>
+        <v>-4.99696276103621</v>
       </c>
       <c r="D15" t="n">
-        <v>11.2744360349955</v>
+        <v>-4.5940601352554</v>
       </c>
       <c r="E15" t="n">
-        <v>13.3931645352758</v>
+        <v>-3.66099355820478</v>
       </c>
       <c r="F15" t="n">
-        <v>12.5703524545273</v>
+        <v>-2.59922513720468</v>
       </c>
       <c r="G15" t="n">
-        <v>12.5957267520949</v>
+        <v>-0.719212673189643</v>
       </c>
       <c r="H15" t="n">
-        <v>10.4986605905161</v>
+        <v>0.994067360508103</v>
       </c>
       <c r="I15" t="n">
-        <v>12.2275438226299</v>
+        <v>3.5879876467312</v>
       </c>
       <c r="J15" t="n">
-        <v>11.0579463468746</v>
+        <v>6.78548422587278</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-4.78336127128775</v>
+        <v>9.01903933921466</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.18270208863893</v>
+        <v>11.7630651837834</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.40394288627985</v>
+        <v>10.9927612511565</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.17550753756829</v>
+        <v>11.0091058494291</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.64397703877227</v>
+        <v>11.8351905458296</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.59974436293619</v>
+        <v>12.5373760608231</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.18732396838559</v>
+        <v>13.3932747551497</v>
       </c>
       <c r="H16" t="n">
-        <v>0.934883049201539</v>
+        <v>12.103175181077</v>
       </c>
       <c r="I16" t="n">
-        <v>3.76531367499861</v>
+        <v>11.9894172363796</v>
       </c>
       <c r="J16" t="n">
-        <v>6.98481095455391</v>
+        <v>10.730058386591</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.408732331373</v>
+        <v>9.60656513724937</v>
       </c>
       <c r="B17" t="n">
-        <v>10.5447869563633</v>
+        <v>11.3408462033034</v>
       </c>
       <c r="C17" t="n">
-        <v>11.4218679381948</v>
+        <v>11.873605300814</v>
       </c>
       <c r="D17" t="n">
-        <v>11.262724616453</v>
+        <v>11.5813726017674</v>
       </c>
       <c r="E17" t="n">
-        <v>12.4498067500574</v>
+        <v>13.0840053672766</v>
       </c>
       <c r="F17" t="n">
-        <v>12.4295360860707</v>
+        <v>12.4901343639339</v>
       </c>
       <c r="G17" t="n">
-        <v>12.2082421562771</v>
+        <v>12.2871972263425</v>
       </c>
       <c r="H17" t="n">
-        <v>11.7231526160707</v>
+        <v>12.7269324597395</v>
       </c>
       <c r="I17" t="n">
-        <v>12.810951451114</v>
+        <v>11.4079664865371</v>
       </c>
       <c r="J17" t="n">
-        <v>11.3214352034549</v>
+        <v>10.5636636388842</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-4.44542855534387</v>
+        <v>9.54296113225162</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.14192189232315</v>
+        <v>11.1568223542004</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.19019058724528</v>
+        <v>11.9263730663478</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.0856156965692</v>
+        <v>11.870213325488</v>
       </c>
       <c r="E18" t="n">
-        <v>-3.61532539113051</v>
+        <v>10.7613212355523</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.13832267206034</v>
+        <v>12.8133059766075</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.20782445533441</v>
+        <v>12.7390926063304</v>
       </c>
       <c r="H18" t="n">
-        <v>0.822006713112089</v>
+        <v>12.743622952773</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8436586867137</v>
+        <v>13.5903032281656</v>
       </c>
       <c r="J18" t="n">
-        <v>6.29369671766958</v>
+        <v>9.53379411208387</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10.2771797405446</v>
+        <v>10.5075243911908</v>
       </c>
       <c r="B19" t="n">
-        <v>11.0192149956878</v>
+        <v>10.9786382052781</v>
       </c>
       <c r="C19" t="n">
-        <v>11.8504127253418</v>
+        <v>11.5612897890849</v>
       </c>
       <c r="D19" t="n">
-        <v>12.7584266960985</v>
+        <v>11.4796629468933</v>
       </c>
       <c r="E19" t="n">
-        <v>11.5536924363513</v>
+        <v>13.643903953792</v>
       </c>
       <c r="F19" t="n">
-        <v>13.1830930419369</v>
+        <v>11.585270652303</v>
       </c>
       <c r="G19" t="n">
-        <v>12.755236382117</v>
+        <v>12.1129064381296</v>
       </c>
       <c r="H19" t="n">
-        <v>11.3792217036267</v>
+        <v>10.8262561575524</v>
       </c>
       <c r="I19" t="n">
-        <v>9.74820163872996</v>
+        <v>10.8340964193743</v>
       </c>
       <c r="J19" t="n">
-        <v>11.2028254563314</v>
+        <v>10.7457074674231</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.9741316359963</v>
+        <v>10.3878741340984</v>
       </c>
       <c r="B20" t="n">
-        <v>11.3353161315224</v>
+        <v>9.87273416457387</v>
       </c>
       <c r="C20" t="n">
-        <v>11.3412103455444</v>
+        <v>11.4376387525345</v>
       </c>
       <c r="D20" t="n">
-        <v>12.2822258672188</v>
+        <v>11.9871602156496</v>
       </c>
       <c r="E20" t="n">
-        <v>12.8136799550609</v>
+        <v>12.0683816966192</v>
       </c>
       <c r="F20" t="n">
-        <v>12.809669619809</v>
+        <v>11.8909245110025</v>
       </c>
       <c r="G20" t="n">
-        <v>12.6090243101647</v>
+        <v>12.0892660762649</v>
       </c>
       <c r="H20" t="n">
-        <v>12.6587463175409</v>
+        <v>12.84184738652</v>
       </c>
       <c r="I20" t="n">
-        <v>11.5527704974348</v>
+        <v>11.0897514005424</v>
       </c>
       <c r="J20" t="n">
-        <v>10.1838785128649</v>
+        <v>10.3170667115544</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10.3386151234809</v>
+        <v>-5.11557909108617</v>
       </c>
       <c r="B21" t="n">
-        <v>11.069062293853</v>
+        <v>-5.38523639996424</v>
       </c>
       <c r="C21" t="n">
-        <v>11.1885597221212</v>
+        <v>-5.35077046990088</v>
       </c>
       <c r="D21" t="n">
-        <v>11.2047023231825</v>
+        <v>-4.4004709729808</v>
       </c>
       <c r="E21" t="n">
-        <v>12.1081870369427</v>
+        <v>-3.85306917025479</v>
       </c>
       <c r="F21" t="n">
-        <v>13.059299496676</v>
+        <v>-1.95380382061728</v>
       </c>
       <c r="G21" t="n">
-        <v>12.2913456373124</v>
+        <v>-1.08938132435161</v>
       </c>
       <c r="H21" t="n">
-        <v>13.1089999669221</v>
+        <v>1.3551644881465</v>
       </c>
       <c r="I21" t="n">
-        <v>11.5189141948922</v>
+        <v>3.36934678004319</v>
       </c>
       <c r="J21" t="n">
-        <v>11.9096946222952</v>
+        <v>6.55722738690527</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11.4868507431334</v>
+        <v>-4.84517794095287</v>
       </c>
       <c r="B22" t="n">
-        <v>11.3572549431494</v>
+        <v>-5.11647351027216</v>
       </c>
       <c r="C22" t="n">
-        <v>11.706207908068</v>
+        <v>-5.12299901427801</v>
       </c>
       <c r="D22" t="n">
-        <v>11.0912462242345</v>
+        <v>-5.40950988907732</v>
       </c>
       <c r="E22" t="n">
-        <v>12.6120147725141</v>
+        <v>-3.79536517552129</v>
       </c>
       <c r="F22" t="n">
-        <v>12.669109398251</v>
+        <v>-2.84294550656238</v>
       </c>
       <c r="G22" t="n">
-        <v>12.9232980075358</v>
+        <v>-0.848860197527064</v>
       </c>
       <c r="H22" t="n">
-        <v>10.9610535770414</v>
+        <v>0.968184526047516</v>
       </c>
       <c r="I22" t="n">
-        <v>12.9537923741165</v>
+        <v>3.45249095653435</v>
       </c>
       <c r="J22" t="n">
-        <v>11.2517930469253</v>
+        <v>6.2876982956969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9.93338041705059</v>
+        <v>-4.9382633356532</v>
       </c>
       <c r="B23" t="n">
-        <v>10.5788880420723</v>
+        <v>-5.58880124164079</v>
       </c>
       <c r="C23" t="n">
-        <v>12.6599987059146</v>
+        <v>-6.00732411197378</v>
       </c>
       <c r="D23" t="n">
-        <v>11.959251861654</v>
+        <v>-4.74824979402551</v>
       </c>
       <c r="E23" t="n">
-        <v>13.3246065825057</v>
+        <v>-3.61177453457362</v>
       </c>
       <c r="F23" t="n">
-        <v>13.0397310129094</v>
+        <v>-2.27458710384535</v>
       </c>
       <c r="G23" t="n">
-        <v>12.1620743556561</v>
+        <v>-0.608567135434086</v>
       </c>
       <c r="H23" t="n">
-        <v>12.9388986536369</v>
+        <v>1.38075826115021</v>
       </c>
       <c r="I23" t="n">
-        <v>12.5027026546106</v>
+        <v>3.83747413502374</v>
       </c>
       <c r="J23" t="n">
-        <v>9.43301669129769</v>
+        <v>6.35048113850136</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.0717908097105</v>
+        <v>11.1766946190814</v>
       </c>
       <c r="B24" t="n">
-        <v>11.0430961656617</v>
+        <v>10.2613102122663</v>
       </c>
       <c r="C24" t="n">
-        <v>11.7562744847902</v>
+        <v>12.9033801728362</v>
       </c>
       <c r="D24" t="n">
-        <v>10.5226792088572</v>
+        <v>11.5670193289383</v>
       </c>
       <c r="E24" t="n">
-        <v>11.7162306707844</v>
+        <v>12.2562030330461</v>
       </c>
       <c r="F24" t="n">
-        <v>11.9729425761578</v>
+        <v>12.7730291125826</v>
       </c>
       <c r="G24" t="n">
-        <v>12.6815168735122</v>
+        <v>12.8594491443121</v>
       </c>
       <c r="H24" t="n">
-        <v>11.7230466979381</v>
+        <v>12.3637143617018</v>
       </c>
       <c r="I24" t="n">
-        <v>11.4118975336572</v>
+        <v>10.4943212510986</v>
       </c>
       <c r="J24" t="n">
-        <v>11.2662887848393</v>
+        <v>11.4668379083949</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.1276182346255</v>
+        <v>10.1253159645416</v>
       </c>
       <c r="B25" t="n">
-        <v>10.2831959170743</v>
+        <v>11.7496841174357</v>
       </c>
       <c r="C25" t="n">
-        <v>12.3891898332258</v>
+        <v>11.6738375258591</v>
       </c>
       <c r="D25" t="n">
-        <v>12.2478212206425</v>
+        <v>12.7351011599624</v>
       </c>
       <c r="E25" t="n">
-        <v>11.0212828229317</v>
+        <v>13.9730996350396</v>
       </c>
       <c r="F25" t="n">
-        <v>12.3372068431079</v>
+        <v>12.8303385011327</v>
       </c>
       <c r="G25" t="n">
-        <v>12.2476556556434</v>
+        <v>13.9248829448341</v>
       </c>
       <c r="H25" t="n">
-        <v>12.3022726333046</v>
+        <v>12.0052812220854</v>
       </c>
       <c r="I25" t="n">
-        <v>11.6064145083828</v>
+        <v>12.6585223976097</v>
       </c>
       <c r="J25" t="n">
-        <v>10.0497853166625</v>
+        <v>10.4577703795459</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.29995051671578</v>
+        <v>10.679748176916</v>
       </c>
       <c r="B26" t="n">
-        <v>10.7053349612586</v>
+        <v>10.3085702430555</v>
       </c>
       <c r="C26" t="n">
-        <v>10.4671175986981</v>
+        <v>10.9391223240058</v>
       </c>
       <c r="D26" t="n">
-        <v>11.8121384210063</v>
+        <v>13.3862364556308</v>
       </c>
       <c r="E26" t="n">
-        <v>11.3135293913644</v>
+        <v>12.5137030809419</v>
       </c>
       <c r="F26" t="n">
-        <v>13.4818552888364</v>
+        <v>11.9375956740525</v>
       </c>
       <c r="G26" t="n">
-        <v>11.3678457420532</v>
+        <v>12.8749936093928</v>
       </c>
       <c r="H26" t="n">
-        <v>12.0650028962298</v>
+        <v>12.1790117491417</v>
       </c>
       <c r="I26" t="n">
-        <v>11.5642069750951</v>
+        <v>11.990034676987</v>
       </c>
       <c r="J26" t="n">
-        <v>11.3721130679863</v>
+        <v>11.2862543361799</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-5.03221165585305</v>
+        <v>10.8384920407942</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.28325464891333</v>
+        <v>10.5158076546732</v>
       </c>
       <c r="C27" t="n">
-        <v>-5.38277859807369</v>
+        <v>13.6480964302522</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.25602129355923</v>
+        <v>11.2492934816351</v>
       </c>
       <c r="E27" t="n">
-        <v>-3.71151321785455</v>
+        <v>12.3992176163323</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.60342320365737</v>
+        <v>12.6522919985062</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.950243768727118</v>
+        <v>11.7860696048658</v>
       </c>
       <c r="H27" t="n">
-        <v>1.27022994247538</v>
+        <v>11.9219497952748</v>
       </c>
       <c r="I27" t="n">
-        <v>3.37384643130811</v>
+        <v>11.309807535204</v>
       </c>
       <c r="J27" t="n">
-        <v>6.64578348979053</v>
+        <v>11.3639445956428</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-5.00697601039691</v>
+        <v>9.38714264297887</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.15061633042334</v>
+        <v>10.7459846099847</v>
       </c>
       <c r="C28" t="n">
-        <v>-5.29454440694694</v>
+        <v>13.2101080975281</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.52377871320936</v>
+        <v>11.3487088018335</v>
       </c>
       <c r="E28" t="n">
-        <v>-3.52853032972371</v>
+        <v>12.5822375809884</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.85280659201132</v>
+        <v>13.3727583805015</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.502776440905694</v>
+        <v>11.6202698611444</v>
       </c>
       <c r="H28" t="n">
-        <v>1.14710000165784</v>
+        <v>12.6923199984291</v>
       </c>
       <c r="I28" t="n">
-        <v>3.72891655282279</v>
+        <v>10.6041419227366</v>
       </c>
       <c r="J28" t="n">
-        <v>6.64152651630977</v>
+        <v>10.5432598038526</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.9042019832407</v>
+        <v>9.56227203268952</v>
       </c>
       <c r="B29" t="n">
-        <v>11.8936212008282</v>
+        <v>10.861636511932</v>
       </c>
       <c r="C29" t="n">
-        <v>13.0072237412648</v>
+        <v>12.098727595946</v>
       </c>
       <c r="D29" t="n">
-        <v>11.7777951023726</v>
+        <v>12.8420295549121</v>
       </c>
       <c r="E29" t="n">
-        <v>11.814177106023</v>
+        <v>11.9050947572057</v>
       </c>
       <c r="F29" t="n">
-        <v>12.3058312515675</v>
+        <v>13.1259455161309</v>
       </c>
       <c r="G29" t="n">
-        <v>11.1131117926008</v>
+        <v>12.363758122222</v>
       </c>
       <c r="H29" t="n">
-        <v>13.0208211990918</v>
+        <v>11.84346738932</v>
       </c>
       <c r="I29" t="n">
-        <v>10.553607155131</v>
+        <v>13.1311895006597</v>
       </c>
       <c r="J29" t="n">
-        <v>10.311890004765</v>
+        <v>10.9259704739043</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10.1157002217185</v>
+        <v>9.91391503336954</v>
       </c>
       <c r="B30" t="n">
-        <v>10.5801513452711</v>
+        <v>10.3775950717837</v>
       </c>
       <c r="C30" t="n">
-        <v>11.6706806688105</v>
+        <v>12.015273986202</v>
       </c>
       <c r="D30" t="n">
-        <v>12.8134848206993</v>
+        <v>12.7272221933583</v>
       </c>
       <c r="E30" t="n">
-        <v>12.39989122622</v>
+        <v>12.1162779800927</v>
       </c>
       <c r="F30" t="n">
-        <v>12.7100286535836</v>
+        <v>12.7504923775688</v>
       </c>
       <c r="G30" t="n">
-        <v>13.045037221746</v>
+        <v>11.8544665261707</v>
       </c>
       <c r="H30" t="n">
-        <v>12.7464506325208</v>
+        <v>11.7202377773058</v>
       </c>
       <c r="I30" t="n">
-        <v>10.6869879341493</v>
+        <v>11.023050792793</v>
       </c>
       <c r="J30" t="n">
-        <v>10.1658058629954</v>
+        <v>11.4116048853747</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11.0502235526418</v>
+        <v>9.47366424545634</v>
       </c>
       <c r="B31" t="n">
-        <v>10.9869758514059</v>
+        <v>10.6970904765456</v>
       </c>
       <c r="C31" t="n">
-        <v>11.6308229219912</v>
+        <v>10.4381942419092</v>
       </c>
       <c r="D31" t="n">
-        <v>10.5402545791279</v>
+        <v>11.7057190268077</v>
       </c>
       <c r="E31" t="n">
-        <v>12.502624676971</v>
+        <v>13.0492182645603</v>
       </c>
       <c r="F31" t="n">
-        <v>11.3571865402093</v>
+        <v>12.6514599802522</v>
       </c>
       <c r="G31" t="n">
-        <v>12.5955853178777</v>
+        <v>13.4658044957945</v>
       </c>
       <c r="H31" t="n">
-        <v>13.8874336636033</v>
+        <v>10.9635646513489</v>
       </c>
       <c r="I31" t="n">
-        <v>12.138586191634</v>
+        <v>11.3890024028724</v>
       </c>
       <c r="J31" t="n">
-        <v>10.3152428547255</v>
+        <v>11.1043866010645</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.85127323778615</v>
+        <v>9.47839201042796</v>
       </c>
       <c r="B32" t="n">
-        <v>10.0367077450408</v>
+        <v>10.3362187038336</v>
       </c>
       <c r="C32" t="n">
-        <v>12.6152127525467</v>
+        <v>12.1879364930797</v>
       </c>
       <c r="D32" t="n">
-        <v>13.186863967955</v>
+        <v>12.0727357600566</v>
       </c>
       <c r="E32" t="n">
-        <v>13.3450149413596</v>
+        <v>12.2701073536915</v>
       </c>
       <c r="F32" t="n">
-        <v>12.0564141679806</v>
+        <v>12.6018982346074</v>
       </c>
       <c r="G32" t="n">
-        <v>12.2566192970599</v>
+        <v>13.4067531056056</v>
       </c>
       <c r="H32" t="n">
-        <v>11.913829690531</v>
+        <v>11.710092966036</v>
       </c>
       <c r="I32" t="n">
-        <v>11.5130783192112</v>
+        <v>11.3625545518421</v>
       </c>
       <c r="J32" t="n">
-        <v>10.7869912189543</v>
+        <v>11.7982886215646</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-4.84205520097835</v>
+        <v>-4.65162247343047</v>
       </c>
       <c r="B33" t="n">
-        <v>-4.76435470690582</v>
+        <v>-5.10905280223049</v>
       </c>
       <c r="C33" t="n">
-        <v>-4.70497952398369</v>
+        <v>-5.05291252475665</v>
       </c>
       <c r="D33" t="n">
-        <v>-4.91814663327988</v>
+        <v>-5.00162840036404</v>
       </c>
       <c r="E33" t="n">
-        <v>-3.69113980696175</v>
+        <v>-3.9683353987597</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.87650137241874</v>
+        <v>-2.37277186457048</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.17659557944683</v>
+        <v>-0.853259865964221</v>
       </c>
       <c r="H33" t="n">
-        <v>1.07859895147868</v>
+        <v>1.48367961520207</v>
       </c>
       <c r="I33" t="n">
-        <v>3.78561425645332</v>
+        <v>4.00426381412015</v>
       </c>
       <c r="J33" t="n">
-        <v>6.94117019197871</v>
+        <v>6.60675341491707</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.3277965186243</v>
+        <v>-5.23470673560432</v>
       </c>
       <c r="B34" t="n">
-        <v>11.1459767840355</v>
+        <v>-5.1825693774371</v>
       </c>
       <c r="C34" t="n">
-        <v>11.4919074626584</v>
+        <v>-4.74817706793913</v>
       </c>
       <c r="D34" t="n">
-        <v>11.9836132362544</v>
+        <v>-4.70709598109478</v>
       </c>
       <c r="E34" t="n">
-        <v>13.1176105707033</v>
+        <v>-3.86540606742243</v>
       </c>
       <c r="F34" t="n">
-        <v>12.5749348844312</v>
+        <v>-2.23057678105324</v>
       </c>
       <c r="G34" t="n">
-        <v>11.5804712084564</v>
+        <v>-0.711454335594099</v>
       </c>
       <c r="H34" t="n">
-        <v>11.1292876552706</v>
+        <v>1.48753039470277</v>
       </c>
       <c r="I34" t="n">
-        <v>10.9688117215784</v>
+        <v>3.98211678922231</v>
       </c>
       <c r="J34" t="n">
-        <v>11.268345988579</v>
+        <v>6.51593618279683</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9.9111593478384</v>
+        <v>-5.08474547153605</v>
       </c>
       <c r="B35" t="n">
-        <v>10.8968134570862</v>
+        <v>-5.17190707905812</v>
       </c>
       <c r="C35" t="n">
-        <v>10.9779378828217</v>
+        <v>-5.38444912980374</v>
       </c>
       <c r="D35" t="n">
-        <v>10.9040781615912</v>
+        <v>-4.89999787930916</v>
       </c>
       <c r="E35" t="n">
-        <v>11.40764152283</v>
+        <v>-3.72129208118689</v>
       </c>
       <c r="F35" t="n">
-        <v>11.9184771513024</v>
+        <v>-2.45372308426486</v>
       </c>
       <c r="G35" t="n">
-        <v>12.0770781214896</v>
+        <v>-0.779212682479921</v>
       </c>
       <c r="H35" t="n">
-        <v>12.4751573363025</v>
+        <v>0.792029154412556</v>
       </c>
       <c r="I35" t="n">
-        <v>12.9813833227853</v>
+        <v>4.05395384646766</v>
       </c>
       <c r="J35" t="n">
-        <v>11.3393459321052</v>
+        <v>6.46542191062421</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9.49345443294028</v>
+        <v>9.73109750018612</v>
       </c>
       <c r="B36" t="n">
-        <v>10.8046989459328</v>
+        <v>11.015260423683</v>
       </c>
       <c r="C36" t="n">
-        <v>10.4319763563283</v>
+        <v>11.5586267986918</v>
       </c>
       <c r="D36" t="n">
-        <v>13.4950027917081</v>
+        <v>11.9039438396392</v>
       </c>
       <c r="E36" t="n">
-        <v>12.8861141826422</v>
+        <v>12.1500850559352</v>
       </c>
       <c r="F36" t="n">
-        <v>12.9240824045475</v>
+        <v>11.6400574293514</v>
       </c>
       <c r="G36" t="n">
-        <v>12.6784831400027</v>
+        <v>12.7695362295264</v>
       </c>
       <c r="H36" t="n">
-        <v>13.9975167857948</v>
+        <v>11.4339088691738</v>
       </c>
       <c r="I36" t="n">
-        <v>11.6003582396982</v>
+        <v>11.1475010242457</v>
       </c>
       <c r="J36" t="n">
-        <v>9.472995522238</v>
+        <v>10.6183562140847</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-4.78795351607504</v>
+        <v>-4.75583419472369</v>
       </c>
       <c r="B37" t="n">
-        <v>-5.56550336288262</v>
+        <v>-5.1494423934445</v>
       </c>
       <c r="C37" t="n">
-        <v>-4.58309526370952</v>
+        <v>-5.41945909839441</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.42859703911683</v>
+        <v>-4.46754069842994</v>
       </c>
       <c r="E37" t="n">
-        <v>-3.64619656025991</v>
+        <v>-3.65610431195586</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.38067085324997</v>
+        <v>-2.70008292874008</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.0278198725971</v>
+        <v>-0.805789918530848</v>
       </c>
       <c r="H37" t="n">
-        <v>1.11992477362229</v>
+        <v>1.46511673947383</v>
       </c>
       <c r="I37" t="n">
-        <v>3.48846347796673</v>
+        <v>4.01993791760055</v>
       </c>
       <c r="J37" t="n">
-        <v>6.86583009584448</v>
+        <v>6.25994140499114</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-4.71738938614746</v>
+        <v>10.3639165075694</v>
       </c>
       <c r="B38" t="n">
-        <v>-5.00683199139232</v>
+        <v>10.1842522976541</v>
       </c>
       <c r="C38" t="n">
-        <v>-5.75671445412868</v>
+        <v>11.3476579019847</v>
       </c>
       <c r="D38" t="n">
-        <v>-4.55871020985923</v>
+        <v>12.309183449333</v>
       </c>
       <c r="E38" t="n">
-        <v>-3.88888671265003</v>
+        <v>12.1471347730044</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.91130692561285</v>
+        <v>12.0763241074051</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.588038861745194</v>
+        <v>12.1191927930312</v>
       </c>
       <c r="H38" t="n">
-        <v>1.49950589773096</v>
+        <v>11.3813737313088</v>
       </c>
       <c r="I38" t="n">
-        <v>4.11568053356664</v>
+        <v>10.5081169581762</v>
       </c>
       <c r="J38" t="n">
-        <v>6.60453362217871</v>
+        <v>9.46780153710899</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9.13894620685273</v>
+        <v>10.3720948861632</v>
       </c>
       <c r="B39" t="n">
-        <v>12.1765039037852</v>
+        <v>12.2950746172585</v>
       </c>
       <c r="C39" t="n">
-        <v>10.42463855277</v>
+        <v>10.2279347944215</v>
       </c>
       <c r="D39" t="n">
-        <v>11.8658893606574</v>
+        <v>13.7690351899549</v>
       </c>
       <c r="E39" t="n">
-        <v>11.6171851955195</v>
+        <v>10.7119004975704</v>
       </c>
       <c r="F39" t="n">
-        <v>12.5493243625307</v>
+        <v>13.2185791661705</v>
       </c>
       <c r="G39" t="n">
-        <v>12.6023048370713</v>
+        <v>12.5759913578521</v>
       </c>
       <c r="H39" t="n">
-        <v>11.9400778897213</v>
+        <v>11.0565858084497</v>
       </c>
       <c r="I39" t="n">
-        <v>11.3167761337892</v>
+        <v>12.8708283070033</v>
       </c>
       <c r="J39" t="n">
-        <v>11.7707647529023</v>
+        <v>9.87680078787253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-5.05328323695612</v>
+        <v>-4.43718430285808</v>
       </c>
       <c r="B40" t="n">
-        <v>-5.80760951960284</v>
+        <v>-4.73048091046576</v>
       </c>
       <c r="C40" t="n">
-        <v>-5.22991958180906</v>
+        <v>-5.06599800869385</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.61535145697122</v>
+        <v>-4.87576231929832</v>
       </c>
       <c r="E40" t="n">
-        <v>-3.58440169197048</v>
+        <v>-3.8869700521129</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.18469524831611</v>
+        <v>-2.51340599653933</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.698955604322347</v>
+        <v>-0.233027321196664</v>
       </c>
       <c r="H40" t="n">
-        <v>1.13223255140165</v>
+        <v>1.41313625233324</v>
       </c>
       <c r="I40" t="n">
-        <v>3.7478431960664</v>
+        <v>4.14577725084111</v>
       </c>
       <c r="J40" t="n">
-        <v>6.38558440815828</v>
+        <v>6.56619219885553</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-5.535597236511</v>
+        <v>10.3757692287258</v>
       </c>
       <c r="B41" t="n">
-        <v>-4.98704313760401</v>
+        <v>11.0168609157541</v>
       </c>
       <c r="C41" t="n">
-        <v>-5.21103358544976</v>
+        <v>10.165113550898</v>
       </c>
       <c r="D41" t="n">
-        <v>-4.58652620528291</v>
+        <v>12.3813150630578</v>
       </c>
       <c r="E41" t="n">
-        <v>-3.72327190882064</v>
+        <v>12.7225204619296</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.49144907818876</v>
+        <v>13.3665675387566</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.775001669518303</v>
+        <v>11.6627022247633</v>
       </c>
       <c r="H41" t="n">
-        <v>1.66497506371124</v>
+        <v>12.4418049978015</v>
       </c>
       <c r="I41" t="n">
-        <v>3.61810070793726</v>
+        <v>11.192703094014</v>
       </c>
       <c r="J41" t="n">
-        <v>6.92800237736803</v>
+        <v>11.9707738377986</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10.1770602794634</v>
+        <v>9.50786578470506</v>
       </c>
       <c r="B42" t="n">
-        <v>12.0399263849228</v>
+        <v>10.5247236164685</v>
       </c>
       <c r="C42" t="n">
-        <v>11.4556962793229</v>
+        <v>12.2606375297013</v>
       </c>
       <c r="D42" t="n">
-        <v>11.5741029337877</v>
+        <v>10.4810062688902</v>
       </c>
       <c r="E42" t="n">
-        <v>10.8652839995333</v>
+        <v>11.3018001248925</v>
       </c>
       <c r="F42" t="n">
-        <v>12.6425745786694</v>
+        <v>12.574182693217</v>
       </c>
       <c r="G42" t="n">
-        <v>13.7234125921843</v>
+        <v>12.6409173861173</v>
       </c>
       <c r="H42" t="n">
-        <v>12.7091114449432</v>
+        <v>12.1107093301524</v>
       </c>
       <c r="I42" t="n">
-        <v>11.4135100547865</v>
+        <v>10.8170992731268</v>
       </c>
       <c r="J42" t="n">
-        <v>10.6603974988817</v>
+        <v>10.5708857462552</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9.52413644397675</v>
+        <v>10.1731436268267</v>
       </c>
       <c r="B43" t="n">
-        <v>11.337276016475</v>
+        <v>11.38925245938</v>
       </c>
       <c r="C43" t="n">
-        <v>11.5490615508651</v>
+        <v>11.4838224799173</v>
       </c>
       <c r="D43" t="n">
-        <v>11.0469837519206</v>
+        <v>12.2319009657039</v>
       </c>
       <c r="E43" t="n">
-        <v>13.3429519702859</v>
+        <v>12.3035900012705</v>
       </c>
       <c r="F43" t="n">
-        <v>12.6769947632895</v>
+        <v>13.0739406423675</v>
       </c>
       <c r="G43" t="n">
-        <v>11.9658627273807</v>
+        <v>14.0517470073197</v>
       </c>
       <c r="H43" t="n">
-        <v>13.9639178535739</v>
+        <v>12.2307733622039</v>
       </c>
       <c r="I43" t="n">
-        <v>11.8421309155877</v>
+        <v>12.3452682190042</v>
       </c>
       <c r="J43" t="n">
-        <v>9.88959139074269</v>
+        <v>10.6897892336251</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10.31309641687</v>
+        <v>10.0463139258794</v>
       </c>
       <c r="B44" t="n">
-        <v>10.2431102869187</v>
+        <v>10.8034785551838</v>
       </c>
       <c r="C44" t="n">
-        <v>10.9700170579543</v>
+        <v>13.1389780850169</v>
       </c>
       <c r="D44" t="n">
-        <v>11.7705789599356</v>
+        <v>12.6976552028962</v>
       </c>
       <c r="E44" t="n">
-        <v>11.001206155114</v>
+        <v>13.0238109081717</v>
       </c>
       <c r="F44" t="n">
-        <v>12.6123776991056</v>
+        <v>11.7873841272458</v>
       </c>
       <c r="G44" t="n">
-        <v>13.35084961489</v>
+        <v>12.6858465398572</v>
       </c>
       <c r="H44" t="n">
-        <v>12.286264876574</v>
+        <v>12.4009114737084</v>
       </c>
       <c r="I44" t="n">
-        <v>11.4192236356155</v>
+        <v>12.4480105481265</v>
       </c>
       <c r="J44" t="n">
-        <v>10.1357899408536</v>
+        <v>11.0545522612642</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9.33434846986141</v>
+        <v>-4.86208563942112</v>
       </c>
       <c r="B45" t="n">
-        <v>11.0597350760278</v>
+        <v>-5.14208828664238</v>
       </c>
       <c r="C45" t="n">
-        <v>11.7343951785983</v>
+        <v>-5.37595994027349</v>
       </c>
       <c r="D45" t="n">
-        <v>13.200798757959</v>
+        <v>-4.51302745893292</v>
       </c>
       <c r="E45" t="n">
-        <v>11.7765573510147</v>
+        <v>-3.70186081196315</v>
       </c>
       <c r="F45" t="n">
-        <v>12.2705448505931</v>
+        <v>-2.78719800228435</v>
       </c>
       <c r="G45" t="n">
-        <v>12.1496504907257</v>
+        <v>-0.962885077465728</v>
       </c>
       <c r="H45" t="n">
-        <v>10.7881259848553</v>
+        <v>1.26145803420801</v>
       </c>
       <c r="I45" t="n">
-        <v>10.7985556097169</v>
+        <v>3.78065766814902</v>
       </c>
       <c r="J45" t="n">
-        <v>11.135268713764</v>
+        <v>6.92404664764044</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10.1279522407709</v>
+        <v>-4.84428174049833</v>
       </c>
       <c r="B46" t="n">
-        <v>10.5149475790556</v>
+        <v>-5.0059572484058</v>
       </c>
       <c r="C46" t="n">
-        <v>11.043798352006</v>
+        <v>-5.05460727097613</v>
       </c>
       <c r="D46" t="n">
-        <v>11.2919013900416</v>
+        <v>-4.8505845623037</v>
       </c>
       <c r="E46" t="n">
-        <v>12.735579616859</v>
+        <v>-4.2658797813607</v>
       </c>
       <c r="F46" t="n">
-        <v>12.1317178211491</v>
+        <v>-1.99442153382869</v>
       </c>
       <c r="G46" t="n">
-        <v>12.5507556307129</v>
+        <v>-0.965200371622524</v>
       </c>
       <c r="H46" t="n">
-        <v>11.847460153727</v>
+        <v>1.32506338700488</v>
       </c>
       <c r="I46" t="n">
-        <v>13.1452707107199</v>
+        <v>3.39519103137988</v>
       </c>
       <c r="J46" t="n">
-        <v>9.48385330112704</v>
+        <v>7.35588491138472</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10.2812729829684</v>
+        <v>9.86482109453916</v>
       </c>
       <c r="B47" t="n">
-        <v>11.047718873419</v>
+        <v>11.1898458499186</v>
       </c>
       <c r="C47" t="n">
-        <v>13.0216810309232</v>
+        <v>10.3266997180857</v>
       </c>
       <c r="D47" t="n">
-        <v>11.9819479265331</v>
+        <v>12.4145563230826</v>
       </c>
       <c r="E47" t="n">
-        <v>12.0674549270875</v>
+        <v>11.5691385244658</v>
       </c>
       <c r="F47" t="n">
-        <v>12.5540996784175</v>
+        <v>13.233137698513</v>
       </c>
       <c r="G47" t="n">
-        <v>11.3816657736202</v>
+        <v>13.0545392547024</v>
       </c>
       <c r="H47" t="n">
-        <v>12.2550239205288</v>
+        <v>11.8150882177971</v>
       </c>
       <c r="I47" t="n">
-        <v>11.4213940951832</v>
+        <v>11.5548741807787</v>
       </c>
       <c r="J47" t="n">
-        <v>10.5893225802464</v>
+        <v>10.5368046077723</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9.45387993333992</v>
+        <v>-4.82780741833953</v>
       </c>
       <c r="B48" t="n">
-        <v>12.383669500237</v>
+        <v>-4.92150376038729</v>
       </c>
       <c r="C48" t="n">
-        <v>11.6939332938224</v>
+        <v>-5.50834586428259</v>
       </c>
       <c r="D48" t="n">
-        <v>12.5233651926813</v>
+        <v>-4.65976603490958</v>
       </c>
       <c r="E48" t="n">
-        <v>12.119615556347</v>
+        <v>-3.64254507206324</v>
       </c>
       <c r="F48" t="n">
-        <v>12.971770919826</v>
+        <v>-2.32823231638196</v>
       </c>
       <c r="G48" t="n">
-        <v>12.0217333061443</v>
+        <v>-0.751682864925471</v>
       </c>
       <c r="H48" t="n">
-        <v>11.15512297654</v>
+        <v>1.0833942815559</v>
       </c>
       <c r="I48" t="n">
-        <v>11.9395210186594</v>
+        <v>3.93022134932325</v>
       </c>
       <c r="J48" t="n">
-        <v>11.1430369554032</v>
+        <v>6.4163292633032</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9.69312045145025</v>
+        <v>9.52103489810214</v>
       </c>
       <c r="B49" t="n">
-        <v>10.5711651682577</v>
+        <v>11.213376165436</v>
       </c>
       <c r="C49" t="n">
-        <v>11.4073586176062</v>
+        <v>11.5341717980549</v>
       </c>
       <c r="D49" t="n">
-        <v>12.2812718708392</v>
+        <v>11.2844166190681</v>
       </c>
       <c r="E49" t="n">
-        <v>13.543203508325</v>
+        <v>12.9533085034668</v>
       </c>
       <c r="F49" t="n">
-        <v>11.688588951579</v>
+        <v>12.9926122016326</v>
       </c>
       <c r="G49" t="n">
-        <v>12.8629972290221</v>
+        <v>12.0799929422757</v>
       </c>
       <c r="H49" t="n">
-        <v>13.319272213417</v>
+        <v>12.016982091007</v>
       </c>
       <c r="I49" t="n">
-        <v>11.7265025603594</v>
+        <v>12.291944858562</v>
       </c>
       <c r="J49" t="n">
-        <v>11.829136438847</v>
+        <v>11.4796915742213</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10.284290474382</v>
+        <v>10.5113960633137</v>
       </c>
       <c r="B50" t="n">
-        <v>12.2604690174396</v>
+        <v>10.8456845960704</v>
       </c>
       <c r="C50" t="n">
-        <v>12.6318247559479</v>
+        <v>12.1612984801491</v>
       </c>
       <c r="D50" t="n">
-        <v>11.3887079162853</v>
+        <v>12.1398524565198</v>
       </c>
       <c r="E50" t="n">
-        <v>11.7976405144196</v>
+        <v>13.371037195647</v>
       </c>
       <c r="F50" t="n">
-        <v>12.2798971186402</v>
+        <v>12.9350478901989</v>
       </c>
       <c r="G50" t="n">
-        <v>10.8763573517444</v>
+        <v>12.9954966157746</v>
       </c>
       <c r="H50" t="n">
-        <v>12.9136187411468</v>
+        <v>13.3656878276436</v>
       </c>
       <c r="I50" t="n">
-        <v>11.1347230760938</v>
+        <v>10.857361146789</v>
       </c>
       <c r="J50" t="n">
-        <v>11.5744587513514</v>
+        <v>9.16369899191043</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10.2076689038661</v>
+        <v>9.87349883793013</v>
       </c>
       <c r="B51" t="n">
-        <v>10.1096577209031</v>
+        <v>11.9656620946304</v>
       </c>
       <c r="C51" t="n">
-        <v>12.5338017837391</v>
+        <v>9.81560004068638</v>
       </c>
       <c r="D51" t="n">
-        <v>11.1782033659695</v>
+        <v>12.0018056813706</v>
       </c>
       <c r="E51" t="n">
-        <v>12.8751810472076</v>
+        <v>13.5276522979356</v>
       </c>
       <c r="F51" t="n">
-        <v>11.5488643667456</v>
+        <v>11.3982352992161</v>
       </c>
       <c r="G51" t="n">
-        <v>12.9993198932958</v>
+        <v>13.3324317478571</v>
       </c>
       <c r="H51" t="n">
-        <v>12.1589164127211</v>
+        <v>13.5218405523655</v>
       </c>
       <c r="I51" t="n">
-        <v>11.9652809697122</v>
+        <v>13.0777109570157</v>
       </c>
       <c r="J51" t="n">
-        <v>11.0233989846402</v>
+        <v>11.3279878514603</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-5.17540238486969</v>
+        <v>10.891845528116</v>
       </c>
       <c r="B52" t="n">
-        <v>-5.23617421554932</v>
+        <v>12.4451573550615</v>
       </c>
       <c r="C52" t="n">
-        <v>-5.25854400966162</v>
+        <v>11.0446164215416</v>
       </c>
       <c r="D52" t="n">
-        <v>-4.71503288605514</v>
+        <v>12.2291408311881</v>
       </c>
       <c r="E52" t="n">
-        <v>-4.05638480799589</v>
+        <v>12.8483415853622</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.78529270223179</v>
+        <v>11.087681974919</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.219007623701816</v>
+        <v>12.5351381078219</v>
       </c>
       <c r="H52" t="n">
-        <v>1.29836623583665</v>
+        <v>10.9051517973725</v>
       </c>
       <c r="I52" t="n">
-        <v>3.95026444372732</v>
+        <v>10.5575379005781</v>
       </c>
       <c r="J52" t="n">
-        <v>6.94102764974834</v>
+        <v>10.967702628865</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-4.70825351401487</v>
+        <v>11.8453086332714</v>
       </c>
       <c r="B53" t="n">
-        <v>-4.97622746290606</v>
+        <v>9.97879051621875</v>
       </c>
       <c r="C53" t="n">
-        <v>-4.75251198792901</v>
+        <v>11.3565808001396</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.40622514029009</v>
+        <v>11.9902888061922</v>
       </c>
       <c r="E53" t="n">
-        <v>-3.83339319512786</v>
+        <v>12.227506997051</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.55664296844157</v>
+        <v>11.700073033139</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.808560655312109</v>
+        <v>12.2846338732766</v>
       </c>
       <c r="H53" t="n">
-        <v>0.825886363486042</v>
+        <v>13.3733045845508</v>
       </c>
       <c r="I53" t="n">
-        <v>3.71247699290081</v>
+        <v>10.4198184146881</v>
       </c>
       <c r="J53" t="n">
-        <v>6.47011234838767</v>
+        <v>11.4429222225793</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-5.2103605217643</v>
+        <v>10.2952247234499</v>
       </c>
       <c r="B54" t="n">
-        <v>-5.61267370200679</v>
+        <v>10.9068352543367</v>
       </c>
       <c r="C54" t="n">
-        <v>-5.22935899657808</v>
+        <v>11.6627550436327</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.5794794106971</v>
+        <v>11.3657767860387</v>
       </c>
       <c r="E54" t="n">
-        <v>-3.59600216758284</v>
+        <v>12.6813322942242</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.72474312626705</v>
+        <v>12.5271571874432</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.927163338752725</v>
+        <v>12.5533632420914</v>
       </c>
       <c r="H54" t="n">
-        <v>1.1789486259447</v>
+        <v>10.9638974108657</v>
       </c>
       <c r="I54" t="n">
-        <v>3.64373559904397</v>
+        <v>11.0475362424649</v>
       </c>
       <c r="J54" t="n">
-        <v>6.8321388848878</v>
+        <v>11.3321669680341</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9.34389100428634</v>
+        <v>-4.47441905755025</v>
       </c>
       <c r="B55" t="n">
-        <v>10.9600927690437</v>
+        <v>-4.8209472451927</v>
       </c>
       <c r="C55" t="n">
-        <v>11.163947054427</v>
+        <v>-5.28217730729865</v>
       </c>
       <c r="D55" t="n">
-        <v>11.9676961277104</v>
+        <v>-4.75371126692413</v>
       </c>
       <c r="E55" t="n">
-        <v>12.735240228808</v>
+        <v>-3.85313018735826</v>
       </c>
       <c r="F55" t="n">
-        <v>11.9194520836855</v>
+        <v>-2.50502678783517</v>
       </c>
       <c r="G55" t="n">
-        <v>11.8281753897873</v>
+        <v>-0.697549066449594</v>
       </c>
       <c r="H55" t="n">
-        <v>12.8219780804539</v>
+        <v>1.57930588627851</v>
       </c>
       <c r="I55" t="n">
-        <v>10.7580571621998</v>
+        <v>3.82920299663884</v>
       </c>
       <c r="J55" t="n">
-        <v>10.9781579854914</v>
+        <v>7.06817312168024</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9.34685455040091</v>
+        <v>10.0075783939635</v>
       </c>
       <c r="B56" t="n">
-        <v>10.9626597777971</v>
+        <v>9.83558814800223</v>
       </c>
       <c r="C56" t="n">
-        <v>11.419583171338</v>
+        <v>11.1926314096009</v>
       </c>
       <c r="D56" t="n">
-        <v>12.3353149842807</v>
+        <v>13.1541593536354</v>
       </c>
       <c r="E56" t="n">
-        <v>12.0017917138876</v>
+        <v>12.2694120598662</v>
       </c>
       <c r="F56" t="n">
-        <v>11.6781524626332</v>
+        <v>11.6292499463001</v>
       </c>
       <c r="G56" t="n">
-        <v>13.2230187264474</v>
+        <v>12.3551708054763</v>
       </c>
       <c r="H56" t="n">
-        <v>10.5125362174936</v>
+        <v>11.9031681013056</v>
       </c>
       <c r="I56" t="n">
-        <v>11.6697732263924</v>
+        <v>11.2033507560408</v>
       </c>
       <c r="J56" t="n">
-        <v>11.7784264033973</v>
+        <v>10.4812632958058</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9.96100453934848</v>
+        <v>11.9982685628034</v>
       </c>
       <c r="B57" t="n">
-        <v>10.6435828543973</v>
+        <v>10.9175846310233</v>
       </c>
       <c r="C57" t="n">
-        <v>11.186018325267</v>
+        <v>10.8158144379195</v>
       </c>
       <c r="D57" t="n">
-        <v>11.6887747096476</v>
+        <v>9.59676787934352</v>
       </c>
       <c r="E57" t="n">
-        <v>11.9157249724047</v>
+        <v>11.3568500125203</v>
       </c>
       <c r="F57" t="n">
-        <v>12.6421539041205</v>
+        <v>11.8964870433774</v>
       </c>
       <c r="G57" t="n">
-        <v>11.7652843660034</v>
+        <v>13.258850932813</v>
       </c>
       <c r="H57" t="n">
-        <v>12.0750040412853</v>
+        <v>10.7056100945843</v>
       </c>
       <c r="I57" t="n">
-        <v>11.2260471738887</v>
+        <v>12.1349573728462</v>
       </c>
       <c r="J57" t="n">
-        <v>10.9391437448261</v>
+        <v>10.7258012069448</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10.4625503109983</v>
+        <v>-4.89125962897344</v>
       </c>
       <c r="B58" t="n">
-        <v>10.5106200375915</v>
+        <v>-4.857673290937</v>
       </c>
       <c r="C58" t="n">
-        <v>12.7323557498068</v>
+        <v>-5.05114241719589</v>
       </c>
       <c r="D58" t="n">
-        <v>12.5026533611235</v>
+        <v>-4.97003282146876</v>
       </c>
       <c r="E58" t="n">
-        <v>12.2259185092666</v>
+        <v>-3.49940765860129</v>
       </c>
       <c r="F58" t="n">
-        <v>11.1729849035332</v>
+        <v>-2.65650014746603</v>
       </c>
       <c r="G58" t="n">
-        <v>10.6452201208784</v>
+        <v>-0.460043600493154</v>
       </c>
       <c r="H58" t="n">
-        <v>12.5484748683073</v>
+        <v>1.24117358346341</v>
       </c>
       <c r="I58" t="n">
-        <v>11.1218026904642</v>
+        <v>4.33036591194985</v>
       </c>
       <c r="J58" t="n">
-        <v>10.3535137839373</v>
+        <v>6.43088952509215</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10.319803057033</v>
+        <v>9.96444224084469</v>
       </c>
       <c r="B59" t="n">
-        <v>11.1565974387105</v>
+        <v>11.2756241588637</v>
       </c>
       <c r="C59" t="n">
-        <v>12.4992054794926</v>
+        <v>11.7203262469054</v>
       </c>
       <c r="D59" t="n">
-        <v>11.2829668220669</v>
+        <v>12.6410026868137</v>
       </c>
       <c r="E59" t="n">
-        <v>13.9530032491691</v>
+        <v>12.4511722771743</v>
       </c>
       <c r="F59" t="n">
-        <v>12.4249835949828</v>
+        <v>13.4513574110393</v>
       </c>
       <c r="G59" t="n">
-        <v>12.4480535205134</v>
+        <v>11.9279814739292</v>
       </c>
       <c r="H59" t="n">
-        <v>11.2199815736918</v>
+        <v>12.780218618292</v>
       </c>
       <c r="I59" t="n">
-        <v>12.2693741275569</v>
+        <v>12.08196672584</v>
       </c>
       <c r="J59" t="n">
-        <v>9.70133075285766</v>
+        <v>12.2136978464071</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9.3596752063609</v>
+        <v>9.9229400776727</v>
       </c>
       <c r="B60" t="n">
-        <v>10.5041664439366</v>
+        <v>10.8437353930452</v>
       </c>
       <c r="C60" t="n">
-        <v>9.72441452421921</v>
+        <v>10.9993713682449</v>
       </c>
       <c r="D60" t="n">
-        <v>11.5807711611765</v>
+        <v>11.2182218301007</v>
       </c>
       <c r="E60" t="n">
-        <v>12.4960301533877</v>
+        <v>12.9304729679477</v>
       </c>
       <c r="F60" t="n">
-        <v>12.5436934006486</v>
+        <v>12.143207488013</v>
       </c>
       <c r="G60" t="n">
-        <v>13.2584714785488</v>
+        <v>12.2188694947843</v>
       </c>
       <c r="H60" t="n">
-        <v>10.7426329639293</v>
+        <v>12.790820470781</v>
       </c>
       <c r="I60" t="n">
-        <v>12.4112230711193</v>
+        <v>11.0485165535747</v>
       </c>
       <c r="J60" t="n">
-        <v>10.4081954914897</v>
+        <v>11.2357090883921</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-5.46772927113943</v>
+        <v>-4.30104110994708</v>
       </c>
       <c r="B61" t="n">
-        <v>-5.26743738239473</v>
+        <v>-5.6100429631772</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.66668476030926</v>
+        <v>-5.16531049003602</v>
       </c>
       <c r="D61" t="n">
-        <v>-4.69247795514889</v>
+        <v>-4.46311564142259</v>
       </c>
       <c r="E61" t="n">
-        <v>-3.534005165753</v>
+        <v>-4.22243355704007</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.28543182674197</v>
+        <v>-2.92523253586623</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.22823007657112</v>
+        <v>-0.557994631017819</v>
       </c>
       <c r="H61" t="n">
-        <v>1.29046479374533</v>
+        <v>1.28485117737133</v>
       </c>
       <c r="I61" t="n">
-        <v>4.02482463204939</v>
+        <v>4.62733257372877</v>
       </c>
       <c r="J61" t="n">
-        <v>6.74676844297101</v>
+        <v>6.34312595110963</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9.48362312635015</v>
+        <v>10.8970145911268</v>
       </c>
       <c r="B62" t="n">
-        <v>12.180054736014</v>
+        <v>10.8979172899078</v>
       </c>
       <c r="C62" t="n">
-        <v>11.2457966248215</v>
+        <v>11.1657753185359</v>
       </c>
       <c r="D62" t="n">
-        <v>10.6164803131299</v>
+        <v>11.8714378338618</v>
       </c>
       <c r="E62" t="n">
-        <v>10.6509318378241</v>
+        <v>12.1353411292541</v>
       </c>
       <c r="F62" t="n">
-        <v>12.8822523861582</v>
+        <v>12.6792223772004</v>
       </c>
       <c r="G62" t="n">
-        <v>11.5901922621276</v>
+        <v>12.175375958377</v>
       </c>
       <c r="H62" t="n">
-        <v>11.1864470673803</v>
+        <v>12.6845258972946</v>
       </c>
       <c r="I62" t="n">
-        <v>11.7377122513698</v>
+        <v>12.1225721578194</v>
       </c>
       <c r="J62" t="n">
-        <v>9.51889937551517</v>
+        <v>11.4486063889299</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>11.1179627097888</v>
+        <v>9.88209178810399</v>
       </c>
       <c r="B63" t="n">
-        <v>11.2775560292109</v>
+        <v>11.5847144820562</v>
       </c>
       <c r="C63" t="n">
-        <v>11.177902629673</v>
+        <v>12.521884558451</v>
       </c>
       <c r="D63" t="n">
-        <v>11.8547533685704</v>
+        <v>12.3276983858293</v>
       </c>
       <c r="E63" t="n">
-        <v>12.6710125714937</v>
+        <v>11.7405027055609</v>
       </c>
       <c r="F63" t="n">
-        <v>12.3814308848091</v>
+        <v>11.153955044103</v>
       </c>
       <c r="G63" t="n">
-        <v>11.9163416947209</v>
+        <v>12.3324226033259</v>
       </c>
       <c r="H63" t="n">
-        <v>10.9865900810863</v>
+        <v>12.4511506676793</v>
       </c>
       <c r="I63" t="n">
-        <v>12.0270787564782</v>
+        <v>12.3471282147939</v>
       </c>
       <c r="J63" t="n">
-        <v>9.52963201123382</v>
+        <v>10.6086359140076</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>11.4789728735745</v>
+        <v>9.61163449983477</v>
       </c>
       <c r="B64" t="n">
-        <v>11.3711957105976</v>
+        <v>12.3241106203828</v>
       </c>
       <c r="C64" t="n">
-        <v>12.0028194638864</v>
+        <v>12.9875106985132</v>
       </c>
       <c r="D64" t="n">
-        <v>13.7585363938271</v>
+        <v>13.5743079923288</v>
       </c>
       <c r="E64" t="n">
-        <v>11.8889229685668</v>
+        <v>11.6556378338023</v>
       </c>
       <c r="F64" t="n">
-        <v>11.4412949120135</v>
+        <v>12.3375509111203</v>
       </c>
       <c r="G64" t="n">
-        <v>12.1242592936486</v>
+        <v>12.2725132041889</v>
       </c>
       <c r="H64" t="n">
-        <v>11.843229059998</v>
+        <v>11.6116212345707</v>
       </c>
       <c r="I64" t="n">
-        <v>11.4798536791303</v>
+        <v>11.6173143446381</v>
       </c>
       <c r="J64" t="n">
-        <v>10.8943906151875</v>
+        <v>10.5423173074231</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-4.83190492884746</v>
+        <v>11.1042756341356</v>
       </c>
       <c r="B65" t="n">
-        <v>-5.11353677353952</v>
+        <v>10.7479769188934</v>
       </c>
       <c r="C65" t="n">
-        <v>-5.47233556472595</v>
+        <v>10.9378040567313</v>
       </c>
       <c r="D65" t="n">
-        <v>-4.66931338090501</v>
+        <v>12.478788501347</v>
       </c>
       <c r="E65" t="n">
-        <v>-3.58568171442968</v>
+        <v>12.4454403178836</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.50731654734736</v>
+        <v>12.2793967746467</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.554817953605766</v>
+        <v>12.7273145535437</v>
       </c>
       <c r="H65" t="n">
-        <v>1.32161881329899</v>
+        <v>12.2867064813128</v>
       </c>
       <c r="I65" t="n">
-        <v>4.25747414180154</v>
+        <v>11.258009356181</v>
       </c>
       <c r="J65" t="n">
-        <v>6.43533043509196</v>
+        <v>11.1195265713626</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>11.906501211519</v>
+        <v>9.1045612893982</v>
       </c>
       <c r="B66" t="n">
-        <v>10.6701291302219</v>
+        <v>11.4957300274213</v>
       </c>
       <c r="C66" t="n">
-        <v>12.355809566844</v>
+        <v>12.6881770945354</v>
       </c>
       <c r="D66" t="n">
-        <v>11.2245050905514</v>
+        <v>12.2566790222148</v>
       </c>
       <c r="E66" t="n">
-        <v>13.3235733304699</v>
+        <v>13.149083015118</v>
       </c>
       <c r="F66" t="n">
-        <v>12.4611790128905</v>
+        <v>11.8564975969594</v>
       </c>
       <c r="G66" t="n">
-        <v>12.1457930823773</v>
+        <v>14.3181173127429</v>
       </c>
       <c r="H66" t="n">
-        <v>12.6088289047932</v>
+        <v>12.2377237158645</v>
       </c>
       <c r="I66" t="n">
-        <v>11.8622075650783</v>
+        <v>11.7954645176979</v>
       </c>
       <c r="J66" t="n">
-        <v>11.4074698262672</v>
+        <v>11.3326017330207</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-5.3261446602783</v>
+        <v>10.2794759355363</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.2474366136558</v>
+        <v>9.3108227318456</v>
       </c>
       <c r="C67" t="n">
-        <v>-5.05307110883537</v>
+        <v>11.0627486997199</v>
       </c>
       <c r="D67" t="n">
-        <v>-4.96047940321539</v>
+        <v>10.3868943835507</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.04295713865263</v>
+        <v>12.4081172208693</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.7633662938285</v>
+        <v>12.1162999601821</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.319316385920363</v>
+        <v>12.9420854846186</v>
       </c>
       <c r="H67" t="n">
-        <v>1.62946115282749</v>
+        <v>12.8813783201456</v>
       </c>
       <c r="I67" t="n">
-        <v>3.41324241108162</v>
+        <v>12.8105931269663</v>
       </c>
       <c r="J67" t="n">
-        <v>7.14921051461589</v>
+        <v>11.382579643436</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10.746174084297</v>
+        <v>11.145175317915</v>
       </c>
       <c r="B68" t="n">
-        <v>10.3203769400155</v>
+        <v>9.05317020236104</v>
       </c>
       <c r="C68" t="n">
-        <v>11.5440148670909</v>
+        <v>11.8588890484077</v>
       </c>
       <c r="D68" t="n">
-        <v>11.8635658682269</v>
+        <v>12.1902341208536</v>
       </c>
       <c r="E68" t="n">
-        <v>12.5848310332126</v>
+        <v>13.461055595077</v>
       </c>
       <c r="F68" t="n">
-        <v>13.2074343354925</v>
+        <v>12.0682578132677</v>
       </c>
       <c r="G68" t="n">
-        <v>12.0906112345222</v>
+        <v>11.8445115896561</v>
       </c>
       <c r="H68" t="n">
-        <v>11.193490185553</v>
+        <v>13.1220799606272</v>
       </c>
       <c r="I68" t="n">
-        <v>12.9099427317486</v>
+        <v>12.3097018964394</v>
       </c>
       <c r="J68" t="n">
-        <v>10.1917753443819</v>
+        <v>10.5802301503507</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>8.59190407476049</v>
+        <v>10.6379952702926</v>
       </c>
       <c r="B69" t="n">
-        <v>11.4147409484806</v>
+        <v>10.6063344726002</v>
       </c>
       <c r="C69" t="n">
-        <v>11.6293055462171</v>
+        <v>12.1939641780042</v>
       </c>
       <c r="D69" t="n">
-        <v>13.6542506929538</v>
+        <v>12.8887960646363</v>
       </c>
       <c r="E69" t="n">
-        <v>11.0368787851845</v>
+        <v>11.6997031438688</v>
       </c>
       <c r="F69" t="n">
-        <v>11.901671254395</v>
+        <v>11.556740601637</v>
       </c>
       <c r="G69" t="n">
-        <v>13.1872344034377</v>
+        <v>12.5237616601231</v>
       </c>
       <c r="H69" t="n">
-        <v>11.8684573474298</v>
+        <v>12.0302523560965</v>
       </c>
       <c r="I69" t="n">
-        <v>11.882762956113</v>
+        <v>12.4923009941227</v>
       </c>
       <c r="J69" t="n">
-        <v>11.1373944216326</v>
+        <v>12.6542928932644</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10.1673222263614</v>
+        <v>9.00806431468184</v>
       </c>
       <c r="B70" t="n">
-        <v>9.99895153564608</v>
+        <v>11.1693791794572</v>
       </c>
       <c r="C70" t="n">
-        <v>10.7166916360917</v>
+        <v>11.0541114033747</v>
       </c>
       <c r="D70" t="n">
-        <v>12.3044786046937</v>
+        <v>13.1608079011835</v>
       </c>
       <c r="E70" t="n">
-        <v>13.4730564434005</v>
+        <v>12.6391501826867</v>
       </c>
       <c r="F70" t="n">
-        <v>12.29239804889</v>
+        <v>11.9116831189785</v>
       </c>
       <c r="G70" t="n">
-        <v>11.3508681636704</v>
+        <v>12.6524522796421</v>
       </c>
       <c r="H70" t="n">
-        <v>12.427147943361</v>
+        <v>11.9325112233311</v>
       </c>
       <c r="I70" t="n">
-        <v>11.8568202526481</v>
+        <v>12.1025297752287</v>
       </c>
       <c r="J70" t="n">
-        <v>11.0619675648875</v>
+        <v>10.7344692242974</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9.46755368779673</v>
+        <v>-4.74937080290655</v>
       </c>
       <c r="B71" t="n">
-        <v>11.8607931112022</v>
+        <v>-5.4448195793889</v>
       </c>
       <c r="C71" t="n">
-        <v>11.2910491778584</v>
+        <v>-5.34875724359825</v>
       </c>
       <c r="D71" t="n">
-        <v>12.1650323677303</v>
+        <v>-5.13521294141216</v>
       </c>
       <c r="E71" t="n">
-        <v>12.380991841496</v>
+        <v>-3.61721501556282</v>
       </c>
       <c r="F71" t="n">
-        <v>12.2496571958135</v>
+        <v>-2.1007172552291</v>
       </c>
       <c r="G71" t="n">
-        <v>12.8926308247173</v>
+        <v>-0.871393390610154</v>
       </c>
       <c r="H71" t="n">
-        <v>11.8277164264025</v>
+        <v>1.05521836582087</v>
       </c>
       <c r="I71" t="n">
-        <v>11.8238679901512</v>
+        <v>3.85312938642011</v>
       </c>
       <c r="J71" t="n">
-        <v>10.564139844066</v>
+        <v>6.98682578452429</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>12.0346705787418</v>
+        <v>10.2600529630194</v>
       </c>
       <c r="B72" t="n">
-        <v>11.5217948945374</v>
+        <v>11.1273247447975</v>
       </c>
       <c r="C72" t="n">
-        <v>11.0201062804357</v>
+        <v>11.5453680980746</v>
       </c>
       <c r="D72" t="n">
-        <v>12.1745941668442</v>
+        <v>12.0389362227953</v>
       </c>
       <c r="E72" t="n">
-        <v>11.1577740510554</v>
+        <v>11.0781435405294</v>
       </c>
       <c r="F72" t="n">
-        <v>12.0551710319573</v>
+        <v>12.972685264276</v>
       </c>
       <c r="G72" t="n">
-        <v>11.8291416147686</v>
+        <v>12.1936457648043</v>
       </c>
       <c r="H72" t="n">
-        <v>12.2441566547655</v>
+        <v>12.3339929830703</v>
       </c>
       <c r="I72" t="n">
-        <v>11.210112778932</v>
+        <v>10.8851209091502</v>
       </c>
       <c r="J72" t="n">
-        <v>11.6242378531619</v>
+        <v>11.6866436101556</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9.1374984369216</v>
+        <v>9.97617604032626</v>
       </c>
       <c r="B73" t="n">
-        <v>9.90361648032115</v>
+        <v>11.0100661550867</v>
       </c>
       <c r="C73" t="n">
-        <v>11.9389599198969</v>
+        <v>11.9067088065747</v>
       </c>
       <c r="D73" t="n">
-        <v>12.8758968830629</v>
+        <v>11.4526582976351</v>
       </c>
       <c r="E73" t="n">
-        <v>12.776562904902</v>
+        <v>12.8732195223751</v>
       </c>
       <c r="F73" t="n">
-        <v>12.6568610626044</v>
+        <v>11.4278425870577</v>
       </c>
       <c r="G73" t="n">
-        <v>12.2350307708168</v>
+        <v>12.02151913969</v>
       </c>
       <c r="H73" t="n">
-        <v>13.0011935433454</v>
+        <v>12.1918067737364</v>
       </c>
       <c r="I73" t="n">
-        <v>11.4003618502208</v>
+        <v>12.2169249004838</v>
       </c>
       <c r="J73" t="n">
-        <v>10.6117891307351</v>
+        <v>10.9678978941504</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>11.0787908826624</v>
+        <v>-5.20013841974756</v>
       </c>
       <c r="B74" t="n">
-        <v>10.1613143245019</v>
+        <v>-5.43166955192472</v>
       </c>
       <c r="C74" t="n">
-        <v>10.6695804185394</v>
+        <v>-4.84347043732422</v>
       </c>
       <c r="D74" t="n">
-        <v>13.4890947527169</v>
+        <v>-4.63300410436883</v>
       </c>
       <c r="E74" t="n">
-        <v>12.104436135693</v>
+        <v>-4.15981425869436</v>
       </c>
       <c r="F74" t="n">
-        <v>13.0192760650163</v>
+        <v>-2.37861717696227</v>
       </c>
       <c r="G74" t="n">
-        <v>13.3178409352775</v>
+        <v>-1.00844791746697</v>
       </c>
       <c r="H74" t="n">
-        <v>12.9515933180921</v>
+        <v>1.24387561426902</v>
       </c>
       <c r="I74" t="n">
-        <v>10.5315875864153</v>
+        <v>3.65357967817466</v>
       </c>
       <c r="J74" t="n">
-        <v>10.8802617827447</v>
+        <v>6.24759662536113</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10.1324092135289</v>
+        <v>10.2910750148386</v>
       </c>
       <c r="B75" t="n">
-        <v>9.82966184328892</v>
+        <v>11.8526537315621</v>
       </c>
       <c r="C75" t="n">
-        <v>10.9150391200098</v>
+        <v>12.4975621591763</v>
       </c>
       <c r="D75" t="n">
-        <v>11.571494665208</v>
+        <v>13.3876721935976</v>
       </c>
       <c r="E75" t="n">
-        <v>10.8112404633235</v>
+        <v>11.9204492580974</v>
       </c>
       <c r="F75" t="n">
-        <v>11.7610321084837</v>
+        <v>12.4229261922447</v>
       </c>
       <c r="G75" t="n">
-        <v>12.2939173993765</v>
+        <v>13.6839310674819</v>
       </c>
       <c r="H75" t="n">
-        <v>11.0485763536892</v>
+        <v>12.4530862469137</v>
       </c>
       <c r="I75" t="n">
-        <v>10.9031207515073</v>
+        <v>12.7590585608835</v>
       </c>
       <c r="J75" t="n">
-        <v>10.0248413345645</v>
+        <v>11.7776905257449</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10.8031129410034</v>
+        <v>10.5093160753468</v>
       </c>
       <c r="B76" t="n">
-        <v>11.2914255689619</v>
+        <v>10.0346799169435</v>
       </c>
       <c r="C76" t="n">
-        <v>11.969268868693</v>
+        <v>12.6322752331411</v>
       </c>
       <c r="D76" t="n">
-        <v>12.911446965875</v>
+        <v>12.0589205264488</v>
       </c>
       <c r="E76" t="n">
-        <v>11.8100023747678</v>
+        <v>12.9306425939464</v>
       </c>
       <c r="F76" t="n">
-        <v>12.2350092487457</v>
+        <v>11.0314459287977</v>
       </c>
       <c r="G76" t="n">
-        <v>12.7100318522271</v>
+        <v>12.0722714271717</v>
       </c>
       <c r="H76" t="n">
-        <v>11.2376925884756</v>
+        <v>11.2433473550845</v>
       </c>
       <c r="I76" t="n">
-        <v>11.6127957540304</v>
+        <v>12.1498782181071</v>
       </c>
       <c r="J76" t="n">
-        <v>11.1436825218637</v>
+        <v>11.3242013512431</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10.7039613584594</v>
+        <v>-4.80919087791174</v>
       </c>
       <c r="B77" t="n">
-        <v>9.38197318088766</v>
+        <v>-5.16957973021084</v>
       </c>
       <c r="C77" t="n">
-        <v>10.4616273702297</v>
+        <v>-5.00067195181971</v>
       </c>
       <c r="D77" t="n">
-        <v>11.6382209183351</v>
+        <v>-4.82216054001225</v>
       </c>
       <c r="E77" t="n">
-        <v>12.1065162353686</v>
+        <v>-3.62192201431043</v>
       </c>
       <c r="F77" t="n">
-        <v>13.4462377948572</v>
+        <v>-2.58740307745667</v>
       </c>
       <c r="G77" t="n">
-        <v>11.6130158489756</v>
+        <v>-0.275655125150053</v>
       </c>
       <c r="H77" t="n">
-        <v>12.5024615858265</v>
+        <v>1.39747841754464</v>
       </c>
       <c r="I77" t="n">
-        <v>11.7529399581534</v>
+        <v>3.71192295077508</v>
       </c>
       <c r="J77" t="n">
-        <v>11.1131225587839</v>
+        <v>6.80410168238301</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9.56689127769636</v>
+        <v>9.28838770200706</v>
       </c>
       <c r="B78" t="n">
-        <v>11.0519437406018</v>
+        <v>11.0318465987256</v>
       </c>
       <c r="C78" t="n">
-        <v>12.5640792153079</v>
+        <v>12.7430736200072</v>
       </c>
       <c r="D78" t="n">
-        <v>11.6514663284046</v>
+        <v>12.6054555708037</v>
       </c>
       <c r="E78" t="n">
-        <v>12.2242802701314</v>
+        <v>12.0223970668837</v>
       </c>
       <c r="F78" t="n">
-        <v>11.3105628309328</v>
+        <v>12.4338022477672</v>
       </c>
       <c r="G78" t="n">
-        <v>12.6171500914377</v>
+        <v>12.2288261135538</v>
       </c>
       <c r="H78" t="n">
-        <v>12.2277731254594</v>
+        <v>12.0569858555706</v>
       </c>
       <c r="I78" t="n">
-        <v>11.7831017571968</v>
+        <v>11.021552686457</v>
       </c>
       <c r="J78" t="n">
-        <v>11.4186145632565</v>
+        <v>10.9138736213936</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9.23263705712197</v>
+        <v>9.68936543488285</v>
       </c>
       <c r="B79" t="n">
-        <v>11.7771186672392</v>
+        <v>9.96183662396317</v>
       </c>
       <c r="C79" t="n">
-        <v>11.0600377680991</v>
+        <v>11.1362261017717</v>
       </c>
       <c r="D79" t="n">
-        <v>10.630914702922</v>
+        <v>13.5862619331705</v>
       </c>
       <c r="E79" t="n">
-        <v>13.171263059203</v>
+        <v>13.3841272557816</v>
       </c>
       <c r="F79" t="n">
-        <v>11.4561377723237</v>
+        <v>10.2184685386979</v>
       </c>
       <c r="G79" t="n">
-        <v>12.3299512523178</v>
+        <v>12.6335242049747</v>
       </c>
       <c r="H79" t="n">
-        <v>11.3501455456297</v>
+        <v>12.3248658498574</v>
       </c>
       <c r="I79" t="n">
-        <v>12.8783519285232</v>
+        <v>11.4886077532379</v>
       </c>
       <c r="J79" t="n">
-        <v>10.0251750244483</v>
+        <v>10.4864681429374</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>9.87837635617333</v>
+        <v>-4.66396584498022</v>
       </c>
       <c r="B80" t="n">
-        <v>11.9826069614788</v>
+        <v>-5.74468144494693</v>
       </c>
       <c r="C80" t="n">
-        <v>10.7268578376626</v>
+        <v>-4.80906200090257</v>
       </c>
       <c r="D80" t="n">
-        <v>12.1818171719004</v>
+        <v>-4.8880414683243</v>
       </c>
       <c r="E80" t="n">
-        <v>12.1376110286442</v>
+        <v>-4.08537549740117</v>
       </c>
       <c r="F80" t="n">
-        <v>11.5998405156234</v>
+        <v>-2.16883106355118</v>
       </c>
       <c r="G80" t="n">
-        <v>12.2526204789303</v>
+        <v>-1.18456043866035</v>
       </c>
       <c r="H80" t="n">
-        <v>12.7506740047943</v>
+        <v>1.44256073362698</v>
       </c>
       <c r="I80" t="n">
-        <v>11.6908854845419</v>
+        <v>3.88350422954795</v>
       </c>
       <c r="J80" t="n">
-        <v>11.3519300981616</v>
+        <v>6.7391091136392</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-4.49955304546193</v>
+        <v>10.5727306722364</v>
       </c>
       <c r="B81" t="n">
-        <v>-5.35628057519691</v>
+        <v>10.6258571683641</v>
       </c>
       <c r="C81" t="n">
-        <v>-5.21997916758498</v>
+        <v>12.0875184367668</v>
       </c>
       <c r="D81" t="n">
-        <v>-4.97964860376966</v>
+        <v>12.8147958096343</v>
       </c>
       <c r="E81" t="n">
-        <v>-3.57051650878659</v>
+        <v>11.9464052145506</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.89243897000741</v>
+        <v>12.0669922173482</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.368512778147788</v>
+        <v>12.1649308264637</v>
       </c>
       <c r="H81" t="n">
-        <v>1.47284603895795</v>
+        <v>11.4195356576612</v>
       </c>
       <c r="I81" t="n">
-        <v>3.62617953708099</v>
+        <v>12.0331789935183</v>
       </c>
       <c r="J81" t="n">
-        <v>6.81984354034394</v>
+        <v>11.5132680830364</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10.5328277524017</v>
+        <v>8.59998141686773</v>
       </c>
       <c r="B82" t="n">
-        <v>11.2338441989128</v>
+        <v>11.521690414912</v>
       </c>
       <c r="C82" t="n">
-        <v>11.0679152850647</v>
+        <v>11.9097403830446</v>
       </c>
       <c r="D82" t="n">
-        <v>10.5417599582875</v>
+        <v>11.4149053446608</v>
       </c>
       <c r="E82" t="n">
-        <v>12.7545941701951</v>
+        <v>13.6494083564869</v>
       </c>
       <c r="F82" t="n">
-        <v>11.4710640124649</v>
+        <v>12.7032305563737</v>
       </c>
       <c r="G82" t="n">
-        <v>10.9421542411711</v>
+        <v>12.0924674488515</v>
       </c>
       <c r="H82" t="n">
-        <v>13.5031057390731</v>
+        <v>12.931294442469</v>
       </c>
       <c r="I82" t="n">
-        <v>11.8305142204137</v>
+        <v>12.0031075763747</v>
       </c>
       <c r="J82" t="n">
-        <v>9.26492017518412</v>
+        <v>9.25044177951791</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>10.3423818322782</v>
+        <v>-5.33401343117039</v>
       </c>
       <c r="B83" t="n">
-        <v>11.6952003134082</v>
+        <v>-5.68902780187908</v>
       </c>
       <c r="C83" t="n">
-        <v>12.4536989312153</v>
+        <v>-4.71812893394409</v>
       </c>
       <c r="D83" t="n">
-        <v>11.2180194824571</v>
+        <v>-4.86428659997097</v>
       </c>
       <c r="E83" t="n">
-        <v>11.8919682921582</v>
+        <v>-3.56508503109381</v>
       </c>
       <c r="F83" t="n">
-        <v>14.2927056843362</v>
+        <v>-2.9349893737112</v>
       </c>
       <c r="G83" t="n">
-        <v>10.4884052327934</v>
+        <v>-1.01766617588088</v>
       </c>
       <c r="H83" t="n">
-        <v>13.9643296488203</v>
+        <v>0.78664411530843</v>
       </c>
       <c r="I83" t="n">
-        <v>12.8397683568812</v>
+        <v>3.56830725873639</v>
       </c>
       <c r="J83" t="n">
-        <v>11.3404251912618</v>
+        <v>6.75374295552986</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-5.38306700753148</v>
+        <v>-4.68980085757718</v>
       </c>
       <c r="B84" t="n">
-        <v>-5.03588510844254</v>
+        <v>-5.0327554682622</v>
       </c>
       <c r="C84" t="n">
-        <v>-5.22960721585496</v>
+        <v>-4.92222576397181</v>
       </c>
       <c r="D84" t="n">
-        <v>-4.61322106803637</v>
+        <v>-4.65846696104727</v>
       </c>
       <c r="E84" t="n">
-        <v>-3.63592488300192</v>
+        <v>-3.9102706992335</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.44772344469917</v>
+        <v>-2.41570283992049</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.338224229851368</v>
+        <v>-1.37904389389071</v>
       </c>
       <c r="H84" t="n">
-        <v>1.29420883433684</v>
+        <v>1.4509362898932</v>
       </c>
       <c r="I84" t="n">
-        <v>3.37550070793991</v>
+        <v>4.10118991397604</v>
       </c>
       <c r="J84" t="n">
-        <v>6.78133788265458</v>
+        <v>6.55185664098645</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-5.37695000806705</v>
+        <v>11.9178052931727</v>
       </c>
       <c r="B85" t="n">
-        <v>-5.30084290347205</v>
+        <v>9.82993419694981</v>
       </c>
       <c r="C85" t="n">
-        <v>-5.3691172227024</v>
+        <v>10.3541192375852</v>
       </c>
       <c r="D85" t="n">
-        <v>-4.69676611553872</v>
+        <v>12.0508594015893</v>
       </c>
       <c r="E85" t="n">
-        <v>-4.40485429769735</v>
+        <v>13.1290004451486</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.72396294204766</v>
+        <v>11.8327548744055</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.422781261231671</v>
+        <v>10.5265919763347</v>
       </c>
       <c r="H85" t="n">
-        <v>1.18324710157308</v>
+        <v>12.447028623762</v>
       </c>
       <c r="I85" t="n">
-        <v>3.86920008348066</v>
+        <v>10.6423905363919</v>
       </c>
       <c r="J85" t="n">
-        <v>7.07499175222031</v>
+        <v>11.6757114555125</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-5.03467107458051</v>
+        <v>10.5974346626653</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.0799951362574</v>
+        <v>9.79485820916301</v>
       </c>
       <c r="C86" t="n">
-        <v>-4.99845365856274</v>
+        <v>11.3357615011039</v>
       </c>
       <c r="D86" t="n">
-        <v>-4.507773620857</v>
+        <v>12.8341564290212</v>
       </c>
       <c r="E86" t="n">
-        <v>-4.31006552002425</v>
+        <v>11.9694481036975</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.40394436656194</v>
+        <v>13.6506939112482</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.984333699022821</v>
+        <v>13.5244746364604</v>
       </c>
       <c r="H86" t="n">
-        <v>1.30322917911563</v>
+        <v>12.1777702425256</v>
       </c>
       <c r="I86" t="n">
-        <v>3.76325276324794</v>
+        <v>10.8432484503281</v>
       </c>
       <c r="J86" t="n">
-        <v>6.69544319997545</v>
+        <v>11.8185428330363</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-4.53153416472928</v>
+        <v>10.2028083765755</v>
       </c>
       <c r="B87" t="n">
-        <v>-5.33271842399164</v>
+        <v>9.68579030728478</v>
       </c>
       <c r="C87" t="n">
-        <v>-4.82838220006191</v>
+        <v>11.6188455235252</v>
       </c>
       <c r="D87" t="n">
-        <v>-4.1224469842165</v>
+        <v>12.545849532797</v>
       </c>
       <c r="E87" t="n">
-        <v>-3.85594329632218</v>
+        <v>13.540657954972</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.33189751797819</v>
+        <v>12.1742128068655</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.29625510914815</v>
+        <v>11.9311481573523</v>
       </c>
       <c r="H87" t="n">
-        <v>1.91747644465903</v>
+        <v>11.9098165008409</v>
       </c>
       <c r="I87" t="n">
-        <v>3.70443597919224</v>
+        <v>10.4129773955174</v>
       </c>
       <c r="J87" t="n">
-        <v>6.68019666796424</v>
+        <v>10.6470619401437</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9.71447811783152</v>
+        <v>-4.9005622608431</v>
       </c>
       <c r="B88" t="n">
-        <v>10.5380950149922</v>
+        <v>-5.45383838415029</v>
       </c>
       <c r="C88" t="n">
-        <v>10.23159361441</v>
+        <v>-4.99007334271124</v>
       </c>
       <c r="D88" t="n">
-        <v>11.4087025456787</v>
+        <v>-5.09093925586623</v>
       </c>
       <c r="E88" t="n">
-        <v>11.8063566012389</v>
+        <v>-3.76427244605941</v>
       </c>
       <c r="F88" t="n">
-        <v>12.9391077877822</v>
+        <v>-2.64540776532748</v>
       </c>
       <c r="G88" t="n">
-        <v>12.9021887668809</v>
+        <v>-0.849404450574943</v>
       </c>
       <c r="H88" t="n">
-        <v>13.2954983118778</v>
+        <v>1.66936633506272</v>
       </c>
       <c r="I88" t="n">
-        <v>11.5047636596957</v>
+        <v>3.62721247803919</v>
       </c>
       <c r="J88" t="n">
-        <v>11.1335098147093</v>
+        <v>6.84423583710404</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-4.96033907780639</v>
+        <v>-5.13004962555761</v>
       </c>
       <c r="B89" t="n">
-        <v>-5.61808018208538</v>
+        <v>-5.49136667058869</v>
       </c>
       <c r="C89" t="n">
-        <v>-5.2490489914242</v>
+        <v>-5.04163617355325</v>
       </c>
       <c r="D89" t="n">
-        <v>-4.86379060226656</v>
+        <v>-4.7771454253947</v>
       </c>
       <c r="E89" t="n">
-        <v>-3.99161182453051</v>
+        <v>-3.26327400289677</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.61429538141839</v>
+        <v>-2.45014689086138</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.996164267603935</v>
+        <v>-1.39559826646315</v>
       </c>
       <c r="H89" t="n">
-        <v>1.45798192774438</v>
+        <v>1.33753831252298</v>
       </c>
       <c r="I89" t="n">
-        <v>3.77474854116526</v>
+        <v>3.938182288086</v>
       </c>
       <c r="J89" t="n">
-        <v>6.76306502402779</v>
+        <v>6.42483501450363</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.82247850748757</v>
+        <v>8.98240463847461</v>
       </c>
       <c r="B90" t="n">
-        <v>9.80424704174291</v>
+        <v>11.9811351610895</v>
       </c>
       <c r="C90" t="n">
-        <v>11.9592044933378</v>
+        <v>12.2522332051268</v>
       </c>
       <c r="D90" t="n">
-        <v>10.9071516560604</v>
+        <v>11.4602604522699</v>
       </c>
       <c r="E90" t="n">
-        <v>12.1031699825619</v>
+        <v>12.1563823846044</v>
       </c>
       <c r="F90" t="n">
-        <v>13.718394348353</v>
+        <v>12.3966763811264</v>
       </c>
       <c r="G90" t="n">
-        <v>11.764602965026</v>
+        <v>11.9236983727113</v>
       </c>
       <c r="H90" t="n">
-        <v>11.7739790139471</v>
+        <v>11.6308560932688</v>
       </c>
       <c r="I90" t="n">
-        <v>11.0250410175101</v>
+        <v>12.5618203075051</v>
       </c>
       <c r="J90" t="n">
-        <v>10.9243855063444</v>
+        <v>10.4151971234148</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-4.76810992656577</v>
+        <v>10.3651643614618</v>
       </c>
       <c r="B91" t="n">
-        <v>-4.85038280916974</v>
+        <v>10.5458182630675</v>
       </c>
       <c r="C91" t="n">
-        <v>-5.5707859906945</v>
+        <v>10.9985643358681</v>
       </c>
       <c r="D91" t="n">
-        <v>-4.7341262383919</v>
+        <v>11.3681165385084</v>
       </c>
       <c r="E91" t="n">
-        <v>-3.97263280566019</v>
+        <v>12.8263950914426</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.61966939480994</v>
+        <v>11.8704376394183</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.927551581301187</v>
+        <v>13.1703092649014</v>
       </c>
       <c r="H91" t="n">
-        <v>1.40364338112439</v>
+        <v>12.2216547758429</v>
       </c>
       <c r="I91" t="n">
-        <v>3.48435328707742</v>
+        <v>11.8097653150388</v>
       </c>
       <c r="J91" t="n">
-        <v>7.04535926077943</v>
+        <v>11.5197820869117</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-4.66654612520575</v>
+        <v>-5.09808521421771</v>
       </c>
       <c r="B92" t="n">
-        <v>-5.68902910507015</v>
+        <v>-5.26014354418934</v>
       </c>
       <c r="C92" t="n">
-        <v>-4.71396918733415</v>
+        <v>-5.40715497877727</v>
       </c>
       <c r="D92" t="n">
-        <v>-4.2707550400497</v>
+        <v>-4.70154165259369</v>
       </c>
       <c r="E92" t="n">
-        <v>-3.65401124332824</v>
+        <v>-3.92865760677861</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.05297298040641</v>
+        <v>-2.96113842578623</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.01635205651043</v>
+        <v>-0.72264716705581</v>
       </c>
       <c r="H92" t="n">
-        <v>1.37186982487062</v>
+        <v>1.50385393877795</v>
       </c>
       <c r="I92" t="n">
-        <v>3.60496790681518</v>
+        <v>3.48208159575292</v>
       </c>
       <c r="J92" t="n">
-        <v>6.52281748474885</v>
+        <v>6.53389087848852</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10.9038856010137</v>
+        <v>-4.6138961045774</v>
       </c>
       <c r="B93" t="n">
-        <v>11.4607823348379</v>
+        <v>-5.1009858812626</v>
       </c>
       <c r="C93" t="n">
-        <v>9.223612357681</v>
+        <v>-5.23068828529632</v>
       </c>
       <c r="D93" t="n">
-        <v>11.3473590978783</v>
+        <v>-4.66078149477293</v>
       </c>
       <c r="E93" t="n">
-        <v>13.2060793180453</v>
+        <v>-3.72515322475811</v>
       </c>
       <c r="F93" t="n">
-        <v>12.5856063215568</v>
+        <v>-2.58990557565336</v>
       </c>
       <c r="G93" t="n">
-        <v>11.8601560362177</v>
+        <v>-0.76740431467373</v>
       </c>
       <c r="H93" t="n">
-        <v>13.3773356905401</v>
+        <v>1.22486243363494</v>
       </c>
       <c r="I93" t="n">
-        <v>10.4369692690701</v>
+        <v>3.72439578738536</v>
       </c>
       <c r="J93" t="n">
-        <v>11.0550442860598</v>
+        <v>6.83831534991618</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-5.09615958259381</v>
+        <v>-4.89373347370883</v>
       </c>
       <c r="B94" t="n">
-        <v>-4.94272400857639</v>
+        <v>-5.08612121842538</v>
       </c>
       <c r="C94" t="n">
-        <v>-5.22141702792681</v>
+        <v>-5.08311810846937</v>
       </c>
       <c r="D94" t="n">
-        <v>-4.38066848782595</v>
+        <v>-4.44973637582167</v>
       </c>
       <c r="E94" t="n">
-        <v>-3.8247878089324</v>
+        <v>-3.84790198182985</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.91019721005272</v>
+        <v>-2.65737453472845</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.92433061606749</v>
+        <v>-0.571162148955974</v>
       </c>
       <c r="H94" t="n">
-        <v>1.23007863294793</v>
+        <v>1.17511076071233</v>
       </c>
       <c r="I94" t="n">
-        <v>4.0143638618636</v>
+        <v>3.52748849031086</v>
       </c>
       <c r="J94" t="n">
-        <v>6.85631253887257</v>
+        <v>6.55249369374252</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>10.5864742789346</v>
+        <v>9.65153282885171</v>
       </c>
       <c r="B95" t="n">
-        <v>11.0203182580208</v>
+        <v>12.3767382795919</v>
       </c>
       <c r="C95" t="n">
-        <v>11.216459637612</v>
+        <v>11.11595532924</v>
       </c>
       <c r="D95" t="n">
-        <v>13.2099887340633</v>
+        <v>12.0687300538417</v>
       </c>
       <c r="E95" t="n">
-        <v>12.2786586494349</v>
+        <v>12.4875766984048</v>
       </c>
       <c r="F95" t="n">
-        <v>11.0949508109016</v>
+        <v>12.8405343494477</v>
       </c>
       <c r="G95" t="n">
-        <v>12.9799255596804</v>
+        <v>12.8757466732301</v>
       </c>
       <c r="H95" t="n">
-        <v>11.7196801562701</v>
+        <v>11.3181998404297</v>
       </c>
       <c r="I95" t="n">
-        <v>11.6372326137301</v>
+        <v>10.6317143960494</v>
       </c>
       <c r="J95" t="n">
-        <v>11.0608659034805</v>
+        <v>10.4516446676815</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>9.97267457377774</v>
+        <v>10.643676994326</v>
       </c>
       <c r="B96" t="n">
-        <v>10.9933794640362</v>
+        <v>11.5528237473883</v>
       </c>
       <c r="C96" t="n">
-        <v>11.9144271610627</v>
+        <v>13.1753346772799</v>
       </c>
       <c r="D96" t="n">
-        <v>11.5285205259445</v>
+        <v>12.179845694491</v>
       </c>
       <c r="E96" t="n">
-        <v>12.235089215141</v>
+        <v>11.7240506055644</v>
       </c>
       <c r="F96" t="n">
-        <v>11.9962078746907</v>
+        <v>13.240193720816</v>
       </c>
       <c r="G96" t="n">
-        <v>12.1219194665954</v>
+        <v>12.0054037768053</v>
       </c>
       <c r="H96" t="n">
-        <v>11.7216569829614</v>
+        <v>12.3573369206062</v>
       </c>
       <c r="I96" t="n">
-        <v>11.4691730669713</v>
+        <v>11.4283307957287</v>
       </c>
       <c r="J96" t="n">
-        <v>10.4172569651572</v>
+        <v>10.2501219165275</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.77628883839966</v>
+        <v>9.75882373074047</v>
       </c>
       <c r="B97" t="n">
-        <v>10.9635765723841</v>
+        <v>12.424601593737</v>
       </c>
       <c r="C97" t="n">
-        <v>11.3280889017236</v>
+        <v>11.0944469366382</v>
       </c>
       <c r="D97" t="n">
-        <v>11.539972300298</v>
+        <v>11.9608780568436</v>
       </c>
       <c r="E97" t="n">
-        <v>12.2003755780964</v>
+        <v>12.2870342857999</v>
       </c>
       <c r="F97" t="n">
-        <v>12.600322984442</v>
+        <v>11.2929511957205</v>
       </c>
       <c r="G97" t="n">
-        <v>13.1911897802274</v>
+        <v>12.2435350287524</v>
       </c>
       <c r="H97" t="n">
-        <v>12.5543651813984</v>
+        <v>12.182996668357</v>
       </c>
       <c r="I97" t="n">
-        <v>11.8054541413019</v>
+        <v>11.8941407740025</v>
       </c>
       <c r="J97" t="n">
-        <v>12.0832436240262</v>
+        <v>10.936743891838</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-4.97685389925136</v>
+        <v>8.89898658828404</v>
       </c>
       <c r="B98" t="n">
-        <v>-4.83473340983488</v>
+        <v>12.3037342949143</v>
       </c>
       <c r="C98" t="n">
-        <v>-5.49783664962153</v>
+        <v>12.7715313456226</v>
       </c>
       <c r="D98" t="n">
-        <v>-4.36594387373266</v>
+        <v>12.4157451894653</v>
       </c>
       <c r="E98" t="n">
-        <v>-3.7243417206023</v>
+        <v>11.9907709930398</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.10699215105925</v>
+        <v>13.2196274442769</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.718714984351335</v>
+        <v>11.2974581929176</v>
       </c>
       <c r="H98" t="n">
-        <v>1.31210949368575</v>
+        <v>11.942099647282</v>
       </c>
       <c r="I98" t="n">
-        <v>3.79671683302629</v>
+        <v>11.3898671329789</v>
       </c>
       <c r="J98" t="n">
-        <v>6.92456347961763</v>
+        <v>10.6894387145631</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-4.63945498164014</v>
+        <v>-4.5487151281666</v>
       </c>
       <c r="B99" t="n">
-        <v>-5.20105749684601</v>
+        <v>-5.10302987816156</v>
       </c>
       <c r="C99" t="n">
-        <v>-4.96259107499688</v>
+        <v>-5.32430018690338</v>
       </c>
       <c r="D99" t="n">
-        <v>-4.74870465755288</v>
+        <v>-5.07089006829746</v>
       </c>
       <c r="E99" t="n">
-        <v>-4.1383280634118</v>
+        <v>-3.84383166778057</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.23395895078158</v>
+        <v>-2.97524733581904</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.01063921899349</v>
+        <v>-0.82431778912001</v>
       </c>
       <c r="H99" t="n">
-        <v>1.67856530739925</v>
+        <v>1.44899159990353</v>
       </c>
       <c r="I99" t="n">
-        <v>3.55887712147665</v>
+        <v>3.77624841399344</v>
       </c>
       <c r="J99" t="n">
-        <v>6.24611195143794</v>
+        <v>6.69409191243234</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11.3523364699648</v>
+        <v>9.06376880794322</v>
       </c>
       <c r="B100" t="n">
-        <v>12.1241064073845</v>
+        <v>11.2227207541323</v>
       </c>
       <c r="C100" t="n">
-        <v>11.6416456696663</v>
+        <v>11.3011240431958</v>
       </c>
       <c r="D100" t="n">
-        <v>13.4113485747986</v>
+        <v>13.0242003480614</v>
       </c>
       <c r="E100" t="n">
-        <v>12.6734757881642</v>
+        <v>11.9191730181109</v>
       </c>
       <c r="F100" t="n">
-        <v>12.8523217424876</v>
+        <v>12.7736797175758</v>
       </c>
       <c r="G100" t="n">
-        <v>11.8301475032661</v>
+        <v>12.4932739409093</v>
       </c>
       <c r="H100" t="n">
-        <v>12.8598857314923</v>
+        <v>10.6033684821009</v>
       </c>
       <c r="I100" t="n">
-        <v>10.325956346096</v>
+        <v>11.878090763291</v>
       </c>
       <c r="J100" t="n">
-        <v>12.497803655035</v>
+        <v>10.4617074030218</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-4.60699313889825</v>
+        <v>9.28324995501973</v>
       </c>
       <c r="B101" t="n">
-        <v>-5.48477601619856</v>
+        <v>10.2666682405933</v>
       </c>
       <c r="C101" t="n">
-        <v>-4.85150013077052</v>
+        <v>10.9018920993687</v>
       </c>
       <c r="D101" t="n">
-        <v>-4.65496804916192</v>
+        <v>11.8707723039851</v>
       </c>
       <c r="E101" t="n">
-        <v>-4.09373169130488</v>
+        <v>12.1478231559393</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.43882783338212</v>
+        <v>12.3035808967953</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.509693292764719</v>
+        <v>12.6804157482052</v>
       </c>
       <c r="H101" t="n">
-        <v>1.60423330350071</v>
+        <v>13.0848956187654</v>
       </c>
       <c r="I101" t="n">
-        <v>4.20872188791469</v>
+        <v>12.0680070995859</v>
       </c>
       <c r="J101" t="n">
-        <v>6.79654244635736</v>
+        <v>10.7731477932377</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-4.87160168372379</v>
+        <v>9.28244802094284</v>
       </c>
       <c r="B102" t="n">
-        <v>-5.43637515874052</v>
+        <v>10.1099104202506</v>
       </c>
       <c r="C102" t="n">
-        <v>-4.98874057974359</v>
+        <v>11.7320349445424</v>
       </c>
       <c r="D102" t="n">
-        <v>-4.55182749412388</v>
+        <v>12.5988959275526</v>
       </c>
       <c r="E102" t="n">
-        <v>-3.8876739766109</v>
+        <v>12.1617411191338</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.21846855308854</v>
+        <v>12.379808344205</v>
       </c>
       <c r="G102" t="n">
-        <v>-1.20445209051144</v>
+        <v>12.6082923500795</v>
       </c>
       <c r="H102" t="n">
-        <v>1.66216441023743</v>
+        <v>12.2455480511747</v>
       </c>
       <c r="I102" t="n">
-        <v>3.75763975276854</v>
+        <v>12.080750269742</v>
       </c>
       <c r="J102" t="n">
-        <v>6.77254884702904</v>
+        <v>11.3834652882765</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10.8737739136156</v>
+        <v>8.88482409286645</v>
       </c>
       <c r="B103" t="n">
-        <v>11.3839788914483</v>
+        <v>9.59685558613584</v>
       </c>
       <c r="C103" t="n">
-        <v>12.731184703108</v>
+        <v>12.3080984017217</v>
       </c>
       <c r="D103" t="n">
-        <v>11.9596008836777</v>
+        <v>12.2312654122631</v>
       </c>
       <c r="E103" t="n">
-        <v>12.2716454783175</v>
+        <v>12.9287832600328</v>
       </c>
       <c r="F103" t="n">
-        <v>12.7198434720528</v>
+        <v>14.0656055449286</v>
       </c>
       <c r="G103" t="n">
-        <v>12.9457201563277</v>
+        <v>12.8354757242119</v>
       </c>
       <c r="H103" t="n">
-        <v>12.3131897427261</v>
+        <v>12.1941690915319</v>
       </c>
       <c r="I103" t="n">
-        <v>10.8516147130394</v>
+        <v>12.9290024120667</v>
       </c>
       <c r="J103" t="n">
-        <v>10.10016401348</v>
+        <v>10.616822122701</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9.49989792523318</v>
+        <v>-5.13095998516515</v>
       </c>
       <c r="B104" t="n">
-        <v>10.9268138780246</v>
+        <v>-5.31903876268472</v>
       </c>
       <c r="C104" t="n">
-        <v>12.103253346231</v>
+        <v>-4.81050206259768</v>
       </c>
       <c r="D104" t="n">
-        <v>11.9635641773139</v>
+        <v>-4.81390111870373</v>
       </c>
       <c r="E104" t="n">
-        <v>12.1526175034998</v>
+        <v>-3.34039198438371</v>
       </c>
       <c r="F104" t="n">
-        <v>12.7940368098353</v>
+        <v>-2.7356618838607</v>
       </c>
       <c r="G104" t="n">
-        <v>11.2018941314525</v>
+        <v>-0.834486495351665</v>
       </c>
       <c r="H104" t="n">
-        <v>12.8620883476951</v>
+        <v>0.842836485550314</v>
       </c>
       <c r="I104" t="n">
-        <v>12.2306840317472</v>
+        <v>3.45834226829539</v>
       </c>
       <c r="J104" t="n">
-        <v>11.6862291527789</v>
+        <v>6.46948375229343</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.59699604008174</v>
+        <v>-4.75302671509394</v>
       </c>
       <c r="B105" t="n">
-        <v>11.3433269430466</v>
+        <v>-5.06573319518969</v>
       </c>
       <c r="C105" t="n">
-        <v>11.2898758771501</v>
+        <v>-5.35449535322159</v>
       </c>
       <c r="D105" t="n">
-        <v>12.0543858146174</v>
+        <v>-4.62882770768196</v>
       </c>
       <c r="E105" t="n">
-        <v>12.4692065219449</v>
+        <v>-3.37964857484322</v>
       </c>
       <c r="F105" t="n">
-        <v>11.7193614976505</v>
+        <v>-1.95629470713202</v>
       </c>
       <c r="G105" t="n">
-        <v>11.8364634132014</v>
+        <v>-0.670072267693975</v>
       </c>
       <c r="H105" t="n">
-        <v>12.9654221317683</v>
+        <v>0.756230839939042</v>
       </c>
       <c r="I105" t="n">
-        <v>10.5332678197092</v>
+        <v>4.05672666808834</v>
       </c>
       <c r="J105" t="n">
-        <v>10.9266410880252</v>
+        <v>6.77716944881957</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-5.3047896820041</v>
+        <v>-4.88734086408369</v>
       </c>
       <c r="B106" t="n">
-        <v>-5.68520950885438</v>
+        <v>-5.30816119617284</v>
       </c>
       <c r="C106" t="n">
-        <v>-4.53535976597988</v>
+        <v>-5.03784410550282</v>
       </c>
       <c r="D106" t="n">
-        <v>-4.1275204698683</v>
+        <v>-4.54660798231044</v>
       </c>
       <c r="E106" t="n">
-        <v>-4.28621366251639</v>
+        <v>-3.32324609043489</v>
       </c>
       <c r="F106" t="n">
-        <v>-2.2252550730279</v>
+        <v>-2.34427543758044</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.605043406190683</v>
+        <v>-0.379150295648151</v>
       </c>
       <c r="H106" t="n">
-        <v>1.31688950518039</v>
+        <v>1.22640897459412</v>
       </c>
       <c r="I106" t="n">
-        <v>3.69779968613519</v>
+        <v>3.67062850450481</v>
       </c>
       <c r="J106" t="n">
-        <v>6.85069868577825</v>
+        <v>6.84625924290933</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>9.67947960598612</v>
+        <v>9.81531836047459</v>
       </c>
       <c r="B107" t="n">
-        <v>9.24797325720244</v>
+        <v>10.293289090694</v>
       </c>
       <c r="C107" t="n">
-        <v>10.6544261627299</v>
+        <v>11.669563497099</v>
       </c>
       <c r="D107" t="n">
-        <v>12.2421864319385</v>
+        <v>11.7639292032353</v>
       </c>
       <c r="E107" t="n">
-        <v>12.8881484856354</v>
+        <v>11.5129470616498</v>
       </c>
       <c r="F107" t="n">
-        <v>12.7102018424372</v>
+        <v>12.3345879960439</v>
       </c>
       <c r="G107" t="n">
-        <v>11.8545235889816</v>
+        <v>10.5044468260712</v>
       </c>
       <c r="H107" t="n">
-        <v>11.7989195314297</v>
+        <v>12.160257934746</v>
       </c>
       <c r="I107" t="n">
-        <v>10.8458830897963</v>
+        <v>11.8044492177105</v>
       </c>
       <c r="J107" t="n">
-        <v>12.5799666562938</v>
+        <v>11.9542928470429</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10.7620018767294</v>
+        <v>-5.2345383576941</v>
       </c>
       <c r="B108" t="n">
-        <v>10.1351827398655</v>
+        <v>-5.58041331890926</v>
       </c>
       <c r="C108" t="n">
-        <v>11.5192674467747</v>
+        <v>-5.12346378523218</v>
       </c>
       <c r="D108" t="n">
-        <v>11.5814127737613</v>
+        <v>-4.60220611058413</v>
       </c>
       <c r="E108" t="n">
-        <v>12.2370095697017</v>
+        <v>-3.46633308969186</v>
       </c>
       <c r="F108" t="n">
-        <v>13.3865897107311</v>
+        <v>-2.59695653557024</v>
       </c>
       <c r="G108" t="n">
-        <v>13.3908337922209</v>
+        <v>-0.628597411339185</v>
       </c>
       <c r="H108" t="n">
-        <v>12.7507471599339</v>
+        <v>1.29955187569202</v>
       </c>
       <c r="I108" t="n">
-        <v>12.3144776698597</v>
+        <v>4.23441834700986</v>
       </c>
       <c r="J108" t="n">
-        <v>9.50355861372108</v>
+        <v>6.72368414397596</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-5.13826240701302</v>
+        <v>10.0793998599727</v>
       </c>
       <c r="B109" t="n">
-        <v>-5.68200068501946</v>
+        <v>10.0065484787942</v>
       </c>
       <c r="C109" t="n">
-        <v>-5.25861847281332</v>
+        <v>10.9711435251332</v>
       </c>
       <c r="D109" t="n">
-        <v>-4.97058566454775</v>
+        <v>11.9394706437628</v>
       </c>
       <c r="E109" t="n">
-        <v>-3.83915031894937</v>
+        <v>11.598698207241</v>
       </c>
       <c r="F109" t="n">
-        <v>-2.65363104211822</v>
+        <v>12.1475780175862</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.751215507614271</v>
+        <v>11.9877665627139</v>
       </c>
       <c r="H109" t="n">
-        <v>1.64045954875841</v>
+        <v>12.3711756174988</v>
       </c>
       <c r="I109" t="n">
-        <v>3.69352188584576</v>
+        <v>10.9743885356945</v>
       </c>
       <c r="J109" t="n">
-        <v>6.26735464518791</v>
+        <v>10.6334238704824</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>9.5710342233684</v>
+        <v>9.629233288681</v>
       </c>
       <c r="B110" t="n">
-        <v>10.2495172209691</v>
+        <v>10.3743430053599</v>
       </c>
       <c r="C110" t="n">
-        <v>11.3737012202446</v>
+        <v>12.0021558430791</v>
       </c>
       <c r="D110" t="n">
-        <v>11.8592030470956</v>
+        <v>11.5572176351937</v>
       </c>
       <c r="E110" t="n">
-        <v>14.6198121187506</v>
+        <v>12.4085794979792</v>
       </c>
       <c r="F110" t="n">
-        <v>13.4636296292298</v>
+        <v>12.8990505632485</v>
       </c>
       <c r="G110" t="n">
-        <v>13.0774888924809</v>
+        <v>11.5829910344705</v>
       </c>
       <c r="H110" t="n">
-        <v>12.4319048165433</v>
+        <v>14.0664258208606</v>
       </c>
       <c r="I110" t="n">
-        <v>11.0546313718958</v>
+        <v>10.9687147684993</v>
       </c>
       <c r="J110" t="n">
-        <v>10.8240829697928</v>
+        <v>10.277214218057</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>9.64386752099598</v>
+        <v>-5.1602717987374</v>
       </c>
       <c r="B111" t="n">
-        <v>10.1202183843927</v>
+        <v>-5.05751448942714</v>
       </c>
       <c r="C111" t="n">
-        <v>13.0538176954358</v>
+        <v>-5.57048445489018</v>
       </c>
       <c r="D111" t="n">
-        <v>11.6027365638776</v>
+        <v>-4.62031063555882</v>
       </c>
       <c r="E111" t="n">
-        <v>11.1496355129346</v>
+        <v>-3.98856268989027</v>
       </c>
       <c r="F111" t="n">
-        <v>12.2193379496407</v>
+        <v>-2.4168949103708</v>
       </c>
       <c r="G111" t="n">
-        <v>12.9435653884893</v>
+        <v>-1.21574754294235</v>
       </c>
       <c r="H111" t="n">
-        <v>12.1836983143936</v>
+        <v>0.698224617714898</v>
       </c>
       <c r="I111" t="n">
-        <v>11.2355899398487</v>
+        <v>3.92435127378885</v>
       </c>
       <c r="J111" t="n">
-        <v>11.4670255275415</v>
+        <v>6.65609728131268</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-4.92043272837985</v>
+        <v>-5.24390270050173</v>
       </c>
       <c r="B112" t="n">
-        <v>-4.97392783848508</v>
+        <v>-5.51853611156758</v>
       </c>
       <c r="C112" t="n">
-        <v>-5.14644371342948</v>
+        <v>-5.30829353451001</v>
       </c>
       <c r="D112" t="n">
-        <v>-4.75021777304431</v>
+        <v>-4.32336755446944</v>
       </c>
       <c r="E112" t="n">
-        <v>-3.77815421778307</v>
+        <v>-3.4605071290711</v>
       </c>
       <c r="F112" t="n">
-        <v>-2.81412809526008</v>
+        <v>-2.62280692402053</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.908737475121401</v>
+        <v>-0.883182073230885</v>
       </c>
       <c r="H112" t="n">
-        <v>1.1004008174479</v>
+        <v>0.635313606923554</v>
       </c>
       <c r="I112" t="n">
-        <v>3.49195112351773</v>
+        <v>3.86936799777206</v>
       </c>
       <c r="J112" t="n">
-        <v>6.71784870910904</v>
+        <v>6.71538608543397</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10.2358892236581</v>
+        <v>-5.27026595831123</v>
       </c>
       <c r="B113" t="n">
-        <v>12.286272010452</v>
+        <v>-5.41236590831861</v>
       </c>
       <c r="C113" t="n">
-        <v>11.0887467179849</v>
+        <v>-5.04376617944642</v>
       </c>
       <c r="D113" t="n">
-        <v>12.0656657829472</v>
+        <v>-4.63387021083196</v>
       </c>
       <c r="E113" t="n">
-        <v>12.6881803769786</v>
+        <v>-3.58704310066574</v>
       </c>
       <c r="F113" t="n">
-        <v>12.6107183089925</v>
+        <v>-2.44439258625372</v>
       </c>
       <c r="G113" t="n">
-        <v>11.7485803451697</v>
+        <v>-0.847018988144968</v>
       </c>
       <c r="H113" t="n">
-        <v>12.382317475154</v>
+        <v>1.00698365679448</v>
       </c>
       <c r="I113" t="n">
-        <v>11.4521259070802</v>
+        <v>3.63767605568147</v>
       </c>
       <c r="J113" t="n">
-        <v>10.2895001111895</v>
+        <v>6.84893344730011</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-4.85811317694284</v>
+        <v>11.8916919794466</v>
       </c>
       <c r="B114" t="n">
-        <v>-5.44126941782319</v>
+        <v>9.4555677949573</v>
       </c>
       <c r="C114" t="n">
-        <v>-4.98283642543457</v>
+        <v>11.1458767983092</v>
       </c>
       <c r="D114" t="n">
-        <v>-4.64414709045805</v>
+        <v>12.4366489702601</v>
       </c>
       <c r="E114" t="n">
-        <v>-3.80048415161284</v>
+        <v>13.2227150693656</v>
       </c>
       <c r="F114" t="n">
-        <v>-2.60479975232822</v>
+        <v>13.2701187877642</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.734895481908402</v>
+        <v>13.9315259528392</v>
       </c>
       <c r="H114" t="n">
-        <v>0.71548972778618</v>
+        <v>11.5221427758042</v>
       </c>
       <c r="I114" t="n">
-        <v>3.89286799207506</v>
+        <v>12.416586284179</v>
       </c>
       <c r="J114" t="n">
-        <v>7.09674059020301</v>
+        <v>9.83377618621454</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.4448316063057</v>
+        <v>9.91658028188361</v>
       </c>
       <c r="B115" t="n">
-        <v>9.80679291374483</v>
+        <v>12.1836049539474</v>
       </c>
       <c r="C115" t="n">
-        <v>13.3589852240466</v>
+        <v>11.7662268955761</v>
       </c>
       <c r="D115" t="n">
-        <v>12.1828207553515</v>
+        <v>12.6794407221157</v>
       </c>
       <c r="E115" t="n">
-        <v>11.1737456965469</v>
+        <v>13.1722833860193</v>
       </c>
       <c r="F115" t="n">
-        <v>12.4339619182899</v>
+        <v>12.9066115965334</v>
       </c>
       <c r="G115" t="n">
-        <v>12.1831580840615</v>
+        <v>12.195385847287</v>
       </c>
       <c r="H115" t="n">
-        <v>12.5812956903975</v>
+        <v>11.7605483046863</v>
       </c>
       <c r="I115" t="n">
-        <v>11.2533360928903</v>
+        <v>11.9361754821273</v>
       </c>
       <c r="J115" t="n">
-        <v>11.1442020465406</v>
+        <v>10.8344021041808</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10.4001399597336</v>
+        <v>-4.50413471787841</v>
       </c>
       <c r="B116" t="n">
-        <v>10.8996226314743</v>
+        <v>-5.24617851271078</v>
       </c>
       <c r="C116" t="n">
-        <v>11.1206974486471</v>
+        <v>-5.12302790908518</v>
       </c>
       <c r="D116" t="n">
-        <v>12.5689982865333</v>
+        <v>-4.97678844306213</v>
       </c>
       <c r="E116" t="n">
-        <v>11.4797960619601</v>
+        <v>-3.82928447920604</v>
       </c>
       <c r="F116" t="n">
-        <v>13.5137018909462</v>
+        <v>-2.31112878133744</v>
       </c>
       <c r="G116" t="n">
-        <v>12.3838976169948</v>
+        <v>-0.933972436132693</v>
       </c>
       <c r="H116" t="n">
-        <v>12.2927851955368</v>
+        <v>1.24553190729245</v>
       </c>
       <c r="I116" t="n">
-        <v>11.1540336875272</v>
+        <v>3.77821141880766</v>
       </c>
       <c r="J116" t="n">
-        <v>11.2455214978428</v>
+        <v>6.74734872115961</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-5.38806824898981</v>
+        <v>10.7490774983723</v>
       </c>
       <c r="B117" t="n">
-        <v>-5.4391668887924</v>
+        <v>9.93646171138897</v>
       </c>
       <c r="C117" t="n">
-        <v>-5.3440653625145</v>
+        <v>12.2641824910513</v>
       </c>
       <c r="D117" t="n">
-        <v>-4.88837150226828</v>
+        <v>11.5183947285563</v>
       </c>
       <c r="E117" t="n">
-        <v>-3.93238170747508</v>
+        <v>12.9969327391856</v>
       </c>
       <c r="F117" t="n">
-        <v>-2.35030396859243</v>
+        <v>12.2566833625389</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.917398075632017</v>
+        <v>11.6268750359822</v>
       </c>
       <c r="H117" t="n">
-        <v>1.59172912806135</v>
+        <v>12.8815795852931</v>
       </c>
       <c r="I117" t="n">
-        <v>3.71455787240782</v>
+        <v>11.9508521847393</v>
       </c>
       <c r="J117" t="n">
-        <v>6.68529889371858</v>
+        <v>10.8552331628396</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>10.6539057221743</v>
+        <v>9.90596256007285</v>
       </c>
       <c r="B118" t="n">
-        <v>10.9010452058715</v>
+        <v>10.7023263756338</v>
       </c>
       <c r="C118" t="n">
-        <v>10.0640082848209</v>
+        <v>11.7449190973253</v>
       </c>
       <c r="D118" t="n">
-        <v>11.6857005926782</v>
+        <v>11.4556485567614</v>
       </c>
       <c r="E118" t="n">
-        <v>12.7806491360775</v>
+        <v>10.8223038279753</v>
       </c>
       <c r="F118" t="n">
-        <v>12.3997570273579</v>
+        <v>11.6025912699418</v>
       </c>
       <c r="G118" t="n">
-        <v>13.2017474704057</v>
+        <v>12.0312501265255</v>
       </c>
       <c r="H118" t="n">
-        <v>12.7053055919144</v>
+        <v>12.4211901103258</v>
       </c>
       <c r="I118" t="n">
-        <v>12.1017126806696</v>
+        <v>12.5445560291982</v>
       </c>
       <c r="J118" t="n">
-        <v>9.28805587858275</v>
+        <v>10.8543473061293</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9.95751164608294</v>
+        <v>10.9455081876104</v>
       </c>
       <c r="B119" t="n">
-        <v>10.4470578048266</v>
+        <v>12.5872442410496</v>
       </c>
       <c r="C119" t="n">
-        <v>12.6618321531355</v>
+        <v>11.9460370136785</v>
       </c>
       <c r="D119" t="n">
-        <v>11.8042876353225</v>
+        <v>11.7938178702651</v>
       </c>
       <c r="E119" t="n">
-        <v>10.2795414457838</v>
+        <v>13.1319453364013</v>
       </c>
       <c r="F119" t="n">
-        <v>11.4830515195226</v>
+        <v>12.5334292069012</v>
       </c>
       <c r="G119" t="n">
-        <v>12.489954761301</v>
+        <v>10.9162049398462</v>
       </c>
       <c r="H119" t="n">
-        <v>11.0464544133801</v>
+        <v>12.0236084822397</v>
       </c>
       <c r="I119" t="n">
-        <v>10.4787755827556</v>
+        <v>11.5596165009797</v>
       </c>
       <c r="J119" t="n">
-        <v>12.3925322951187</v>
+        <v>10.8641998607071</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.43921201550411</v>
+        <v>9.76575590391471</v>
       </c>
       <c r="B120" t="n">
-        <v>11.3916084195677</v>
+        <v>10.919391212344</v>
       </c>
       <c r="C120" t="n">
-        <v>11.5376233774038</v>
+        <v>12.0864393974903</v>
       </c>
       <c r="D120" t="n">
-        <v>12.3977407748863</v>
+        <v>12.3956558014348</v>
       </c>
       <c r="E120" t="n">
-        <v>12.6914939724991</v>
+        <v>12.7262203002842</v>
       </c>
       <c r="F120" t="n">
-        <v>12.4511509615429</v>
+        <v>11.98417036282</v>
       </c>
       <c r="G120" t="n">
-        <v>12.7488503998823</v>
+        <v>13.6476657622438</v>
       </c>
       <c r="H120" t="n">
-        <v>12.0568807278155</v>
+        <v>13.1904740335054</v>
       </c>
       <c r="I120" t="n">
-        <v>13.1377615308511</v>
+        <v>11.508175018805</v>
       </c>
       <c r="J120" t="n">
-        <v>11.9888969116151</v>
+        <v>11.8327125611904</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.25519945938057</v>
+        <v>10.3978664779057</v>
       </c>
       <c r="B121" t="n">
-        <v>12.0124249644513</v>
+        <v>10.2771884229195</v>
       </c>
       <c r="C121" t="n">
-        <v>11.3842570903164</v>
+        <v>12.0140446517623</v>
       </c>
       <c r="D121" t="n">
-        <v>11.8541216562768</v>
+        <v>11.6237175563506</v>
       </c>
       <c r="E121" t="n">
-        <v>11.6302015797564</v>
+        <v>13.5125162593803</v>
       </c>
       <c r="F121" t="n">
-        <v>11.9394182353119</v>
+        <v>12.4898656814813</v>
       </c>
       <c r="G121" t="n">
-        <v>12.0906959092193</v>
+        <v>12.1547972288902</v>
       </c>
       <c r="H121" t="n">
-        <v>10.970827263816</v>
+        <v>12.2825212416245</v>
       </c>
       <c r="I121" t="n">
-        <v>13.1558883488095</v>
+        <v>11.9554419996273</v>
       </c>
       <c r="J121" t="n">
-        <v>10.0622214173854</v>
+        <v>11.7259759324131</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>9.60407205866576</v>
+        <v>9.75378498726949</v>
       </c>
       <c r="B122" t="n">
-        <v>11.6148812843404</v>
+        <v>10.2726824517815</v>
       </c>
       <c r="C122" t="n">
-        <v>13.0415103768036</v>
+        <v>11.2553747390957</v>
       </c>
       <c r="D122" t="n">
-        <v>12.401722920257</v>
+        <v>12.0671271850486</v>
       </c>
       <c r="E122" t="n">
-        <v>11.7270492880965</v>
+        <v>12.6366606483248</v>
       </c>
       <c r="F122" t="n">
-        <v>12.8220229084716</v>
+        <v>11.5659982976615</v>
       </c>
       <c r="G122" t="n">
-        <v>12.4063581651519</v>
+        <v>13.0571857017357</v>
       </c>
       <c r="H122" t="n">
-        <v>12.4286422605801</v>
+        <v>11.1462498804821</v>
       </c>
       <c r="I122" t="n">
-        <v>10.5067280521853</v>
+        <v>11.6211250528033</v>
       </c>
       <c r="J122" t="n">
-        <v>10.936923922959</v>
+        <v>11.6060231117028</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>10.710609045325</v>
+        <v>11.01339786356</v>
       </c>
       <c r="B123" t="n">
-        <v>10.5211647578488</v>
+        <v>9.67481587127565</v>
       </c>
       <c r="C123" t="n">
-        <v>11.565002058747</v>
+        <v>11.180270536543</v>
       </c>
       <c r="D123" t="n">
-        <v>12.0069869240928</v>
+        <v>13.4976737202211</v>
       </c>
       <c r="E123" t="n">
-        <v>14.9496354340654</v>
+        <v>12.3317767419449</v>
       </c>
       <c r="F123" t="n">
-        <v>13.3776372611953</v>
+        <v>12.5308316360602</v>
       </c>
       <c r="G123" t="n">
-        <v>12.7909550570672</v>
+        <v>13.1194420202906</v>
       </c>
       <c r="H123" t="n">
-        <v>14.1764498309811</v>
+        <v>11.212685742488</v>
       </c>
       <c r="I123" t="n">
-        <v>10.9490256919416</v>
+        <v>10.8302029176163</v>
       </c>
       <c r="J123" t="n">
-        <v>10.5483432078271</v>
+        <v>11.4547614091986</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>10.4874949146364</v>
+        <v>-4.92610063798057</v>
       </c>
       <c r="B124" t="n">
-        <v>10.3193142108167</v>
+        <v>-5.44069264059372</v>
       </c>
       <c r="C124" t="n">
-        <v>11.4480364734453</v>
+        <v>-5.40580598364444</v>
       </c>
       <c r="D124" t="n">
-        <v>12.779576186879</v>
+        <v>-4.42427426920366</v>
       </c>
       <c r="E124" t="n">
-        <v>12.3333141157594</v>
+        <v>-4.09936780735841</v>
       </c>
       <c r="F124" t="n">
-        <v>12.4607108152064</v>
+        <v>-2.75407166361293</v>
       </c>
       <c r="G124" t="n">
-        <v>11.8419911948965</v>
+        <v>-0.490564362091694</v>
       </c>
       <c r="H124" t="n">
-        <v>11.1134475787849</v>
+        <v>1.70828944113525</v>
       </c>
       <c r="I124" t="n">
-        <v>12.368653986362</v>
+        <v>3.82266176544071</v>
       </c>
       <c r="J124" t="n">
-        <v>11.456721061943</v>
+        <v>6.55368863638156</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>8.55999380496702</v>
+        <v>11.3644692535213</v>
       </c>
       <c r="B125" t="n">
-        <v>10.3528339939372</v>
+        <v>10.3488748656391</v>
       </c>
       <c r="C125" t="n">
-        <v>11.6817028840802</v>
+        <v>11.7684195122464</v>
       </c>
       <c r="D125" t="n">
-        <v>12.7087112936715</v>
+        <v>11.9313015561588</v>
       </c>
       <c r="E125" t="n">
-        <v>12.4967174427363</v>
+        <v>12.2867914339273</v>
       </c>
       <c r="F125" t="n">
-        <v>12.1249345704929</v>
+        <v>12.067076628273</v>
       </c>
       <c r="G125" t="n">
-        <v>12.2531926109557</v>
+        <v>11.5005020402124</v>
       </c>
       <c r="H125" t="n">
-        <v>12.207750342692</v>
+        <v>11.2185991531583</v>
       </c>
       <c r="I125" t="n">
-        <v>12.6068567904487</v>
+        <v>11.30023251786</v>
       </c>
       <c r="J125" t="n">
-        <v>11.3912855359289</v>
+        <v>12.1083498161965</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.83670230913047</v>
+        <v>-5.26647355167163</v>
       </c>
       <c r="B126" t="n">
-        <v>10.6025160224876</v>
+        <v>-5.40149799987984</v>
       </c>
       <c r="C126" t="n">
-        <v>12.3340982976832</v>
+        <v>-4.85103182557651</v>
       </c>
       <c r="D126" t="n">
-        <v>12.050405552006</v>
+        <v>-4.82613076140102</v>
       </c>
       <c r="E126" t="n">
-        <v>12.6076362223831</v>
+        <v>-3.41306875022097</v>
       </c>
       <c r="F126" t="n">
-        <v>11.7136740252213</v>
+        <v>-1.97579852083143</v>
       </c>
       <c r="G126" t="n">
-        <v>11.8136898793843</v>
+        <v>-0.847997237541806</v>
       </c>
       <c r="H126" t="n">
-        <v>11.7001263381579</v>
+        <v>1.61852678859722</v>
       </c>
       <c r="I126" t="n">
-        <v>12.0746622755014</v>
+        <v>3.79494134791035</v>
       </c>
       <c r="J126" t="n">
-        <v>10.3168037560382</v>
+        <v>6.85774502195265</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>11.6486928521112</v>
+        <v>-4.87135905217774</v>
       </c>
       <c r="B127" t="n">
-        <v>11.4539929909465</v>
+        <v>-5.60583749304834</v>
       </c>
       <c r="C127" t="n">
-        <v>12.2991574146704</v>
+        <v>-5.35254069835472</v>
       </c>
       <c r="D127" t="n">
-        <v>13.2357583893762</v>
+        <v>-4.41607901303164</v>
       </c>
       <c r="E127" t="n">
-        <v>13.0349251487653</v>
+        <v>-3.83926424764777</v>
       </c>
       <c r="F127" t="n">
-        <v>13.4914811094901</v>
+        <v>-2.53702573633362</v>
       </c>
       <c r="G127" t="n">
-        <v>12.4780072289315</v>
+        <v>-0.815278025703948</v>
       </c>
       <c r="H127" t="n">
-        <v>12.6369167628354</v>
+        <v>1.15238144504112</v>
       </c>
       <c r="I127" t="n">
-        <v>12.1978623773823</v>
+        <v>4.26394726880066</v>
       </c>
       <c r="J127" t="n">
-        <v>10.2865232297915</v>
+        <v>6.58396964560521</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>10.0118998038029</v>
+        <v>9.4474415893109</v>
       </c>
       <c r="B128" t="n">
-        <v>11.5958877071537</v>
+        <v>11.6048375824104</v>
       </c>
       <c r="C128" t="n">
-        <v>12.7020870505334</v>
+        <v>11.6790217076183</v>
       </c>
       <c r="D128" t="n">
-        <v>10.9796788164164</v>
+        <v>11.433615422806</v>
       </c>
       <c r="E128" t="n">
-        <v>12.0939878021899</v>
+        <v>12.1120189973319</v>
       </c>
       <c r="F128" t="n">
-        <v>13.6092704597211</v>
+        <v>11.5022905491025</v>
       </c>
       <c r="G128" t="n">
-        <v>12.3661723314786</v>
+        <v>12.7202741258934</v>
       </c>
       <c r="H128" t="n">
-        <v>10.3154262018538</v>
+        <v>12.7989480076341</v>
       </c>
       <c r="I128" t="n">
-        <v>11.7652208627272</v>
+        <v>10.7125325551921</v>
       </c>
       <c r="J128" t="n">
-        <v>10.9183148362679</v>
+        <v>11.4147449335364</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-5.07507480268858</v>
+        <v>10.7486598297973</v>
       </c>
       <c r="B129" t="n">
-        <v>-5.15650438813252</v>
+        <v>11.39275578161</v>
       </c>
       <c r="C129" t="n">
-        <v>-4.91761931940353</v>
+        <v>12.2853282261952</v>
       </c>
       <c r="D129" t="n">
-        <v>-4.77583289479992</v>
+        <v>11.1919008582647</v>
       </c>
       <c r="E129" t="n">
-        <v>-3.7766297262522</v>
+        <v>13.8208252837677</v>
       </c>
       <c r="F129" t="n">
-        <v>-2.9256589000654</v>
+        <v>12.6994569543113</v>
       </c>
       <c r="G129" t="n">
-        <v>-1.05233416072025</v>
+        <v>13.0363754186145</v>
       </c>
       <c r="H129" t="n">
-        <v>0.966767584015465</v>
+        <v>11.7058506290156</v>
       </c>
       <c r="I129" t="n">
-        <v>4.002091399631</v>
+        <v>12.5741750115314</v>
       </c>
       <c r="J129" t="n">
-        <v>6.67114407779722</v>
+        <v>11.6496397113954</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-5.30707950782833</v>
+        <v>11.335923520846</v>
       </c>
       <c r="B130" t="n">
-        <v>-5.4183464702685</v>
+        <v>11.5661495932416</v>
       </c>
       <c r="C130" t="n">
-        <v>-5.43191279158321</v>
+        <v>13.0951595659729</v>
       </c>
       <c r="D130" t="n">
-        <v>-4.32285930218221</v>
+        <v>11.7641969319137</v>
       </c>
       <c r="E130" t="n">
-        <v>-4.27939008398385</v>
+        <v>13.9351007140219</v>
       </c>
       <c r="F130" t="n">
-        <v>-2.61395545806636</v>
+        <v>11.1052978878409</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.468717793257479</v>
+        <v>13.2697143726431</v>
       </c>
       <c r="H130" t="n">
-        <v>1.07079448543587</v>
+        <v>12.380835233849</v>
       </c>
       <c r="I130" t="n">
-        <v>3.88051069846668</v>
+        <v>11.9665065083592</v>
       </c>
       <c r="J130" t="n">
-        <v>7.06589189176632</v>
+        <v>11.1455934763482</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>10.4219577695797</v>
+        <v>-4.78027227987421</v>
       </c>
       <c r="B131" t="n">
-        <v>10.380598214108</v>
+        <v>-5.15271693331569</v>
       </c>
       <c r="C131" t="n">
-        <v>12.3399588390869</v>
+        <v>-5.07504052019996</v>
       </c>
       <c r="D131" t="n">
-        <v>12.6260760209636</v>
+        <v>-5.06017421549461</v>
       </c>
       <c r="E131" t="n">
-        <v>13.8643714796647</v>
+        <v>-3.62561762268783</v>
       </c>
       <c r="F131" t="n">
-        <v>12.3557144309708</v>
+        <v>-2.67727923921188</v>
       </c>
       <c r="G131" t="n">
-        <v>12.4116147510274</v>
+        <v>-0.480287828497901</v>
       </c>
       <c r="H131" t="n">
-        <v>13.0144848028765</v>
+        <v>1.43872591811398</v>
       </c>
       <c r="I131" t="n">
-        <v>13.1054602648138</v>
+        <v>4.113837112442</v>
       </c>
       <c r="J131" t="n">
-        <v>11.4194166624544</v>
+        <v>6.88054820230289</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>10.0719457749372</v>
+        <v>9.43024096451271</v>
       </c>
       <c r="B132" t="n">
-        <v>11.7927597340148</v>
+        <v>11.0504814877622</v>
       </c>
       <c r="C132" t="n">
-        <v>11.6435637026814</v>
+        <v>12.0421070813692</v>
       </c>
       <c r="D132" t="n">
-        <v>12.0655353414465</v>
+        <v>12.331212357767</v>
       </c>
       <c r="E132" t="n">
-        <v>12.0782380127893</v>
+        <v>12.1282158788997</v>
       </c>
       <c r="F132" t="n">
-        <v>12.768541259197</v>
+        <v>13.4706763673969</v>
       </c>
       <c r="G132" t="n">
-        <v>12.5017267396325</v>
+        <v>12.9455592770439</v>
       </c>
       <c r="H132" t="n">
-        <v>12.3622860074164</v>
+        <v>11.5386655624757</v>
       </c>
       <c r="I132" t="n">
-        <v>11.4193190470851</v>
+        <v>11.4936099345922</v>
       </c>
       <c r="J132" t="n">
-        <v>10.3098871210393</v>
+        <v>10.2805893187064</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>9.36773364573847</v>
+        <v>-5.11701614544634</v>
       </c>
       <c r="B133" t="n">
-        <v>11.4527332782004</v>
+        <v>-5.40771669916321</v>
       </c>
       <c r="C133" t="n">
-        <v>10.6429624676255</v>
+        <v>-4.92571652449283</v>
       </c>
       <c r="D133" t="n">
-        <v>13.304738247644</v>
+        <v>-4.5088748221133</v>
       </c>
       <c r="E133" t="n">
-        <v>12.2935011639656</v>
+        <v>-3.74077414384968</v>
       </c>
       <c r="F133" t="n">
-        <v>12.6792374243318</v>
+        <v>-2.6002327031736</v>
       </c>
       <c r="G133" t="n">
-        <v>11.4828777359812</v>
+        <v>-0.821845715519829</v>
       </c>
       <c r="H133" t="n">
-        <v>11.6263408031116</v>
+        <v>1.94251494302161</v>
       </c>
       <c r="I133" t="n">
-        <v>11.8396123695119</v>
+        <v>3.85181255918008</v>
       </c>
       <c r="J133" t="n">
-        <v>9.1918052229221</v>
+        <v>6.69901196148225</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>10.7077944829684</v>
+        <v>9.21882194766232</v>
       </c>
       <c r="B134" t="n">
-        <v>9.66090422150681</v>
+        <v>11.3325796782151</v>
       </c>
       <c r="C134" t="n">
-        <v>11.4782689555065</v>
+        <v>9.69013778211684</v>
       </c>
       <c r="D134" t="n">
-        <v>11.9077278661707</v>
+        <v>13.5179198763856</v>
       </c>
       <c r="E134" t="n">
-        <v>12.5048603628072</v>
+        <v>12.0721730656124</v>
       </c>
       <c r="F134" t="n">
-        <v>12.8577992284358</v>
+        <v>11.4756232069453</v>
       </c>
       <c r="G134" t="n">
-        <v>11.8171524546111</v>
+        <v>13.1834528114352</v>
       </c>
       <c r="H134" t="n">
-        <v>12.568670274233</v>
+        <v>12.9981225330147</v>
       </c>
       <c r="I134" t="n">
-        <v>12.5371053550528</v>
+        <v>12.0796733896715</v>
       </c>
       <c r="J134" t="n">
-        <v>11.5444280322447</v>
+        <v>11.1793862330681</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9.97103750290918</v>
+        <v>9.82618278532222</v>
       </c>
       <c r="B135" t="n">
-        <v>10.2551716286531</v>
+        <v>10.2581063180554</v>
       </c>
       <c r="C135" t="n">
-        <v>11.5666440766447</v>
+        <v>11.8650065844936</v>
       </c>
       <c r="D135" t="n">
-        <v>11.5820180540168</v>
+        <v>12.2649879490614</v>
       </c>
       <c r="E135" t="n">
-        <v>11.5775617401895</v>
+        <v>11.8658084246474</v>
       </c>
       <c r="F135" t="n">
-        <v>11.6275070957815</v>
+        <v>12.3053833636359</v>
       </c>
       <c r="G135" t="n">
-        <v>11.9062015062275</v>
+        <v>12.1557017908631</v>
       </c>
       <c r="H135" t="n">
-        <v>12.2913708339612</v>
+        <v>11.7034069070404</v>
       </c>
       <c r="I135" t="n">
-        <v>10.9621766059871</v>
+        <v>12.5097992388952</v>
       </c>
       <c r="J135" t="n">
-        <v>10.0600676423018</v>
+        <v>10.8918878225661</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>10.1087337057322</v>
+        <v>9.82702548664389</v>
       </c>
       <c r="B136" t="n">
-        <v>10.8362663676724</v>
+        <v>10.9879218166277</v>
       </c>
       <c r="C136" t="n">
-        <v>11.8802528886169</v>
+        <v>11.732840970944</v>
       </c>
       <c r="D136" t="n">
-        <v>10.8734747991139</v>
+        <v>12.346522145325</v>
       </c>
       <c r="E136" t="n">
-        <v>12.4298132209052</v>
+        <v>12.8411807790265</v>
       </c>
       <c r="F136" t="n">
-        <v>12.9271036764399</v>
+        <v>13.2827873265558</v>
       </c>
       <c r="G136" t="n">
-        <v>13.6806482789802</v>
+        <v>12.4923858792902</v>
       </c>
       <c r="H136" t="n">
-        <v>12.4916127811921</v>
+        <v>11.8609820774323</v>
       </c>
       <c r="I136" t="n">
-        <v>12.4649930435456</v>
+        <v>11.8359870596052</v>
       </c>
       <c r="J136" t="n">
-        <v>10.1756433824396</v>
+        <v>11.8249457101503</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>10.349827006358</v>
+        <v>9.57011425216715</v>
       </c>
       <c r="B137" t="n">
-        <v>9.46428155422925</v>
+        <v>10.577270367027</v>
       </c>
       <c r="C137" t="n">
-        <v>11.6267811464948</v>
+        <v>11.2960064137923</v>
       </c>
       <c r="D137" t="n">
-        <v>12.6576375746257</v>
+        <v>11.6451988334888</v>
       </c>
       <c r="E137" t="n">
-        <v>11.2717549544246</v>
+        <v>12.5434496462071</v>
       </c>
       <c r="F137" t="n">
-        <v>11.9844365665874</v>
+        <v>11.6501091067668</v>
       </c>
       <c r="G137" t="n">
-        <v>12.3016461321329</v>
+        <v>11.2039869889393</v>
       </c>
       <c r="H137" t="n">
-        <v>12.4732217844674</v>
+        <v>13.0976703754757</v>
       </c>
       <c r="I137" t="n">
-        <v>11.9624751647522</v>
+        <v>11.6317059454794</v>
       </c>
       <c r="J137" t="n">
-        <v>11.3388123375562</v>
+        <v>11.5489411910658</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-4.93893448915996</v>
+        <v>9.68315847422568</v>
       </c>
       <c r="B138" t="n">
-        <v>-4.77128612405758</v>
+        <v>11.1759747632916</v>
       </c>
       <c r="C138" t="n">
-        <v>-5.17384698376591</v>
+        <v>12.6661324166838</v>
       </c>
       <c r="D138" t="n">
-        <v>-4.67773694743846</v>
+        <v>12.2266438309899</v>
       </c>
       <c r="E138" t="n">
-        <v>-3.58497037763813</v>
+        <v>11.4180586958681</v>
       </c>
       <c r="F138" t="n">
-        <v>-2.52311745354222</v>
+        <v>13.0626682414873</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.82616477002174</v>
+        <v>11.6109259620988</v>
       </c>
       <c r="H138" t="n">
-        <v>1.35656004071484</v>
+        <v>11.7542787255719</v>
       </c>
       <c r="I138" t="n">
-        <v>3.29359862555416</v>
+        <v>10.0003766994644</v>
       </c>
       <c r="J138" t="n">
-        <v>6.57275973275529</v>
+        <v>10.0270123250845</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>10.7796092003733</v>
+        <v>10.863041879955</v>
       </c>
       <c r="B139" t="n">
-        <v>9.86550762968682</v>
+        <v>10.8403226958407</v>
       </c>
       <c r="C139" t="n">
-        <v>10.9871306699852</v>
+        <v>12.3544217499851</v>
       </c>
       <c r="D139" t="n">
-        <v>10.831070356639</v>
+        <v>13.1546613819344</v>
       </c>
       <c r="E139" t="n">
-        <v>12.1399707855118</v>
+        <v>12.5094657473539</v>
       </c>
       <c r="F139" t="n">
-        <v>11.7962330237333</v>
+        <v>11.2211099198377</v>
       </c>
       <c r="G139" t="n">
-        <v>11.9503348662929</v>
+        <v>13.7540045404162</v>
       </c>
       <c r="H139" t="n">
-        <v>11.6568229863361</v>
+        <v>13.0803815075435</v>
       </c>
       <c r="I139" t="n">
-        <v>11.7823811231901</v>
+        <v>11.2503175371133</v>
       </c>
       <c r="J139" t="n">
-        <v>10.4285899138275</v>
+        <v>12.522085572525</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>10.2201977881414</v>
+        <v>10.8442638675582</v>
       </c>
       <c r="B140" t="n">
-        <v>10.157913666983</v>
+        <v>11.6490744078293</v>
       </c>
       <c r="C140" t="n">
-        <v>11.7378724824322</v>
+        <v>12.7077648462047</v>
       </c>
       <c r="D140" t="n">
-        <v>11.841893968811</v>
+        <v>12.417768932012</v>
       </c>
       <c r="E140" t="n">
-        <v>11.3694347531303</v>
+        <v>11.3188759471241</v>
       </c>
       <c r="F140" t="n">
-        <v>12.5630210903378</v>
+        <v>13.0732663498022</v>
       </c>
       <c r="G140" t="n">
-        <v>11.2172095184797</v>
+        <v>12.6217421164982</v>
       </c>
       <c r="H140" t="n">
-        <v>12.6485127747306</v>
+        <v>12.2886346047399</v>
       </c>
       <c r="I140" t="n">
-        <v>10.5601183383573</v>
+        <v>11.2965225589287</v>
       </c>
       <c r="J140" t="n">
-        <v>11.0593805451013</v>
+        <v>11.1269802743902</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>10.5022013435032</v>
+        <v>10.695753222746</v>
       </c>
       <c r="B141" t="n">
-        <v>11.3871559235136</v>
+        <v>10.0848879567259</v>
       </c>
       <c r="C141" t="n">
-        <v>11.62443377296</v>
+        <v>11.165571657236</v>
       </c>
       <c r="D141" t="n">
-        <v>11.0942170834274</v>
+        <v>11.4828800102836</v>
       </c>
       <c r="E141" t="n">
-        <v>13.1263269467897</v>
+        <v>12.2578900678974</v>
       </c>
       <c r="F141" t="n">
-        <v>13.2626551365327</v>
+        <v>13.7543922931339</v>
       </c>
       <c r="G141" t="n">
-        <v>12.5480195452311</v>
+        <v>12.7460237209309</v>
       </c>
       <c r="H141" t="n">
-        <v>11.738840088451</v>
+        <v>12.0620337980514</v>
       </c>
       <c r="I141" t="n">
-        <v>11.4014230195572</v>
+        <v>10.6767963470446</v>
       </c>
       <c r="J141" t="n">
-        <v>10.8514252415703</v>
+        <v>11.9322332971229</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10.0448058096149</v>
+        <v>9.53915167687895</v>
       </c>
       <c r="B142" t="n">
-        <v>9.8580494215015</v>
+        <v>10.7706047856255</v>
       </c>
       <c r="C142" t="n">
-        <v>11.2433420962056</v>
+        <v>12.4250282640992</v>
       </c>
       <c r="D142" t="n">
-        <v>10.8179975315152</v>
+        <v>12.3892104261261</v>
       </c>
       <c r="E142" t="n">
-        <v>11.4737665072564</v>
+        <v>13.0198062061468</v>
       </c>
       <c r="F142" t="n">
-        <v>12.811385773919</v>
+        <v>12.0810767298459</v>
       </c>
       <c r="G142" t="n">
-        <v>13.9153118819222</v>
+        <v>10.9880743637547</v>
       </c>
       <c r="H142" t="n">
-        <v>11.4052975254837</v>
+        <v>11.5182994292147</v>
       </c>
       <c r="I142" t="n">
-        <v>12.7901033727445</v>
+        <v>11.3209762015704</v>
       </c>
       <c r="J142" t="n">
-        <v>12.0787654030405</v>
+        <v>10.6426768048997</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9.39390326453394</v>
+        <v>9.84427829683387</v>
       </c>
       <c r="B143" t="n">
-        <v>11.054492243564</v>
+        <v>11.51667548781</v>
       </c>
       <c r="C143" t="n">
-        <v>11.6742536917381</v>
+        <v>11.3281616391711</v>
       </c>
       <c r="D143" t="n">
-        <v>12.183222961352</v>
+        <v>12.2098809595754</v>
       </c>
       <c r="E143" t="n">
-        <v>13.5919556529333</v>
+        <v>13.1056780641395</v>
       </c>
       <c r="F143" t="n">
-        <v>12.8908312856861</v>
+        <v>12.5211343804852</v>
       </c>
       <c r="G143" t="n">
-        <v>13.0889873733363</v>
+        <v>11.1047303180007</v>
       </c>
       <c r="H143" t="n">
-        <v>13.2786302450443</v>
+        <v>11.4537389405918</v>
       </c>
       <c r="I143" t="n">
-        <v>11.2157494649637</v>
+        <v>11.5612805230498</v>
       </c>
       <c r="J143" t="n">
-        <v>9.78859913169893</v>
+        <v>10.8061246918927</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>10.324423213185</v>
+        <v>-5.02792700073388</v>
       </c>
       <c r="B144" t="n">
-        <v>11.9035871690785</v>
+        <v>-5.3952416225044</v>
       </c>
       <c r="C144" t="n">
-        <v>11.9578107827798</v>
+        <v>-5.17771886589843</v>
       </c>
       <c r="D144" t="n">
-        <v>12.2998090796179</v>
+        <v>-4.25470565642494</v>
       </c>
       <c r="E144" t="n">
-        <v>13.2252686106168</v>
+        <v>-3.69205140776458</v>
       </c>
       <c r="F144" t="n">
-        <v>12.4198143500905</v>
+        <v>-2.27557314751942</v>
       </c>
       <c r="G144" t="n">
-        <v>11.9643354988986</v>
+        <v>-0.585060677973446</v>
       </c>
       <c r="H144" t="n">
-        <v>12.1085413592096</v>
+        <v>1.44062448452859</v>
       </c>
       <c r="I144" t="n">
-        <v>11.9324559335456</v>
+        <v>3.70279881700106</v>
       </c>
       <c r="J144" t="n">
-        <v>10.9173415171366</v>
+        <v>6.53448293998423</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8.52755271988285</v>
+        <v>10.7466228342537</v>
       </c>
       <c r="B145" t="n">
-        <v>11.7955005250508</v>
+        <v>11.5018761419413</v>
       </c>
       <c r="C145" t="n">
-        <v>11.2100501960953</v>
+        <v>10.6525677813811</v>
       </c>
       <c r="D145" t="n">
-        <v>12.6408856547019</v>
+        <v>13.2479757917673</v>
       </c>
       <c r="E145" t="n">
-        <v>12.2239229502391</v>
+        <v>13.2864682725826</v>
       </c>
       <c r="F145" t="n">
-        <v>11.6291931583607</v>
+        <v>11.9184291762311</v>
       </c>
       <c r="G145" t="n">
-        <v>12.7016885729583</v>
+        <v>12.5695738060761</v>
       </c>
       <c r="H145" t="n">
-        <v>10.9757217237437</v>
+        <v>12.2544117198535</v>
       </c>
       <c r="I145" t="n">
-        <v>12.0335717859134</v>
+        <v>11.7874488126276</v>
       </c>
       <c r="J145" t="n">
-        <v>10.6810349759046</v>
+        <v>11.0395017236124</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-5.09359489485262</v>
+        <v>10.6201635054316</v>
       </c>
       <c r="B146" t="n">
-        <v>-5.12905736923761</v>
+        <v>10.3485978972614</v>
       </c>
       <c r="C146" t="n">
-        <v>-5.09801853146229</v>
+        <v>11.7352325676662</v>
       </c>
       <c r="D146" t="n">
-        <v>-4.94873399689909</v>
+        <v>11.3584128583095</v>
       </c>
       <c r="E146" t="n">
-        <v>-3.45491724324487</v>
+        <v>11.8670433781482</v>
       </c>
       <c r="F146" t="n">
-        <v>-2.43472074783495</v>
+        <v>12.1575149927043</v>
       </c>
       <c r="G146" t="n">
-        <v>-1.18160416901015</v>
+        <v>11.9644763960527</v>
       </c>
       <c r="H146" t="n">
-        <v>1.74624479812742</v>
+        <v>12.086505671595</v>
       </c>
       <c r="I146" t="n">
-        <v>3.50190843982002</v>
+        <v>11.112085403539</v>
       </c>
       <c r="J146" t="n">
-        <v>6.31713874386015</v>
+        <v>11.1326354238942</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>9.27256026758402</v>
+        <v>-4.78101625443127</v>
       </c>
       <c r="B147" t="n">
-        <v>10.7052904015402</v>
+        <v>-5.39101023360364</v>
       </c>
       <c r="C147" t="n">
-        <v>11.4639784438275</v>
+        <v>-5.47775832953708</v>
       </c>
       <c r="D147" t="n">
-        <v>10.8934884715396</v>
+        <v>-4.98949118480434</v>
       </c>
       <c r="E147" t="n">
-        <v>12.3123244726168</v>
+        <v>-3.83377034816818</v>
       </c>
       <c r="F147" t="n">
-        <v>12.2719125408812</v>
+        <v>-2.97757837605496</v>
       </c>
       <c r="G147" t="n">
-        <v>13.2554288947287</v>
+        <v>-0.746479697402502</v>
       </c>
       <c r="H147" t="n">
-        <v>12.8405522262638</v>
+        <v>1.07571659409755</v>
       </c>
       <c r="I147" t="n">
-        <v>10.7742723438549</v>
+        <v>4.07718289273068</v>
       </c>
       <c r="J147" t="n">
-        <v>9.49575338984552</v>
+        <v>6.67231295086637</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.1856979692321</v>
+        <v>10.9560796913269</v>
       </c>
       <c r="B148" t="n">
-        <v>10.4785475085519</v>
+        <v>11.302544231473</v>
       </c>
       <c r="C148" t="n">
-        <v>11.2797277281737</v>
+        <v>12.3289458705573</v>
       </c>
       <c r="D148" t="n">
-        <v>13.8620324833386</v>
+        <v>11.8636672614798</v>
       </c>
       <c r="E148" t="n">
-        <v>12.4474681922301</v>
+        <v>12.5457024096714</v>
       </c>
       <c r="F148" t="n">
-        <v>12.2947787821881</v>
+        <v>12.255000651312</v>
       </c>
       <c r="G148" t="n">
-        <v>12.3464553099674</v>
+        <v>12.0199753919214</v>
       </c>
       <c r="H148" t="n">
-        <v>12.6545275431579</v>
+        <v>10.6070075981925</v>
       </c>
       <c r="I148" t="n">
-        <v>11.0636661804562</v>
+        <v>10.6571795002715</v>
       </c>
       <c r="J148" t="n">
-        <v>9.9429801004825</v>
+        <v>11.8586405378963</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9.82028923080091</v>
+        <v>9.87681048162562</v>
       </c>
       <c r="B149" t="n">
-        <v>11.4604780547063</v>
+        <v>10.529874080341</v>
       </c>
       <c r="C149" t="n">
-        <v>12.2150501537569</v>
+        <v>12.6119103721068</v>
       </c>
       <c r="D149" t="n">
-        <v>12.1431883997435</v>
+        <v>11.7638433840815</v>
       </c>
       <c r="E149" t="n">
-        <v>11.8713728344374</v>
+        <v>12.4035482154459</v>
       </c>
       <c r="F149" t="n">
-        <v>11.880471875015</v>
+        <v>12.7630414964964</v>
       </c>
       <c r="G149" t="n">
-        <v>11.8225588000545</v>
+        <v>13.3983484259245</v>
       </c>
       <c r="H149" t="n">
-        <v>11.1620684330605</v>
+        <v>12.5722618880308</v>
       </c>
       <c r="I149" t="n">
-        <v>10.7307431787373</v>
+        <v>12.9277015084573</v>
       </c>
       <c r="J149" t="n">
-        <v>11.255616909315</v>
+        <v>11.4159103412291</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10.227498754283</v>
+        <v>10.3754618753019</v>
       </c>
       <c r="B150" t="n">
-        <v>11.3284273180156</v>
+        <v>11.4134598380627</v>
       </c>
       <c r="C150" t="n">
-        <v>10.7617073931795</v>
+        <v>12.0330382500084</v>
       </c>
       <c r="D150" t="n">
-        <v>11.7339354488504</v>
+        <v>13.4849142559391</v>
       </c>
       <c r="E150" t="n">
-        <v>12.536368823838</v>
+        <v>13.5676845980396</v>
       </c>
       <c r="F150" t="n">
-        <v>11.6033467461533</v>
+        <v>12.9573928939468</v>
       </c>
       <c r="G150" t="n">
-        <v>11.4991562528353</v>
+        <v>12.1269952861298</v>
       </c>
       <c r="H150" t="n">
-        <v>11.5044508268053</v>
+        <v>12.7911783533831</v>
       </c>
       <c r="I150" t="n">
-        <v>11.1072255564055</v>
+        <v>12.0024532793529</v>
       </c>
       <c r="J150" t="n">
-        <v>10.9643670143235</v>
+        <v>10.8382149274052</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-5.19944944588366</v>
+        <v>9.54031052838893</v>
       </c>
       <c r="B151" t="n">
-        <v>-5.17113056196285</v>
+        <v>10.3958480201952</v>
       </c>
       <c r="C151" t="n">
-        <v>-5.13288523065884</v>
+        <v>12.3435862446465</v>
       </c>
       <c r="D151" t="n">
-        <v>-4.92407908411193</v>
+        <v>10.9343147032488</v>
       </c>
       <c r="E151" t="n">
-        <v>-3.697269564886</v>
+        <v>13.9188765390585</v>
       </c>
       <c r="F151" t="n">
-        <v>-2.54384144291745</v>
+        <v>12.4025403168842</v>
       </c>
       <c r="G151" t="n">
-        <v>-0.767156537898433</v>
+        <v>11.8369313264655</v>
       </c>
       <c r="H151" t="n">
-        <v>1.67190240920755</v>
+        <v>11.105559427743</v>
       </c>
       <c r="I151" t="n">
-        <v>3.92048303083031</v>
+        <v>11.8478494351254</v>
       </c>
       <c r="J151" t="n">
-        <v>6.63511329233766</v>
+        <v>11.046793570113</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-5.04708882301091</v>
+        <v>9.56600133909952</v>
       </c>
       <c r="B152" t="n">
-        <v>-5.10794788919955</v>
+        <v>11.105847672174</v>
       </c>
       <c r="C152" t="n">
-        <v>-5.50656342195647</v>
+        <v>11.1312936268537</v>
       </c>
       <c r="D152" t="n">
-        <v>-4.47860246677857</v>
+        <v>13.390591266417</v>
       </c>
       <c r="E152" t="n">
-        <v>-3.5039560287685</v>
+        <v>13.4891998174373</v>
       </c>
       <c r="F152" t="n">
-        <v>-2.56257800362276</v>
+        <v>12.4972158293224</v>
       </c>
       <c r="G152" t="n">
-        <v>-0.965649881242038</v>
+        <v>11.9432069232539</v>
       </c>
       <c r="H152" t="n">
-        <v>1.17880126478308</v>
+        <v>12.2990089618848</v>
       </c>
       <c r="I152" t="n">
-        <v>3.89182320818773</v>
+        <v>11.1362210025093</v>
       </c>
       <c r="J152" t="n">
-        <v>6.28818965286098</v>
+        <v>10.7999245194327</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>10.8113877014662</v>
+        <v>10.7376950394932</v>
       </c>
       <c r="B153" t="n">
-        <v>11.4675183508912</v>
+        <v>10.5910379045686</v>
       </c>
       <c r="C153" t="n">
-        <v>9.33294860631637</v>
+        <v>10.8051420689244</v>
       </c>
       <c r="D153" t="n">
-        <v>10.6242957191302</v>
+        <v>11.9425593231259</v>
       </c>
       <c r="E153" t="n">
-        <v>12.6207897248671</v>
+        <v>12.8337402069941</v>
       </c>
       <c r="F153" t="n">
-        <v>12.5808076641055</v>
+        <v>13.0050860804724</v>
       </c>
       <c r="G153" t="n">
-        <v>12.9908727166165</v>
+        <v>12.2516344144197</v>
       </c>
       <c r="H153" t="n">
-        <v>12.7941658621345</v>
+        <v>11.4670315966388</v>
       </c>
       <c r="I153" t="n">
-        <v>11.871575221393</v>
+        <v>10.7698972901801</v>
       </c>
       <c r="J153" t="n">
-        <v>11.3979050350268</v>
+        <v>12.0468284192863</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>9.75794631586509</v>
+        <v>-5.0495419279783</v>
       </c>
       <c r="B154" t="n">
-        <v>10.9314728040401</v>
+        <v>-5.44546191519282</v>
       </c>
       <c r="C154" t="n">
-        <v>11.4001073033063</v>
+        <v>-4.86390557559981</v>
       </c>
       <c r="D154" t="n">
-        <v>12.0540861630599</v>
+        <v>-4.51929636374562</v>
       </c>
       <c r="E154" t="n">
-        <v>11.2935428266592</v>
+        <v>-3.60421436358923</v>
       </c>
       <c r="F154" t="n">
-        <v>12.9508994734503</v>
+        <v>-2.28163926058673</v>
       </c>
       <c r="G154" t="n">
-        <v>12.0054345950787</v>
+        <v>-0.893713160730153</v>
       </c>
       <c r="H154" t="n">
-        <v>12.0149859953999</v>
+        <v>0.967270989205956</v>
       </c>
       <c r="I154" t="n">
-        <v>11.2050649622634</v>
+        <v>4.07234026745691</v>
       </c>
       <c r="J154" t="n">
-        <v>10.774668426334</v>
+        <v>6.43244459376934</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-5.49411608542536</v>
+        <v>9.72434426675637</v>
       </c>
       <c r="B155" t="n">
-        <v>-5.70044624150257</v>
+        <v>12.0196216787221</v>
       </c>
       <c r="C155" t="n">
-        <v>-4.94519073863407</v>
+        <v>11.3451812570333</v>
       </c>
       <c r="D155" t="n">
-        <v>-4.89974194724373</v>
+        <v>13.2559601431389</v>
       </c>
       <c r="E155" t="n">
-        <v>-3.73372631879566</v>
+        <v>12.5456011009528</v>
       </c>
       <c r="F155" t="n">
-        <v>-2.15807675833862</v>
+        <v>11.4382006096113</v>
       </c>
       <c r="G155" t="n">
-        <v>-1.14977664956881</v>
+        <v>12.032820911752</v>
       </c>
       <c r="H155" t="n">
-        <v>0.804968551727829</v>
+        <v>12.549146800552</v>
       </c>
       <c r="I155" t="n">
-        <v>3.53028743614245</v>
+        <v>10.7595015897971</v>
       </c>
       <c r="J155" t="n">
-        <v>6.73982156623896</v>
+        <v>11.2149321834746</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>9.41183336800251</v>
+        <v>-5.21292723722599</v>
       </c>
       <c r="B156" t="n">
-        <v>9.46845079125431</v>
+        <v>-5.50457487433462</v>
       </c>
       <c r="C156" t="n">
-        <v>12.18598933537</v>
+        <v>-5.34177887555693</v>
       </c>
       <c r="D156" t="n">
-        <v>13.0513748721975</v>
+        <v>-4.68846197876749</v>
       </c>
       <c r="E156" t="n">
-        <v>11.8591789762775</v>
+        <v>-3.90530958751754</v>
       </c>
       <c r="F156" t="n">
-        <v>12.7472655843323</v>
+        <v>-2.55479946829728</v>
       </c>
       <c r="G156" t="n">
-        <v>12.1358832936969</v>
+        <v>-0.656150145619254</v>
       </c>
       <c r="H156" t="n">
-        <v>11.8080531730424</v>
+        <v>1.07517588570422</v>
       </c>
       <c r="I156" t="n">
-        <v>10.2959485132218</v>
+        <v>3.6938832648229</v>
       </c>
       <c r="J156" t="n">
-        <v>11.104477512478</v>
+        <v>6.68142094121836</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>8.81562354906962</v>
+        <v>-5.29421127133902</v>
       </c>
       <c r="B157" t="n">
-        <v>12.2073104057565</v>
+        <v>-5.29156230104825</v>
       </c>
       <c r="C157" t="n">
-        <v>11.9702117803995</v>
+        <v>-4.683562151891</v>
       </c>
       <c r="D157" t="n">
-        <v>11.5338859656706</v>
+        <v>-4.72704699011752</v>
       </c>
       <c r="E157" t="n">
-        <v>12.0780673063566</v>
+        <v>-3.3362370430276</v>
       </c>
       <c r="F157" t="n">
-        <v>12.8682827555172</v>
+        <v>-2.57053560233576</v>
       </c>
       <c r="G157" t="n">
-        <v>11.8351755143705</v>
+        <v>-0.783129184066434</v>
       </c>
       <c r="H157" t="n">
-        <v>12.5752078686915</v>
+        <v>1.35416510174881</v>
       </c>
       <c r="I157" t="n">
-        <v>11.191636856783</v>
+        <v>3.49260427751606</v>
       </c>
       <c r="J157" t="n">
-        <v>10.9889446334619</v>
+        <v>6.81727484471851</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>11.4035625175426</v>
+        <v>11.0426637060541</v>
       </c>
       <c r="B158" t="n">
-        <v>9.34822287743933</v>
+        <v>12.4923618199712</v>
       </c>
       <c r="C158" t="n">
-        <v>11.2403795974525</v>
+        <v>10.9534594828832</v>
       </c>
       <c r="D158" t="n">
-        <v>13.5668399993065</v>
+        <v>11.898825033309</v>
       </c>
       <c r="E158" t="n">
-        <v>11.4456372895221</v>
+        <v>12.4384765417695</v>
       </c>
       <c r="F158" t="n">
-        <v>12.1657525367119</v>
+        <v>12.3055156965228</v>
       </c>
       <c r="G158" t="n">
-        <v>12.3224404577824</v>
+        <v>11.7866881618835</v>
       </c>
       <c r="H158" t="n">
-        <v>12.1717041107607</v>
+        <v>11.9151505094977</v>
       </c>
       <c r="I158" t="n">
-        <v>12.4562144753904</v>
+        <v>13.9671136163779</v>
       </c>
       <c r="J158" t="n">
-        <v>10.0196894712156</v>
+        <v>10.5381603317456</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9.85081050430044</v>
+        <v>-4.716206080406</v>
       </c>
       <c r="B159" t="n">
-        <v>10.9025041917249</v>
+        <v>-5.66879890242096</v>
       </c>
       <c r="C159" t="n">
-        <v>12.2787576798074</v>
+        <v>-5.29030386795734</v>
       </c>
       <c r="D159" t="n">
-        <v>11.9286189558756</v>
+        <v>-5.17837214773979</v>
       </c>
       <c r="E159" t="n">
-        <v>12.4971430438523</v>
+        <v>-3.66620065787185</v>
       </c>
       <c r="F159" t="n">
-        <v>11.6276069531028</v>
+        <v>-2.38923361324419</v>
       </c>
       <c r="G159" t="n">
-        <v>13.0528339291732</v>
+        <v>-0.618798178027778</v>
       </c>
       <c r="H159" t="n">
-        <v>12.1866669337114</v>
+        <v>1.01320168776558</v>
       </c>
       <c r="I159" t="n">
-        <v>11.2283684665407</v>
+        <v>4.36315388708126</v>
       </c>
       <c r="J159" t="n">
-        <v>9.29981587857055</v>
+        <v>6.78032240204401</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>10.1105983530546</v>
+        <v>10.5733289558142</v>
       </c>
       <c r="B160" t="n">
-        <v>10.7224204275708</v>
+        <v>9.68557683494659</v>
       </c>
       <c r="C160" t="n">
-        <v>10.480981254615</v>
+        <v>11.648826467485</v>
       </c>
       <c r="D160" t="n">
-        <v>12.4067757922423</v>
+        <v>10.9504856379674</v>
       </c>
       <c r="E160" t="n">
-        <v>12.2408942465999</v>
+        <v>13.7253465380307</v>
       </c>
       <c r="F160" t="n">
-        <v>11.9245375832642</v>
+        <v>12.5034873131995</v>
       </c>
       <c r="G160" t="n">
-        <v>11.2726712367352</v>
+        <v>13.1649384928914</v>
       </c>
       <c r="H160" t="n">
-        <v>10.9762653290537</v>
+        <v>12.0985971295002</v>
       </c>
       <c r="I160" t="n">
-        <v>11.6034566422461</v>
+        <v>11.1254353021598</v>
       </c>
       <c r="J160" t="n">
-        <v>11.5303650766143</v>
+        <v>10.2815805347689</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-4.85835091607664</v>
+        <v>11.7139303909268</v>
       </c>
       <c r="B161" t="n">
-        <v>-4.95130331752063</v>
+        <v>11.6443192493795</v>
       </c>
       <c r="C161" t="n">
-        <v>-4.83138686948671</v>
+        <v>11.9891485485411</v>
       </c>
       <c r="D161" t="n">
-        <v>-4.73895671508533</v>
+        <v>12.7459530477943</v>
       </c>
       <c r="E161" t="n">
-        <v>-3.68330834533077</v>
+        <v>12.2280488142077</v>
       </c>
       <c r="F161" t="n">
-        <v>-2.39344553685235</v>
+        <v>11.6858737290154</v>
       </c>
       <c r="G161" t="n">
-        <v>-0.82619395469333</v>
+        <v>12.7857293303189</v>
       </c>
       <c r="H161" t="n">
-        <v>1.41680078414853</v>
+        <v>10.9334207379912</v>
       </c>
       <c r="I161" t="n">
-        <v>3.69593408237254</v>
+        <v>13.116430019837</v>
       </c>
       <c r="J161" t="n">
-        <v>6.5177112531156</v>
+        <v>10.5157288505941</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>10.4327781042538</v>
+        <v>10.1871041660571</v>
       </c>
       <c r="B162" t="n">
-        <v>10.7528601046467</v>
+        <v>10.6393419430348</v>
       </c>
       <c r="C162" t="n">
-        <v>12.9734430095716</v>
+        <v>11.9155300375805</v>
       </c>
       <c r="D162" t="n">
-        <v>13.129007322793</v>
+        <v>11.2208693417883</v>
       </c>
       <c r="E162" t="n">
-        <v>10.967517273331</v>
+        <v>12.4477548512973</v>
       </c>
       <c r="F162" t="n">
-        <v>13.3254509737404</v>
+        <v>11.4241537731365</v>
       </c>
       <c r="G162" t="n">
-        <v>11.7245560789022</v>
+        <v>12.831025015241</v>
       </c>
       <c r="H162" t="n">
-        <v>11.2106691708957</v>
+        <v>12.9250038204214</v>
       </c>
       <c r="I162" t="n">
-        <v>12.7670092140707</v>
+        <v>10.1003883988406</v>
       </c>
       <c r="J162" t="n">
-        <v>10.7141952784994</v>
+        <v>10.1972455608885</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>9.08441933877848</v>
+        <v>11.2359381008559</v>
       </c>
       <c r="B163" t="n">
-        <v>11.225324699565</v>
+        <v>11.6286769902761</v>
       </c>
       <c r="C163" t="n">
-        <v>11.7932123425424</v>
+        <v>12.0184524018206</v>
       </c>
       <c r="D163" t="n">
-        <v>12.3127476204189</v>
+        <v>12.7632673146072</v>
       </c>
       <c r="E163" t="n">
-        <v>11.9450673588946</v>
+        <v>12.5978568354177</v>
       </c>
       <c r="F163" t="n">
-        <v>12.8561960195639</v>
+        <v>12.678589382089</v>
       </c>
       <c r="G163" t="n">
-        <v>13.2079560892559</v>
+        <v>12.1287843837202</v>
       </c>
       <c r="H163" t="n">
-        <v>11.8460515684817</v>
+        <v>11.0098387320979</v>
       </c>
       <c r="I163" t="n">
-        <v>11.4958619572208</v>
+        <v>11.0945571175684</v>
       </c>
       <c r="J163" t="n">
-        <v>9.79828064634155</v>
+        <v>11.5908391708865</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-5.21132944105522</v>
+        <v>10.7721199365875</v>
       </c>
       <c r="B164" t="n">
-        <v>-5.32411622849635</v>
+        <v>10.8237168361448</v>
       </c>
       <c r="C164" t="n">
-        <v>-5.35949308243714</v>
+        <v>13.8090179595048</v>
       </c>
       <c r="D164" t="n">
-        <v>-4.64296233162157</v>
+        <v>10.7151789754987</v>
       </c>
       <c r="E164" t="n">
-        <v>-3.8083959744199</v>
+        <v>11.9875948290178</v>
       </c>
       <c r="F164" t="n">
-        <v>-2.2542549751451</v>
+        <v>12.3386311994446</v>
       </c>
       <c r="G164" t="n">
-        <v>-1.1468451192793</v>
+        <v>13.9660415718575</v>
       </c>
       <c r="H164" t="n">
-        <v>1.11675191249707</v>
+        <v>12.0393577773003</v>
       </c>
       <c r="I164" t="n">
-        <v>3.64804270460301</v>
+        <v>11.9232447784646</v>
       </c>
       <c r="J164" t="n">
-        <v>6.78539178358183</v>
+        <v>9.94118317150763</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.6559619504065</v>
+        <v>10.2862575616902</v>
       </c>
       <c r="B165" t="n">
-        <v>11.6649475761509</v>
+        <v>10.3920751451409</v>
       </c>
       <c r="C165" t="n">
-        <v>11.5681760817318</v>
+        <v>12.7137621923627</v>
       </c>
       <c r="D165" t="n">
-        <v>11.0259040131395</v>
+        <v>12.6170088794189</v>
       </c>
       <c r="E165" t="n">
-        <v>11.4653016521422</v>
+        <v>13.0208114588872</v>
       </c>
       <c r="F165" t="n">
-        <v>11.8138420318126</v>
+        <v>11.375106320753</v>
       </c>
       <c r="G165" t="n">
-        <v>12.8676936052342</v>
+        <v>12.9836967602543</v>
       </c>
       <c r="H165" t="n">
-        <v>13.2341296112538</v>
+        <v>13.3441039874163</v>
       </c>
       <c r="I165" t="n">
-        <v>11.5563422495497</v>
+        <v>12.2383891285357</v>
       </c>
       <c r="J165" t="n">
-        <v>10.8793505855987</v>
+        <v>11.3585274680829</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-4.84386370128678</v>
+        <v>9.8921169348944</v>
       </c>
       <c r="B166" t="n">
-        <v>-5.36665219979947</v>
+        <v>10.0526506121356</v>
       </c>
       <c r="C166" t="n">
-        <v>-4.70948975162035</v>
+        <v>11.3988257807707</v>
       </c>
       <c r="D166" t="n">
-        <v>-4.79172077451711</v>
+        <v>12.194736172781</v>
       </c>
       <c r="E166" t="n">
-        <v>-3.71249518843245</v>
+        <v>12.8782010955039</v>
       </c>
       <c r="F166" t="n">
-        <v>-2.49463908144219</v>
+        <v>13.0811613480223</v>
       </c>
       <c r="G166" t="n">
-        <v>-0.412581045013028</v>
+        <v>12.8947957585093</v>
       </c>
       <c r="H166" t="n">
-        <v>1.25682574945377</v>
+        <v>11.2375590222641</v>
       </c>
       <c r="I166" t="n">
-        <v>4.01277865003992</v>
+        <v>11.6542337347681</v>
       </c>
       <c r="J166" t="n">
-        <v>6.66947095160987</v>
+        <v>9.85895417124308</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9.43436761041201</v>
+        <v>10.0787896499659</v>
       </c>
       <c r="B167" t="n">
-        <v>10.1276999571587</v>
+        <v>10.7874203748756</v>
       </c>
       <c r="C167" t="n">
-        <v>12.0810298092326</v>
+        <v>10.9311866546602</v>
       </c>
       <c r="D167" t="n">
-        <v>12.1850140781402</v>
+        <v>11.268385943149</v>
       </c>
       <c r="E167" t="n">
-        <v>11.9069643574412</v>
+        <v>12.5817630979636</v>
       </c>
       <c r="F167" t="n">
-        <v>12.3544345084474</v>
+        <v>12.1533879681018</v>
       </c>
       <c r="G167" t="n">
-        <v>11.9114048651196</v>
+        <v>12.5472405675942</v>
       </c>
       <c r="H167" t="n">
-        <v>12.1267997241192</v>
+        <v>11.1282824707822</v>
       </c>
       <c r="I167" t="n">
-        <v>12.1587710627864</v>
+        <v>9.46922922720551</v>
       </c>
       <c r="J167" t="n">
-        <v>11.2597008302604</v>
+        <v>11.4448457251471</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-5.46086384377319</v>
+        <v>9.48438003210075</v>
       </c>
       <c r="B168" t="n">
-        <v>-4.92049170352247</v>
+        <v>10.8030529979393</v>
       </c>
       <c r="C168" t="n">
-        <v>-5.06082142290873</v>
+        <v>11.7918321802266</v>
       </c>
       <c r="D168" t="n">
-        <v>-4.70781792506933</v>
+        <v>13.1744078230656</v>
       </c>
       <c r="E168" t="n">
-        <v>-3.72890568966051</v>
+        <v>13.2047462441516</v>
       </c>
       <c r="F168" t="n">
-        <v>-2.27396462848571</v>
+        <v>13.786310345512</v>
       </c>
       <c r="G168" t="n">
-        <v>-1.28635220200776</v>
+        <v>11.6089580500083</v>
       </c>
       <c r="H168" t="n">
-        <v>1.55023887864545</v>
+        <v>12.0058440049828</v>
       </c>
       <c r="I168" t="n">
-        <v>3.92223317909137</v>
+        <v>12.7397216931617</v>
       </c>
       <c r="J168" t="n">
-        <v>6.90515371109896</v>
+        <v>10.7916216450936</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-4.92219891579613</v>
+        <v>-5.02300452847622</v>
       </c>
       <c r="B169" t="n">
-        <v>-5.40174853352975</v>
+        <v>-5.33911479267566</v>
       </c>
       <c r="C169" t="n">
-        <v>-5.17383819452399</v>
+        <v>-5.36359921641298</v>
       </c>
       <c r="D169" t="n">
-        <v>-4.7768951784322</v>
+        <v>-4.46717289740933</v>
       </c>
       <c r="E169" t="n">
-        <v>-3.8583274569057</v>
+        <v>-3.47980053286143</v>
       </c>
       <c r="F169" t="n">
-        <v>-2.6340781031758</v>
+        <v>-2.39720418494896</v>
       </c>
       <c r="G169" t="n">
-        <v>-0.361646663122274</v>
+        <v>-0.629687731079092</v>
       </c>
       <c r="H169" t="n">
-        <v>1.18487803389706</v>
+        <v>0.795480141049824</v>
       </c>
       <c r="I169" t="n">
-        <v>4.24975803452665</v>
+        <v>4.21878283884785</v>
       </c>
       <c r="J169" t="n">
-        <v>6.80970552453458</v>
+        <v>6.70398350187923</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-4.36388562640176</v>
+        <v>-5.06452480674571</v>
       </c>
       <c r="B170" t="n">
-        <v>-5.14697579173558</v>
+        <v>-5.57122881554737</v>
       </c>
       <c r="C170" t="n">
-        <v>-5.50898764481609</v>
+        <v>-5.28939951257005</v>
       </c>
       <c r="D170" t="n">
-        <v>-4.72803400442985</v>
+        <v>-4.67228239515115</v>
       </c>
       <c r="E170" t="n">
-        <v>-3.75625081573608</v>
+        <v>-3.98108258269163</v>
       </c>
       <c r="F170" t="n">
-        <v>-2.3663185404512</v>
+        <v>-2.33457186817596</v>
       </c>
       <c r="G170" t="n">
-        <v>-0.646509847343903</v>
+        <v>-0.800615034953448</v>
       </c>
       <c r="H170" t="n">
-        <v>1.41789657535007</v>
+        <v>1.13786232255603</v>
       </c>
       <c r="I170" t="n">
-        <v>4.00306720033635</v>
+        <v>3.47964322905669</v>
       </c>
       <c r="J170" t="n">
-        <v>6.35444388514253</v>
+        <v>6.59213348207893</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-5.17067494296404</v>
+        <v>10.0435646489128</v>
       </c>
       <c r="B171" t="n">
-        <v>-4.43055378664595</v>
+        <v>10.6530257695908</v>
       </c>
       <c r="C171" t="n">
-        <v>-5.14067682235033</v>
+        <v>11.1584735862901</v>
       </c>
       <c r="D171" t="n">
-        <v>-4.9841365780892</v>
+        <v>12.5745968058725</v>
       </c>
       <c r="E171" t="n">
-        <v>-4.37484541782975</v>
+        <v>12.651210661191</v>
       </c>
       <c r="F171" t="n">
-        <v>-2.35642584682161</v>
+        <v>11.3264263851053</v>
       </c>
       <c r="G171" t="n">
-        <v>-1.1661804699139</v>
+        <v>12.5142623218922</v>
       </c>
       <c r="H171" t="n">
-        <v>1.13669085096983</v>
+        <v>10.4121517414614</v>
       </c>
       <c r="I171" t="n">
-        <v>3.77881019718368</v>
+        <v>12.080348776893</v>
       </c>
       <c r="J171" t="n">
-        <v>6.72854005148377</v>
+        <v>11.5937654662881</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>8.81109227570105</v>
+        <v>-4.86212353487972</v>
       </c>
       <c r="B172" t="n">
-        <v>11.183939057296</v>
+        <v>-5.08048997522931</v>
       </c>
       <c r="C172" t="n">
-        <v>10.3838862585573</v>
+        <v>-5.52924318791194</v>
       </c>
       <c r="D172" t="n">
-        <v>12.2420005797433</v>
+        <v>-4.45083337450607</v>
       </c>
       <c r="E172" t="n">
-        <v>12.138999297502</v>
+        <v>-4.13055312090599</v>
       </c>
       <c r="F172" t="n">
-        <v>12.297536506673</v>
+        <v>-2.72727864921039</v>
       </c>
       <c r="G172" t="n">
-        <v>13.2997430644773</v>
+        <v>-1.07984582353461</v>
       </c>
       <c r="H172" t="n">
-        <v>11.4285934330997</v>
+        <v>0.987762536967195</v>
       </c>
       <c r="I172" t="n">
-        <v>12.1490585805937</v>
+        <v>3.94184843338284</v>
       </c>
       <c r="J172" t="n">
-        <v>10.1886740814355</v>
+        <v>6.84061890284533</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>10.1332454626655</v>
+        <v>10.2375632065003</v>
       </c>
       <c r="B173" t="n">
-        <v>10.7642867335774</v>
+        <v>10.1790605489662</v>
       </c>
       <c r="C173" t="n">
-        <v>11.4890859866589</v>
+        <v>11.475307597142</v>
       </c>
       <c r="D173" t="n">
-        <v>12.30264937214</v>
+        <v>11.4758402471282</v>
       </c>
       <c r="E173" t="n">
-        <v>13.1164668470311</v>
+        <v>11.407272713485</v>
       </c>
       <c r="F173" t="n">
-        <v>13.6383558786657</v>
+        <v>10.9797146706945</v>
       </c>
       <c r="G173" t="n">
-        <v>13.1675659451762</v>
+        <v>12.5299357997347</v>
       </c>
       <c r="H173" t="n">
-        <v>11.8134632468598</v>
+        <v>12.6945973081427</v>
       </c>
       <c r="I173" t="n">
-        <v>12.4750350998128</v>
+        <v>12.0301200600718</v>
       </c>
       <c r="J173" t="n">
-        <v>10.1530360891633</v>
+        <v>10.3744947098754</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>9.08221737457618</v>
+        <v>9.94371209087431</v>
       </c>
       <c r="B174" t="n">
-        <v>10.5280195148978</v>
+        <v>10.5657087423061</v>
       </c>
       <c r="C174" t="n">
-        <v>12.3051730665093</v>
+        <v>11.5110326622275</v>
       </c>
       <c r="D174" t="n">
-        <v>11.4312170065028</v>
+        <v>11.7949344317773</v>
       </c>
       <c r="E174" t="n">
-        <v>11.7990327922034</v>
+        <v>13.4877467015095</v>
       </c>
       <c r="F174" t="n">
-        <v>12.8795736514173</v>
+        <v>13.4578910791414</v>
       </c>
       <c r="G174" t="n">
-        <v>13.7287888991297</v>
+        <v>11.0276728620682</v>
       </c>
       <c r="H174" t="n">
-        <v>11.5816967111165</v>
+        <v>12.6531760452048</v>
       </c>
       <c r="I174" t="n">
-        <v>11.8694943660436</v>
+        <v>12.6095359235769</v>
       </c>
       <c r="J174" t="n">
-        <v>11.7461129256672</v>
+        <v>9.55646222219351</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>10.0487329886312</v>
+        <v>9.88519854985836</v>
       </c>
       <c r="B175" t="n">
-        <v>10.4160640191949</v>
+        <v>11.3077406929801</v>
       </c>
       <c r="C175" t="n">
-        <v>12.344654846655</v>
+        <v>12.8396946392344</v>
       </c>
       <c r="D175" t="n">
-        <v>13.8277534143543</v>
+        <v>11.3986932086853</v>
       </c>
       <c r="E175" t="n">
-        <v>12.3814617600826</v>
+        <v>12.8188670351858</v>
       </c>
       <c r="F175" t="n">
-        <v>12.8171715652793</v>
+        <v>13.5164934122736</v>
       </c>
       <c r="G175" t="n">
-        <v>12.4873365345658</v>
+        <v>13.7108393124199</v>
       </c>
       <c r="H175" t="n">
-        <v>10.453653120251</v>
+        <v>11.9941069310015</v>
       </c>
       <c r="I175" t="n">
-        <v>13.8413860375203</v>
+        <v>10.8183580091709</v>
       </c>
       <c r="J175" t="n">
-        <v>11.314224880231</v>
+        <v>12.7401460905637</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-4.99140464872164</v>
+        <v>9.05591018273132</v>
       </c>
       <c r="B176" t="n">
-        <v>-5.22898109782596</v>
+        <v>10.7855984224502</v>
       </c>
       <c r="C176" t="n">
-        <v>-5.09051537009056</v>
+        <v>11.5270122789167</v>
       </c>
       <c r="D176" t="n">
-        <v>-4.6525345976187</v>
+        <v>12.5199136144123</v>
       </c>
       <c r="E176" t="n">
-        <v>-3.65311207526034</v>
+        <v>11.502908352789</v>
       </c>
       <c r="F176" t="n">
-        <v>-2.93601633649444</v>
+        <v>11.8291781667437</v>
       </c>
       <c r="G176" t="n">
-        <v>-0.757958302185485</v>
+        <v>12.8416699075823</v>
       </c>
       <c r="H176" t="n">
-        <v>1.17293493463952</v>
+        <v>13.0547761308939</v>
       </c>
       <c r="I176" t="n">
-        <v>3.70255393440388</v>
+        <v>11.0420899136797</v>
       </c>
       <c r="J176" t="n">
-        <v>6.4886835873199</v>
+        <v>9.63338501447955</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-4.80018996752657</v>
+        <v>10.1996510252514</v>
       </c>
       <c r="B177" t="n">
-        <v>-5.57115753351392</v>
+        <v>11.1117579682107</v>
       </c>
       <c r="C177" t="n">
-        <v>-5.33415868356406</v>
+        <v>11.8172265299594</v>
       </c>
       <c r="D177" t="n">
-        <v>-4.4923847329614</v>
+        <v>13.1449355584417</v>
       </c>
       <c r="E177" t="n">
-        <v>-3.74991746191717</v>
+        <v>11.9834350834408</v>
       </c>
       <c r="F177" t="n">
-        <v>-2.62612963535848</v>
+        <v>13.7122738132761</v>
       </c>
       <c r="G177" t="n">
-        <v>-1.08735765051441</v>
+        <v>12.4856795022207</v>
       </c>
       <c r="H177" t="n">
-        <v>0.961275385959369</v>
+        <v>12.1689584751399</v>
       </c>
       <c r="I177" t="n">
-        <v>3.79121523071509</v>
+        <v>11.2128380316053</v>
       </c>
       <c r="J177" t="n">
-        <v>6.81153392730356</v>
+        <v>13.1858537614689</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>9.22110979302096</v>
+        <v>10.784057012755</v>
       </c>
       <c r="B178" t="n">
-        <v>12.1296416143253</v>
+        <v>10.7613350175493</v>
       </c>
       <c r="C178" t="n">
-        <v>10.1907896424106</v>
+        <v>10.9119531122991</v>
       </c>
       <c r="D178" t="n">
-        <v>13.1451995820794</v>
+        <v>12.846423010732</v>
       </c>
       <c r="E178" t="n">
-        <v>13.0634176734833</v>
+        <v>12.1276796462068</v>
       </c>
       <c r="F178" t="n">
-        <v>12.9283298943787</v>
+        <v>12.1711741245449</v>
       </c>
       <c r="G178" t="n">
-        <v>12.8142471724077</v>
+        <v>11.7488103807282</v>
       </c>
       <c r="H178" t="n">
-        <v>11.9525840609996</v>
+        <v>12.4285049950172</v>
       </c>
       <c r="I178" t="n">
-        <v>10.0491334631793</v>
+        <v>11.6113237355346</v>
       </c>
       <c r="J178" t="n">
-        <v>10.8236514415043</v>
+        <v>11.2688103781873</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-5.14318264512252</v>
+        <v>9.079404655116</v>
       </c>
       <c r="B179" t="n">
-        <v>-5.42023416034182</v>
+        <v>11.2300507300109</v>
       </c>
       <c r="C179" t="n">
-        <v>-5.54961189791205</v>
+        <v>11.5985297762969</v>
       </c>
       <c r="D179" t="n">
-        <v>-5.04351389396891</v>
+        <v>12.8092511069977</v>
       </c>
       <c r="E179" t="n">
-        <v>-3.79634358109168</v>
+        <v>11.9459855816142</v>
       </c>
       <c r="F179" t="n">
-        <v>-2.33002036356094</v>
+        <v>13.2941523445144</v>
       </c>
       <c r="G179" t="n">
-        <v>-0.62077902750145</v>
+        <v>13.4309274494266</v>
       </c>
       <c r="H179" t="n">
-        <v>1.32684192268239</v>
+        <v>11.038240793331</v>
       </c>
       <c r="I179" t="n">
-        <v>3.77303787663616</v>
+        <v>11.9106004420018</v>
       </c>
       <c r="J179" t="n">
-        <v>6.98280290274794</v>
+        <v>10.8308691019996</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>8.91009783951144</v>
+        <v>10.1311729801374</v>
       </c>
       <c r="B180" t="n">
-        <v>11.4082273236937</v>
+        <v>9.78365695461928</v>
       </c>
       <c r="C180" t="n">
-        <v>12.3901261352458</v>
+        <v>10.7590897405136</v>
       </c>
       <c r="D180" t="n">
-        <v>11.4997100321807</v>
+        <v>11.5574582263247</v>
       </c>
       <c r="E180" t="n">
-        <v>12.177190186598</v>
+        <v>12.5295384243051</v>
       </c>
       <c r="F180" t="n">
-        <v>12.6537396157335</v>
+        <v>12.1373087791852</v>
       </c>
       <c r="G180" t="n">
-        <v>12.6686773925088</v>
+        <v>13.012042671781</v>
       </c>
       <c r="H180" t="n">
-        <v>12.3614004637574</v>
+        <v>10.8226581968157</v>
       </c>
       <c r="I180" t="n">
-        <v>11.5804970701254</v>
+        <v>11.3657176206284</v>
       </c>
       <c r="J180" t="n">
-        <v>10.5257271650699</v>
+        <v>10.8710607295586</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>9.63774826911372</v>
+        <v>-5.11131228133798</v>
       </c>
       <c r="B181" t="n">
-        <v>12.2794939525162</v>
+        <v>-5.64043870385032</v>
       </c>
       <c r="C181" t="n">
-        <v>10.0663000133136</v>
+        <v>-5.06787463535222</v>
       </c>
       <c r="D181" t="n">
-        <v>11.4876113585677</v>
+        <v>-4.56076143119709</v>
       </c>
       <c r="E181" t="n">
-        <v>12.6984310619998</v>
+        <v>-4.13828776509911</v>
       </c>
       <c r="F181" t="n">
-        <v>12.7182388099491</v>
+        <v>-2.33406879034321</v>
       </c>
       <c r="G181" t="n">
-        <v>12.2470604790736</v>
+        <v>-0.757175764574642</v>
       </c>
       <c r="H181" t="n">
-        <v>11.9346317361411</v>
+        <v>0.969213018201217</v>
       </c>
       <c r="I181" t="n">
-        <v>11.228473044456</v>
+        <v>3.80494244259183</v>
       </c>
       <c r="J181" t="n">
-        <v>11.2838962056206</v>
+        <v>6.55018056606255</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>10.7098447651961</v>
+        <v>-5.16311237929326</v>
       </c>
       <c r="B182" t="n">
-        <v>11.41092146844</v>
+        <v>-5.56195178119214</v>
       </c>
       <c r="C182" t="n">
-        <v>11.878296166669</v>
+        <v>-5.29904173099309</v>
       </c>
       <c r="D182" t="n">
-        <v>11.9001222777058</v>
+        <v>-5.04517631461873</v>
       </c>
       <c r="E182" t="n">
-        <v>13.1832448501813</v>
+        <v>-3.75197922340747</v>
       </c>
       <c r="F182" t="n">
-        <v>12.4929516204914</v>
+        <v>-2.2648912958101</v>
       </c>
       <c r="G182" t="n">
-        <v>13.0353053545945</v>
+        <v>-0.640063232494786</v>
       </c>
       <c r="H182" t="n">
-        <v>11.6629365565809</v>
+        <v>0.891615411870297</v>
       </c>
       <c r="I182" t="n">
-        <v>11.47649455012</v>
+        <v>3.64744781875395</v>
       </c>
       <c r="J182" t="n">
-        <v>10.0021784973783</v>
+        <v>7.10349253897735</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-4.63049068911762</v>
+        <v>9.76096001825737</v>
       </c>
       <c r="B183" t="n">
-        <v>-5.08369119727102</v>
+        <v>10.3442587332008</v>
       </c>
       <c r="C183" t="n">
-        <v>-5.30609501506998</v>
+        <v>11.8959720672516</v>
       </c>
       <c r="D183" t="n">
-        <v>-4.92417644439857</v>
+        <v>12.6999069957934</v>
       </c>
       <c r="E183" t="n">
-        <v>-3.45258992528667</v>
+        <v>12.6659340671987</v>
       </c>
       <c r="F183" t="n">
-        <v>-2.3639279817546</v>
+        <v>11.6044238603117</v>
       </c>
       <c r="G183" t="n">
-        <v>-0.534042414780253</v>
+        <v>12.1664582407557</v>
       </c>
       <c r="H183" t="n">
-        <v>1.29071322330304</v>
+        <v>12.6468947821934</v>
       </c>
       <c r="I183" t="n">
-        <v>3.59989495278344</v>
+        <v>11.3174593034454</v>
       </c>
       <c r="J183" t="n">
-        <v>6.4428342864396</v>
+        <v>10.7932274199325</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>8.841863040951</v>
+        <v>9.46033609337999</v>
       </c>
       <c r="B184" t="n">
-        <v>10.3917227546427</v>
+        <v>11.5148276499947</v>
       </c>
       <c r="C184" t="n">
-        <v>12.5982858978128</v>
+        <v>11.2433156642669</v>
       </c>
       <c r="D184" t="n">
-        <v>12.1878799885332</v>
+        <v>11.8870870348143</v>
       </c>
       <c r="E184" t="n">
-        <v>11.7840165390508</v>
+        <v>12.1477969104783</v>
       </c>
       <c r="F184" t="n">
-        <v>13.2188989951584</v>
+        <v>12.906925565026</v>
       </c>
       <c r="G184" t="n">
-        <v>11.7082919797038</v>
+        <v>13.2821879275586</v>
       </c>
       <c r="H184" t="n">
-        <v>12.302271082742</v>
+        <v>12.6184043478531</v>
       </c>
       <c r="I184" t="n">
-        <v>11.6114556359435</v>
+        <v>10.4647604814123</v>
       </c>
       <c r="J184" t="n">
-        <v>10.3936010201622</v>
+        <v>10.8953531468643</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>10.9845865759832</v>
+        <v>9.56436414316578</v>
       </c>
       <c r="B185" t="n">
-        <v>11.2658310588635</v>
+        <v>10.667582942538</v>
       </c>
       <c r="C185" t="n">
-        <v>11.9059286055007</v>
+        <v>13.3661307698056</v>
       </c>
       <c r="D185" t="n">
-        <v>12.5961895566774</v>
+        <v>11.8210705774206</v>
       </c>
       <c r="E185" t="n">
-        <v>11.4302357896787</v>
+        <v>13.3369643180116</v>
       </c>
       <c r="F185" t="n">
-        <v>12.4603720615663</v>
+        <v>13.3977858809347</v>
       </c>
       <c r="G185" t="n">
-        <v>12.1708170878585</v>
+        <v>12.0653441282961</v>
       </c>
       <c r="H185" t="n">
-        <v>11.7115611449076</v>
+        <v>12.1527989745276</v>
       </c>
       <c r="I185" t="n">
-        <v>12.598506720486</v>
+        <v>11.6100811506474</v>
       </c>
       <c r="J185" t="n">
-        <v>9.91507261506091</v>
+        <v>12.8641244489394</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-4.78561020522723</v>
+        <v>9.99544658781821</v>
       </c>
       <c r="B186" t="n">
-        <v>-5.19704850631878</v>
+        <v>10.2163337024903</v>
       </c>
       <c r="C186" t="n">
-        <v>-5.19011306530366</v>
+        <v>10.9958633354878</v>
       </c>
       <c r="D186" t="n">
-        <v>-4.82586898266695</v>
+        <v>12.1527156529088</v>
       </c>
       <c r="E186" t="n">
-        <v>-4.07405772274734</v>
+        <v>12.3628708817479</v>
       </c>
       <c r="F186" t="n">
-        <v>-2.99198213216204</v>
+        <v>11.6927634649582</v>
       </c>
       <c r="G186" t="n">
-        <v>-1.32351344609173</v>
+        <v>11.4718579718021</v>
       </c>
       <c r="H186" t="n">
-        <v>1.97488500512258</v>
+        <v>11.0013195917099</v>
       </c>
       <c r="I186" t="n">
-        <v>4.15918604496068</v>
+        <v>10.5416569776656</v>
       </c>
       <c r="J186" t="n">
-        <v>7.08256150665599</v>
+        <v>12.3092312506978</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>10.4532693665614</v>
+        <v>-5.08192175843225</v>
       </c>
       <c r="B187" t="n">
-        <v>11.2914773748369</v>
+        <v>-5.41271924790363</v>
       </c>
       <c r="C187" t="n">
-        <v>12.7061587128451</v>
+        <v>-5.30593729427141</v>
       </c>
       <c r="D187" t="n">
-        <v>11.6934458459701</v>
+        <v>-4.67705981527789</v>
       </c>
       <c r="E187" t="n">
-        <v>12.0277209817792</v>
+        <v>-3.86542616203301</v>
       </c>
       <c r="F187" t="n">
-        <v>12.6158551463633</v>
+        <v>-2.65574720774443</v>
       </c>
       <c r="G187" t="n">
-        <v>12.756959715371</v>
+        <v>-0.690311928419049</v>
       </c>
       <c r="H187" t="n">
-        <v>11.0198445108915</v>
+        <v>1.49598243540539</v>
       </c>
       <c r="I187" t="n">
-        <v>11.0765927367855</v>
+        <v>3.84752400537376</v>
       </c>
       <c r="J187" t="n">
-        <v>11.1341685611986</v>
+        <v>6.46420602613586</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>10.6225553797851</v>
+        <v>9.99071429217772</v>
       </c>
       <c r="B188" t="n">
-        <v>10.1715984959857</v>
+        <v>9.50691501796823</v>
       </c>
       <c r="C188" t="n">
-        <v>10.7752182117526</v>
+        <v>13.1195625820866</v>
       </c>
       <c r="D188" t="n">
-        <v>11.6279090741628</v>
+        <v>11.9851142995688</v>
       </c>
       <c r="E188" t="n">
-        <v>12.7823744497777</v>
+        <v>13.2879148157629</v>
       </c>
       <c r="F188" t="n">
-        <v>13.1363420648237</v>
+        <v>11.8930783100159</v>
       </c>
       <c r="G188" t="n">
-        <v>12.7771999992273</v>
+        <v>13.2309209310226</v>
       </c>
       <c r="H188" t="n">
-        <v>11.8456176627537</v>
+        <v>12.9327780024951</v>
       </c>
       <c r="I188" t="n">
-        <v>12.0850020305005</v>
+        <v>11.824327091849</v>
       </c>
       <c r="J188" t="n">
-        <v>10.7208444001633</v>
+        <v>11.5530792241131</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>10.9488741760394</v>
+        <v>-4.83484466309368</v>
       </c>
       <c r="B189" t="n">
-        <v>12.4991691806855</v>
+        <v>-5.11169905747315</v>
       </c>
       <c r="C189" t="n">
-        <v>12.401775884395</v>
+        <v>-5.24456468654046</v>
       </c>
       <c r="D189" t="n">
-        <v>11.0908878877888</v>
+        <v>-4.72648744115035</v>
       </c>
       <c r="E189" t="n">
-        <v>11.8959981152714</v>
+        <v>-4.09895802040692</v>
       </c>
       <c r="F189" t="n">
-        <v>12.2389359457878</v>
+        <v>-2.93124328823999</v>
       </c>
       <c r="G189" t="n">
-        <v>11.6095351124642</v>
+        <v>-0.791039597401032</v>
       </c>
       <c r="H189" t="n">
-        <v>10.8468087337344</v>
+        <v>0.864955426721096</v>
       </c>
       <c r="I189" t="n">
-        <v>11.01090784089</v>
+        <v>3.59104483331788</v>
       </c>
       <c r="J189" t="n">
-        <v>10.8390195123501</v>
+        <v>6.62393690883594</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>9.76023786127051</v>
+        <v>9.22181024662775</v>
       </c>
       <c r="B190" t="n">
-        <v>10.1682792584167</v>
+        <v>11.0572336815083</v>
       </c>
       <c r="C190" t="n">
-        <v>12.7452576780847</v>
+        <v>10.1637850440361</v>
       </c>
       <c r="D190" t="n">
-        <v>12.4131730278232</v>
+        <v>12.5581780550877</v>
       </c>
       <c r="E190" t="n">
-        <v>13.7081096848081</v>
+        <v>12.1569207963934</v>
       </c>
       <c r="F190" t="n">
-        <v>13.0490354646976</v>
+        <v>11.6062178612119</v>
       </c>
       <c r="G190" t="n">
-        <v>12.7732509531256</v>
+        <v>13.3006109668884</v>
       </c>
       <c r="H190" t="n">
-        <v>12.0765900210539</v>
+        <v>11.6584158584</v>
       </c>
       <c r="I190" t="n">
-        <v>12.0718603757261</v>
+        <v>10.6224298616184</v>
       </c>
       <c r="J190" t="n">
-        <v>10.6654328191092</v>
+        <v>11.9434633865228</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-4.76922216710198</v>
+        <v>10.51594862772</v>
       </c>
       <c r="B191" t="n">
-        <v>-5.31635361940529</v>
+        <v>10.9519241754493</v>
       </c>
       <c r="C191" t="n">
-        <v>-4.86541508689027</v>
+        <v>10.9223780282793</v>
       </c>
       <c r="D191" t="n">
-        <v>-4.62878646959005</v>
+        <v>11.0457817147054</v>
       </c>
       <c r="E191" t="n">
-        <v>-3.97641834218011</v>
+        <v>12.0100986947845</v>
       </c>
       <c r="F191" t="n">
-        <v>-2.48111649791909</v>
+        <v>13.6706957588837</v>
       </c>
       <c r="G191" t="n">
-        <v>-0.933738615455322</v>
+        <v>12.9624834685453</v>
       </c>
       <c r="H191" t="n">
-        <v>1.46772651225653</v>
+        <v>12.7704124255586</v>
       </c>
       <c r="I191" t="n">
-        <v>3.9105471806048</v>
+        <v>11.4700225172684</v>
       </c>
       <c r="J191" t="n">
-        <v>6.31861212465305</v>
+        <v>10.6033831944785</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>9.01877248587689</v>
+        <v>9.65610121215675</v>
       </c>
       <c r="B192" t="n">
-        <v>12.3508672975584</v>
+        <v>11.9590899046608</v>
       </c>
       <c r="C192" t="n">
-        <v>11.7784717915864</v>
+        <v>11.5774904272661</v>
       </c>
       <c r="D192" t="n">
-        <v>11.6988997029158</v>
+        <v>12.4720121184368</v>
       </c>
       <c r="E192" t="n">
-        <v>13.0440487916055</v>
+        <v>11.6923470052963</v>
       </c>
       <c r="F192" t="n">
-        <v>10.9891776885068</v>
+        <v>13.0621121997918</v>
       </c>
       <c r="G192" t="n">
-        <v>11.2884908393898</v>
+        <v>12.6992377808338</v>
       </c>
       <c r="H192" t="n">
-        <v>11.7271124072237</v>
+        <v>12.4394852826407</v>
       </c>
       <c r="I192" t="n">
-        <v>11.7672989741807</v>
+        <v>11.516539062077</v>
       </c>
       <c r="J192" t="n">
-        <v>12.0660371170746</v>
+        <v>10.5167015191816</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>11.2993732890374</v>
+        <v>10.6096441241906</v>
       </c>
       <c r="B193" t="n">
-        <v>11.5958779599699</v>
+        <v>9.82059613193057</v>
       </c>
       <c r="C193" t="n">
-        <v>11.2972876933196</v>
+        <v>12.1803384766015</v>
       </c>
       <c r="D193" t="n">
-        <v>11.5999835484346</v>
+        <v>12.9137918384521</v>
       </c>
       <c r="E193" t="n">
-        <v>12.3343984058015</v>
+        <v>12.7894324172902</v>
       </c>
       <c r="F193" t="n">
-        <v>13.1449094585613</v>
+        <v>12.3978615056809</v>
       </c>
       <c r="G193" t="n">
-        <v>12.4022173080723</v>
+        <v>12.7855883028955</v>
       </c>
       <c r="H193" t="n">
-        <v>10.5568105308888</v>
+        <v>11.3954188542651</v>
       </c>
       <c r="I193" t="n">
-        <v>11.8784933441876</v>
+        <v>12.705789070761</v>
       </c>
       <c r="J193" t="n">
-        <v>10.959927276641</v>
+        <v>11.7598265176364</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>9.40610886350853</v>
+        <v>10.0073821618768</v>
       </c>
       <c r="B194" t="n">
-        <v>9.73939675323688</v>
+        <v>10.3021339830528</v>
       </c>
       <c r="C194" t="n">
-        <v>12.7763802461417</v>
+        <v>11.8835414129568</v>
       </c>
       <c r="D194" t="n">
-        <v>10.5601152639071</v>
+        <v>11.5771506288005</v>
       </c>
       <c r="E194" t="n">
-        <v>12.6183656622255</v>
+        <v>13.2782005314519</v>
       </c>
       <c r="F194" t="n">
-        <v>10.0906494262668</v>
+        <v>12.8504891223997</v>
       </c>
       <c r="G194" t="n">
-        <v>13.2905716588395</v>
+        <v>13.2422735161626</v>
       </c>
       <c r="H194" t="n">
-        <v>11.5311860541849</v>
+        <v>12.1710848710712</v>
       </c>
       <c r="I194" t="n">
-        <v>12.1965540874188</v>
+        <v>12.6533115484819</v>
       </c>
       <c r="J194" t="n">
-        <v>10.7432289679782</v>
+        <v>11.5065279850528</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>10.897506762282</v>
+        <v>10.1188997985867</v>
       </c>
       <c r="B195" t="n">
-        <v>11.3112263593486</v>
+        <v>12.0330612581917</v>
       </c>
       <c r="C195" t="n">
-        <v>10.8248337658944</v>
+        <v>11.4607810514332</v>
       </c>
       <c r="D195" t="n">
-        <v>12.0686372088039</v>
+        <v>11.4128095224414</v>
       </c>
       <c r="E195" t="n">
-        <v>11.8843641457177</v>
+        <v>11.8755704131203</v>
       </c>
       <c r="F195" t="n">
-        <v>12.1721848555604</v>
+        <v>12.6678027853597</v>
       </c>
       <c r="G195" t="n">
-        <v>11.61350843311</v>
+        <v>13.4893600193511</v>
       </c>
       <c r="H195" t="n">
-        <v>13.252664575323</v>
+        <v>13.5801157003655</v>
       </c>
       <c r="I195" t="n">
-        <v>10.6569097110113</v>
+        <v>12.2580838932978</v>
       </c>
       <c r="J195" t="n">
-        <v>12.6562790130514</v>
+        <v>9.8267901994634</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-4.74729341204336</v>
+        <v>11.424080734153</v>
       </c>
       <c r="B196" t="n">
-        <v>-5.66425854461921</v>
+        <v>10.4619451944304</v>
       </c>
       <c r="C196" t="n">
-        <v>-5.2088059989731</v>
+        <v>11.6990591277041</v>
       </c>
       <c r="D196" t="n">
-        <v>-4.64930137419161</v>
+        <v>12.0349244410837</v>
       </c>
       <c r="E196" t="n">
-        <v>-3.94011611216566</v>
+        <v>11.0308897581899</v>
       </c>
       <c r="F196" t="n">
-        <v>-2.16904058354395</v>
+        <v>12.3941526989357</v>
       </c>
       <c r="G196" t="n">
-        <v>-0.658654441403787</v>
+        <v>12.3607905022402</v>
       </c>
       <c r="H196" t="n">
-        <v>1.08354785255861</v>
+        <v>12.1694621524756</v>
       </c>
       <c r="I196" t="n">
-        <v>3.55683248189435</v>
+        <v>11.256652448723</v>
       </c>
       <c r="J196" t="n">
-        <v>6.96493238405547</v>
+        <v>10.9921562372866</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-4.92588168521422</v>
+        <v>-5.39668095574974</v>
       </c>
       <c r="B197" t="n">
-        <v>-5.31203241728173</v>
+        <v>-5.12437786745316</v>
       </c>
       <c r="C197" t="n">
-        <v>-4.87605144056945</v>
+        <v>-5.54005369196363</v>
       </c>
       <c r="D197" t="n">
-        <v>-4.15517676576287</v>
+        <v>-4.73101755116726</v>
       </c>
       <c r="E197" t="n">
-        <v>-3.53221362468125</v>
+        <v>-3.48394464230628</v>
       </c>
       <c r="F197" t="n">
-        <v>-2.16253660293894</v>
+        <v>-2.52101940719154</v>
       </c>
       <c r="G197" t="n">
-        <v>-1.03449213691624</v>
+        <v>-1.32343528037999</v>
       </c>
       <c r="H197" t="n">
-        <v>1.52213097231296</v>
+        <v>1.15328728351314</v>
       </c>
       <c r="I197" t="n">
-        <v>3.75878573662748</v>
+        <v>4.25500780925899</v>
       </c>
       <c r="J197" t="n">
-        <v>6.94108398514084</v>
+        <v>6.47840338172081</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-5.13073529756679</v>
+        <v>9.32897091480388</v>
       </c>
       <c r="B198" t="n">
-        <v>-5.64906974978331</v>
+        <v>11.425076061386</v>
       </c>
       <c r="C198" t="n">
-        <v>-4.95634297502769</v>
+        <v>12.4877728169102</v>
       </c>
       <c r="D198" t="n">
-        <v>-4.58392543355577</v>
+        <v>12.1755026337176</v>
       </c>
       <c r="E198" t="n">
-        <v>-3.85543739720352</v>
+        <v>12.2613649997489</v>
       </c>
       <c r="F198" t="n">
-        <v>-2.86842050304047</v>
+        <v>12.3839131876055</v>
       </c>
       <c r="G198" t="n">
-        <v>-1.20271000719503</v>
+        <v>12.6745046523307</v>
       </c>
       <c r="H198" t="n">
-        <v>1.29365600311818</v>
+        <v>12.3944121630563</v>
       </c>
       <c r="I198" t="n">
-        <v>3.74776460249856</v>
+        <v>12.3422693280216</v>
       </c>
       <c r="J198" t="n">
-        <v>6.73632070629009</v>
+        <v>12.4835110294279</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-4.90669236370257</v>
+        <v>11.1614546945812</v>
       </c>
       <c r="B199" t="n">
-        <v>-5.58322266146879</v>
+        <v>10.1413535116141</v>
       </c>
       <c r="C199" t="n">
-        <v>-5.16744645143747</v>
+        <v>10.7348931405427</v>
       </c>
       <c r="D199" t="n">
-        <v>-4.7802343438198</v>
+        <v>12.3691135677205</v>
       </c>
       <c r="E199" t="n">
-        <v>-3.60527489027908</v>
+        <v>11.5931576099075</v>
       </c>
       <c r="F199" t="n">
-        <v>-2.69528650677441</v>
+        <v>12.1006600533722</v>
       </c>
       <c r="G199" t="n">
-        <v>-0.768234643237952</v>
+        <v>12.235231205082</v>
       </c>
       <c r="H199" t="n">
-        <v>1.19195696322613</v>
+        <v>12.7727536844141</v>
       </c>
       <c r="I199" t="n">
-        <v>3.74182262507866</v>
+        <v>10.2037831766715</v>
       </c>
       <c r="J199" t="n">
-        <v>6.9518137343199</v>
+        <v>11.0319743815986</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-5.22319192651007</v>
+        <v>11.0024473206352</v>
       </c>
       <c r="B200" t="n">
-        <v>-5.10319555745682</v>
+        <v>11.3920628348513</v>
       </c>
       <c r="C200" t="n">
-        <v>-5.70160072154307</v>
+        <v>11.996420036367</v>
       </c>
       <c r="D200" t="n">
-        <v>-4.71993327907703</v>
+        <v>11.1081187234191</v>
       </c>
       <c r="E200" t="n">
-        <v>-3.83090514458031</v>
+        <v>12.4749695469509</v>
       </c>
       <c r="F200" t="n">
-        <v>-3.12213818441157</v>
+        <v>13.6442354739533</v>
       </c>
       <c r="G200" t="n">
-        <v>-0.767587295168368</v>
+        <v>11.2824429585495</v>
       </c>
       <c r="H200" t="n">
-        <v>1.02845250093278</v>
+        <v>12.4191700469554</v>
       </c>
       <c r="I200" t="n">
-        <v>3.73898212194745</v>
+        <v>12.887228281525</v>
       </c>
       <c r="J200" t="n">
-        <v>7.20832197153889</v>
+        <v>10.9661049057869</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>9.58957328822776</v>
+        <v>10.68953541562</v>
       </c>
       <c r="B201" t="n">
-        <v>10.4314095020944</v>
+        <v>11.5392246849519</v>
       </c>
       <c r="C201" t="n">
-        <v>11.2571423362207</v>
+        <v>10.9441341770085</v>
       </c>
       <c r="D201" t="n">
-        <v>12.3642821326165</v>
+        <v>12.7409441827173</v>
       </c>
       <c r="E201" t="n">
-        <v>12.5620762810602</v>
+        <v>12.2229570286093</v>
       </c>
       <c r="F201" t="n">
-        <v>14.7928252417547</v>
+        <v>13.5181686515551</v>
       </c>
       <c r="G201" t="n">
-        <v>12.9763134608031</v>
+        <v>12.5569528822138</v>
       </c>
       <c r="H201" t="n">
-        <v>12.663598056183</v>
+        <v>13.0153415694327</v>
       </c>
       <c r="I201" t="n">
-        <v>11.2542613185434</v>
+        <v>10.6908007638343</v>
       </c>
       <c r="J201" t="n">
-        <v>10.3676903916992</v>
+        <v>10.3765654639265</v>
       </c>
     </row>
   </sheetData>
